--- a/TRL all data.xlsx
+++ b/TRL all data.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioxfordnexus-my.sharepoint.com/personal/spet4768_ox_ac_uk/Documents/Desktop/Results/TRL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="325" documentId="11_F25DC773A252ABDACC1048A9519B73345BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF4F2BA1-EFED-4E49-B63F-604B9937D296}"/>
+  <xr:revisionPtr revIDLastSave="629" documentId="11_F25DC773A252ABDACC1048A9519B73345BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34CB6039-270D-407C-AD43-9C431D2D42C4}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Unlabelled data" sheetId="3" r:id="rId1"/>
+    <sheet name="Unlabelled total TG data" sheetId="6" r:id="rId1"/>
     <sheet name="Labelled data" sheetId="1" r:id="rId2"/>
-    <sheet name="Labelled BAF-Basal" sheetId="2" r:id="rId3"/>
-    <sheet name="Unlabelled BAF-Basal" sheetId="4" r:id="rId4"/>
+    <sheet name="Unlabelled PA data" sheetId="3" r:id="rId3"/>
+    <sheet name="Labelled BAF-Basal" sheetId="2" r:id="rId4"/>
+    <sheet name="Unlabelled BAF-Basal" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1398" uniqueCount="160">
   <si>
     <t>SAMPLE_ID</t>
   </si>
@@ -227,33 +228,6 @@
     <t>TRL_96</t>
   </si>
   <si>
-    <t>Intracellular 13C 16:0 from TG (nmol/g of protein)</t>
-  </si>
-  <si>
-    <t>Intracellular 13C 16:0 (nmol/g of protein)</t>
-  </si>
-  <si>
-    <t>Tracer recovery (%)</t>
-  </si>
-  <si>
-    <t>Proportion as IHCTG (%)</t>
-  </si>
-  <si>
-    <t>Proportion as IHCFA (%)</t>
-  </si>
-  <si>
-    <t>Proportion as secreted FA (%)</t>
-  </si>
-  <si>
-    <t>Total 13C 16:0 release</t>
-  </si>
-  <si>
-    <t>13C 16:0 HL release</t>
-  </si>
-  <si>
-    <t>13C 16:0 Lipophagy relase</t>
-  </si>
-  <si>
     <t>S</t>
   </si>
   <si>
@@ -440,23 +414,122 @@
     <t>Change EHCFA</t>
   </si>
   <si>
-    <t>13C 16:0 release (nmol/g of protein)</t>
-  </si>
-  <si>
-    <t>TRL uptake (%)</t>
-  </si>
-  <si>
-    <t>13C 16:0 from TG in media uptake (nmol/g of protein)</t>
-  </si>
-  <si>
-    <t>Lipolysis Ratio</t>
+    <t>Uncorrected TG</t>
+  </si>
+  <si>
+    <t>TG</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>OA</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>IHCFA TTR</t>
+  </si>
+  <si>
+    <t>IHCTG into IHCFA TTR</t>
+  </si>
+  <si>
+    <t>IHCTG into IHCFA conc</t>
+  </si>
+  <si>
+    <t>IHCTG conc</t>
+  </si>
+  <si>
+    <t>EHCFA conc</t>
+  </si>
+  <si>
+    <t>IHCFA conc</t>
+  </si>
+  <si>
+    <t>IHCTG  TTR</t>
+  </si>
+  <si>
+    <t>TRL TTR</t>
+  </si>
+  <si>
+    <t>TRL TG into IHCTG TTR</t>
+  </si>
+  <si>
+    <t>TRL TG conc</t>
+  </si>
+  <si>
+    <t>TRL TG into IHCTG conc</t>
+  </si>
+  <si>
+    <t>TRL disappearance</t>
+  </si>
+  <si>
+    <t>TRL TG into EHCFA TTR</t>
+  </si>
+  <si>
+    <t>TRL TG into EHCFA conc</t>
+  </si>
+  <si>
+    <t>TRL TG into IHCFA TTR</t>
+  </si>
+  <si>
+    <t>TRL TG into IHCFA conc</t>
+  </si>
+  <si>
+    <t>Veh</t>
+  </si>
+  <si>
+    <t>Basal EHCFA</t>
+  </si>
+  <si>
+    <t>Inhibited EHCFA</t>
+  </si>
+  <si>
+    <t>Lipophagy EHCFA</t>
+  </si>
+  <si>
+    <t>Basal IHCFA</t>
+  </si>
+  <si>
+    <t>Inhibited IHCFA</t>
+  </si>
+  <si>
+    <t>Lipophagy IHCFA</t>
+  </si>
+  <si>
+    <t>IHCTG into FAs conc</t>
+  </si>
+  <si>
+    <t>TRL disappearance conc</t>
+  </si>
+  <si>
+    <t>Tracer recovery</t>
+  </si>
+  <si>
+    <t>LFLS</t>
+  </si>
+  <si>
+    <t>HFHS-OPLA</t>
+  </si>
+  <si>
+    <t>HFHS-POLA</t>
+  </si>
+  <si>
+    <t>EHCFA TTR</t>
+  </si>
+  <si>
+    <t>Media2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00000000"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -476,6 +549,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -494,15 +572,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{67B246D3-62A9-4556-A434-57825D6178BE}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -518,6 +600,67 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{4002D26E-1176-43EC-89C9-92EF14210DB0}" name="Table37" displayName="Table37" ref="A1:L97" totalsRowShown="0">
+  <autoFilter ref="A1:L97" xr:uid="{E13CE539-CF60-4095-9985-D1D8280AE130}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H97">
+    <sortCondition ref="A1:A97"/>
+  </sortState>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{45A45EC8-3771-4109-A84B-7CBBDB5A982D}" name="SAMPLE_ID"/>
+    <tableColumn id="2" xr3:uid="{3D3B337A-652E-414D-A929-401D185A1A09}" name="Round"/>
+    <tableColumn id="4" xr3:uid="{A9828958-72A5-4C2A-A6F7-0F581DF401D8}" name="Media"/>
+    <tableColumn id="5" xr3:uid="{137631FA-8244-4C56-9D5F-F66DDBA1968A}" name="BAF"/>
+    <tableColumn id="6" xr3:uid="{AAFA0C7B-CCF0-49A2-869C-3369AB55C3D0}" name="TRL"/>
+    <tableColumn id="7" xr3:uid="{F216F542-1D61-4C8B-BC26-66B069F935CC}" name="Time (hours)"/>
+    <tableColumn id="8" xr3:uid="{9F1309AC-DDD3-458A-8D0D-E76AD2C4277A}" name="Protein (mg/mL)"/>
+    <tableColumn id="9" xr3:uid="{031268B7-6274-4291-B4A7-0CA08B017005}" name="Uncorrected TG"/>
+    <tableColumn id="13" xr3:uid="{F4C4FC7B-F59B-4C42-8168-AA5FE24E79BF}" name="TG"/>
+    <tableColumn id="14" xr3:uid="{78F4C847-0A50-44F9-9438-158C4669E8FE}" name="PA"/>
+    <tableColumn id="15" xr3:uid="{3816352F-4925-4F99-B537-3E2DA6543D54}" name="OA"/>
+    <tableColumn id="16" xr3:uid="{44548AAC-0D62-476E-9EAB-4B87C5FC76D1}" name="LA"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{718F37F4-C747-480B-BC7C-1B032847E400}" name="Table1" displayName="Table1" ref="A1:AB49" totalsRowShown="0">
+  <autoFilter ref="A1:AB49" xr:uid="{718F37F4-C747-480B-BC7C-1B032847E400}"/>
+  <tableColumns count="28">
+    <tableColumn id="1" xr3:uid="{6A4A04E1-8CA1-41B6-BD4E-5B0A03A30272}" name="SAMPLE_ID"/>
+    <tableColumn id="2" xr3:uid="{23F7E3F4-97E1-4FEA-B6B2-0A72EDD3F076}" name="Round"/>
+    <tableColumn id="3" xr3:uid="{507B92CC-C6FB-4C67-BC29-EBB21B46B55D}" name="Sample Type"/>
+    <tableColumn id="28" xr3:uid="{7BBD2D3F-B5FF-44C0-A7FA-E0B1C7B4455C}" name="Media2"/>
+    <tableColumn id="4" xr3:uid="{9FD7F1F8-BC96-4CA7-900F-E173BBF872F8}" name="Media"/>
+    <tableColumn id="5" xr3:uid="{72B9D063-B9B8-4358-AE32-A65E153DE44E}" name="BAF"/>
+    <tableColumn id="6" xr3:uid="{E082558D-4E1D-4EC5-ABE4-D931A107A236}" name="TRL"/>
+    <tableColumn id="7" xr3:uid="{D7F8CF2F-1715-4113-B290-5168773743A1}" name="Time (hours)"/>
+    <tableColumn id="10" xr3:uid="{642060C2-676E-4AB8-83E3-12C5088FB303}" name="IHCTG  TTR"/>
+    <tableColumn id="11" xr3:uid="{D9A00FE2-0EDA-41A2-9F31-CB63632AA1E9}" name="TRL TTR"/>
+    <tableColumn id="8" xr3:uid="{5D4B2A56-73E5-49E6-A94E-88C88901D984}" name="TRL TG into IHCTG TTR"/>
+    <tableColumn id="12" xr3:uid="{4A23AAF6-E3C1-4E6C-BE42-17295CF8EFA9}" name="IHCTG conc"/>
+    <tableColumn id="9" xr3:uid="{D24E86D7-FCC8-422E-952B-B942B7B1704E}" name="TRL TG conc"/>
+    <tableColumn id="13" xr3:uid="{2FE7241E-441C-493E-9F68-1555BD3AE0F3}" name="TRL TG into IHCTG conc"/>
+    <tableColumn id="14" xr3:uid="{2DB8F7F4-62BD-4DBE-8222-7718040A04F7}" name="TRL disappearance"/>
+    <tableColumn id="15" xr3:uid="{9F27524A-72FF-409B-BC74-A215DE9ACC18}" name="EHCFA TTR"/>
+    <tableColumn id="16" xr3:uid="{8C389B2F-45E4-47A5-B13F-0CB8A28DFFA9}" name="TRL TG into EHCFA TTR"/>
+    <tableColumn id="17" xr3:uid="{7A425B34-C484-4716-BA6A-8D3D71DD8B36}" name="EHCFA conc"/>
+    <tableColumn id="18" xr3:uid="{5EEB98E9-6F87-402A-A786-1B808CF301B2}" name="TRL TG into EHCFA conc"/>
+    <tableColumn id="19" xr3:uid="{4967AA61-C194-4FD1-AB31-1A7FD0578D27}" name="IHCFA TTR"/>
+    <tableColumn id="20" xr3:uid="{8C02710B-744A-4ECA-B29B-494D02228A31}" name="IHCFA conc"/>
+    <tableColumn id="21" xr3:uid="{C1584843-6E17-40FC-9320-061B173500DE}" name="TRL TG into IHCFA TTR"/>
+    <tableColumn id="22" xr3:uid="{8118C8C8-8206-4F92-8911-A5C1BEFD0D04}" name="TRL TG into IHCFA conc"/>
+    <tableColumn id="23" xr3:uid="{63C4FA79-4084-460E-85E7-91C58800AAE9}" name="IHCTG into IHCFA TTR"/>
+    <tableColumn id="24" xr3:uid="{C1F6A23E-580B-4BEE-880B-527193B1BA38}" name="IHCTG into IHCFA conc"/>
+    <tableColumn id="25" xr3:uid="{6679CEAC-8D1D-40CF-BB68-A9879C1DE454}" name="IHCTG into FAs conc"/>
+    <tableColumn id="26" xr3:uid="{0AE3CDA2-97E0-4EB8-A0A7-A5BC8DD87ABE}" name="TRL disappearance conc"/>
+    <tableColumn id="27" xr3:uid="{1B76E406-E403-4A14-AFAF-83039C31B977}" name="Tracer recovery"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E13CE539-CF60-4095-9985-D1D8280AE130}" name="Table3" displayName="Table3" ref="A1:J97" totalsRowShown="0">
   <autoFilter ref="A1:J97" xr:uid="{E13CE539-CF60-4095-9985-D1D8280AE130}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J97">
@@ -539,39 +682,13 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{718F37F4-C747-480B-BC7C-1B032847E400}" name="Table1" displayName="Table1" ref="A1:Q49" totalsRowShown="0">
-  <autoFilter ref="A1:Q49" xr:uid="{718F37F4-C747-480B-BC7C-1B032847E400}"/>
-  <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{6A4A04E1-8CA1-41B6-BD4E-5B0A03A30272}" name="SAMPLE_ID"/>
-    <tableColumn id="2" xr3:uid="{23F7E3F4-97E1-4FEA-B6B2-0A72EDD3F076}" name="Round"/>
-    <tableColumn id="3" xr3:uid="{507B92CC-C6FB-4C67-BC29-EBB21B46B55D}" name="Sample Type"/>
-    <tableColumn id="4" xr3:uid="{9FD7F1F8-BC96-4CA7-900F-E173BBF872F8}" name="Media"/>
-    <tableColumn id="5" xr3:uid="{72B9D063-B9B8-4358-AE32-A65E153DE44E}" name="BAF"/>
-    <tableColumn id="6" xr3:uid="{E082558D-4E1D-4EC5-ABE4-D931A107A236}" name="TRL"/>
-    <tableColumn id="7" xr3:uid="{D7F8CF2F-1715-4113-B290-5168773743A1}" name="Time (hours)"/>
-    <tableColumn id="10" xr3:uid="{642060C2-676E-4AB8-83E3-12C5088FB303}" name="13C 16:0 from TG in media uptake (nmol/g of protein)"/>
-    <tableColumn id="11" xr3:uid="{D9A00FE2-0EDA-41A2-9F31-CB63632AA1E9}" name="13C 16:0 release (nmol/g of protein)"/>
-    <tableColumn id="8" xr3:uid="{5D4B2A56-73E5-49E6-A94E-88C88901D984}" name="Intracellular 13C 16:0 from TG (nmol/g of protein)"/>
-    <tableColumn id="9" xr3:uid="{A623C2E5-15E2-4A11-B112-06841DB63558}" name="Intracellular 13C 16:0 (nmol/g of protein)"/>
-    <tableColumn id="16" xr3:uid="{0837EDDF-EA9F-4AB0-BA73-D0FE46099E8C}" name="TRL uptake (%)"/>
-    <tableColumn id="12" xr3:uid="{69E75FA5-BE0A-438E-A139-8EFDF1CB40B8}" name="Tracer recovery (%)"/>
-    <tableColumn id="13" xr3:uid="{D1B412C9-A9C6-4541-A9BF-4C0EDF94DD9A}" name="Proportion as IHCTG (%)"/>
-    <tableColumn id="14" xr3:uid="{5F7947A1-F2A0-4939-B825-C75BC9BF0E92}" name="Proportion as IHCFA (%)"/>
-    <tableColumn id="15" xr3:uid="{E6DB6359-96A6-4937-89E0-F35590CDD51C}" name="Proportion as secreted FA (%)"/>
-    <tableColumn id="17" xr3:uid="{FCAEFCB2-9F7A-4657-9A42-CA2C625627D5}" name="Lipolysis Ratio"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CC4D6097-509B-4C6C-AE00-E60DC130906B}" name="Table2" displayName="Table2" ref="A1:J1048552" totalsRowShown="0">
-  <autoFilter ref="A1:J1048552" xr:uid="{CC4D6097-509B-4C6C-AE00-E60DC130906B}"/>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CC4D6097-509B-4C6C-AE00-E60DC130906B}" name="Table2" displayName="Table2" ref="A1:M1048552" totalsRowShown="0">
+  <autoFilter ref="A1:M1048552" xr:uid="{CC4D6097-509B-4C6C-AE00-E60DC130906B}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J25">
     <sortCondition ref="E1:E1048552"/>
   </sortState>
-  <tableColumns count="10">
+  <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{51B61C16-0D34-4A4D-8D60-010A2EA33EA3}" name="SAMPLE_ID"/>
     <tableColumn id="2" xr3:uid="{61A3FC00-8247-442B-9DB2-6C848F06C0D3}" name="Round"/>
     <tableColumn id="3" xr3:uid="{91CF9DB9-3D51-48CF-8401-90493051EF21}" name="Sample Type"/>
@@ -579,15 +696,18 @@
     <tableColumn id="5" xr3:uid="{0C97A413-CBDB-46D9-97FB-1A7605E456D0}" name="BAF"/>
     <tableColumn id="6" xr3:uid="{CCFA6FB2-76DF-4DE1-85AB-143B38DE93FD}" name="TRL"/>
     <tableColumn id="7" xr3:uid="{4D2E4D5C-3EC9-4F09-8A47-923F3B7C9E2D}" name="Time (hours)"/>
-    <tableColumn id="8" xr3:uid="{025F6607-983E-4EF7-8599-89A5B2FBBC96}" name="Total 13C 16:0 release"/>
-    <tableColumn id="9" xr3:uid="{8E14BD90-E932-4188-878A-68EECEAF5734}" name="13C 16:0 HL release"/>
-    <tableColumn id="10" xr3:uid="{339F07A5-24AE-4938-8F4F-2FAC13D13B90}" name="13C 16:0 Lipophagy relase"/>
+    <tableColumn id="8" xr3:uid="{025F6607-983E-4EF7-8599-89A5B2FBBC96}" name="Basal EHCFA"/>
+    <tableColumn id="9" xr3:uid="{8E14BD90-E932-4188-878A-68EECEAF5734}" name="Inhibited EHCFA"/>
+    <tableColumn id="10" xr3:uid="{339F07A5-24AE-4938-8F4F-2FAC13D13B90}" name="Lipophagy EHCFA"/>
+    <tableColumn id="11" xr3:uid="{6D6624B1-142C-48F2-913E-3849D9733A68}" name="Basal IHCFA"/>
+    <tableColumn id="12" xr3:uid="{D6DAD69A-E074-4F9F-B8A0-20AC452DBC8B}" name="Inhibited IHCFA"/>
+    <tableColumn id="13" xr3:uid="{FA3FB560-902D-4718-BCB7-5942711A0652}" name="Lipophagy IHCFA"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0EF3B135-8C86-4D92-8865-EB6B0E66D47D}" name="Table4" displayName="Table4" ref="A1:O37" totalsRowShown="0">
   <autoFilter ref="A1:O37" xr:uid="{0EF3B135-8C86-4D92-8865-EB6B0E66D47D}"/>
   <tableColumns count="15">
@@ -873,11 +993,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F60E434C-11A3-44BB-A07D-9898958DBABA}">
-  <dimension ref="A1:J97"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8578C855-E3BD-4A86-B059-4BF12FD49329}">
+  <dimension ref="A1:L97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -885,12 +1005,13 @@
     <col min="1" max="1" width="13.140625" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" customWidth="1"/>
     <col min="7" max="7" width="17.7109375" customWidth="1"/>
-    <col min="8" max="8" width="25.140625" customWidth="1"/>
-    <col min="9" max="9" width="33" customWidth="1"/>
-    <col min="10" max="10" width="24" customWidth="1"/>
+    <col min="8" max="8" width="37" customWidth="1"/>
+    <col min="9" max="9" width="27.85546875" customWidth="1"/>
+    <col min="10" max="10" width="39.28515625" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -910,21 +1031,27 @@
         <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="H1" t="s">
-        <v>72</v>
+        <v>124</v>
       </c>
       <c r="I1" t="s">
-        <v>73</v>
+        <v>125</v>
       </c>
       <c r="J1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+      <c r="K1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -936,7 +1063,7 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -944,19 +1071,26 @@
       <c r="G2">
         <v>1.6105425179999999</v>
       </c>
-      <c r="H2">
-        <v>173.01426953253483</v>
+      <c r="H2" s="2">
+        <v>308.11429969114283</v>
       </c>
       <c r="I2">
-        <v>20.144252748558504</v>
-      </c>
-      <c r="J2">
-        <v>39.109498305910371</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <f>Table37[[#This Row],[Uncorrected TG]]/$G2</f>
+        <v>191.31087583689788</v>
+      </c>
+      <c r="J2" s="3">
+        <v>30.14539707960952</v>
+      </c>
+      <c r="K2" s="2">
+        <v>51.054236929822792</v>
+      </c>
+      <c r="L2" s="2">
+        <v>11.338013558477908</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -968,7 +1102,7 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -976,19 +1110,26 @@
       <c r="G3">
         <v>1.8536911395000002</v>
       </c>
-      <c r="H3">
-        <v>533.31731576330765</v>
+      <c r="H3" s="2">
+        <v>822.50894195078638</v>
       </c>
       <c r="I3">
-        <v>29.734371999687095</v>
-      </c>
-      <c r="J3">
-        <v>110.59729231982354</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <f>Table37[[#This Row],[Uncorrected TG]]/$G3</f>
+        <v>443.71412498235458</v>
+      </c>
+      <c r="J3" s="3">
+        <v>40.064633641049589</v>
+      </c>
+      <c r="K3" s="2">
+        <v>36.526209646368713</v>
+      </c>
+      <c r="L3" s="2">
+        <v>11.342052436357985</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1000,7 +1141,7 @@
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -1008,17 +1149,24 @@
       <c r="G4">
         <v>1.1077408155000004</v>
       </c>
-      <c r="H4">
-        <v>1359.466371771872</v>
+      <c r="H4" s="2">
+        <v>962.21557139869947</v>
       </c>
       <c r="I4">
-        <v>70.328908625300357</v>
-      </c>
-      <c r="J4">
-        <v>36.642261251919024</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <f>Table37[[#This Row],[Uncorrected TG]]/$G4</f>
+        <v>868.62879649729689</v>
+      </c>
+      <c r="J4" s="3">
+        <v>52.16905760948957</v>
+      </c>
+      <c r="K4" s="2">
+        <v>30.00322706792198</v>
+      </c>
+      <c r="L4" s="2">
+        <v>2.6887631364553291</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1040,17 +1188,24 @@
       <c r="G5">
         <v>1.4236399874999996</v>
       </c>
-      <c r="H5">
-        <v>225.98393423286237</v>
+      <c r="H5" s="2">
+        <v>433.415596060268</v>
       </c>
       <c r="I5">
-        <v>40.4866324849474</v>
-      </c>
-      <c r="J5">
-        <v>40.600934793142386</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <f>Table37[[#This Row],[Uncorrected TG]]/$G5</f>
+        <v>304.44185318324247</v>
+      </c>
+      <c r="J5" s="3">
+        <v>24.742977120258548</v>
+      </c>
+      <c r="K5" s="2">
+        <v>47.703974351900364</v>
+      </c>
+      <c r="L5" s="2">
+        <v>10.572400726458955</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1072,17 +1227,24 @@
       <c r="G6">
         <v>1.2781464648750005</v>
       </c>
-      <c r="H6">
-        <v>895.59278904839846</v>
+      <c r="H6" s="2">
+        <v>1040.762554730029</v>
       </c>
       <c r="I6">
-        <v>47.756694083919342</v>
-      </c>
-      <c r="J6">
-        <v>47.76749967535234</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <f>Table37[[#This Row],[Uncorrected TG]]/$G6</f>
+        <v>814.27487641787047</v>
+      </c>
+      <c r="J6" s="3">
+        <v>36.66218108018834</v>
+      </c>
+      <c r="K6" s="2">
+        <v>39.0485692381977</v>
+      </c>
+      <c r="L6" s="2">
+        <v>14.867864902297709</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1104,19 +1266,26 @@
       <c r="G7">
         <v>1.4635275138749999</v>
       </c>
-      <c r="H7">
-        <v>1138.8237337716355</v>
+      <c r="H7" s="2">
+        <v>1124.9029265019719</v>
       </c>
       <c r="I7">
-        <v>50.700576649730742</v>
-      </c>
-      <c r="J7">
-        <v>43.755952867542817</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <f>Table37[[#This Row],[Uncorrected TG]]/$G7</f>
+        <v>768.62437900026396</v>
+      </c>
+      <c r="J7" s="3">
+        <v>49.387961353887988</v>
+      </c>
+      <c r="K7" s="2">
+        <v>32.557295861024336</v>
+      </c>
+      <c r="L7" s="2">
+        <v>3.990530175523991</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1128,7 +1297,7 @@
         <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -1136,19 +1305,26 @@
       <c r="G8">
         <v>1.6508449938750001</v>
       </c>
-      <c r="H8">
-        <v>152.10406761004765</v>
+      <c r="H8" s="2">
+        <v>294.05463991888212</v>
       </c>
       <c r="I8">
-        <v>31.255620097332791</v>
-      </c>
-      <c r="J8">
-        <v>27.228711706365296</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <f>Table37[[#This Row],[Uncorrected TG]]/$G8</f>
+        <v>178.12371301357175</v>
+      </c>
+      <c r="J8" s="3">
+        <v>28.464124743544279</v>
+      </c>
+      <c r="K8" s="2">
+        <v>51.301677116137149</v>
+      </c>
+      <c r="L8" s="2">
+        <v>12.733126526612121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1160,7 +1336,7 @@
         <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -1168,19 +1344,26 @@
       <c r="G9">
         <v>1.2124082355000003</v>
       </c>
-      <c r="H9">
-        <v>861.93636452495252</v>
+      <c r="H9" s="2">
+        <v>927.81778862715259</v>
       </c>
       <c r="I9">
-        <v>52.180755624689148</v>
-      </c>
-      <c r="J9">
-        <v>47.74944422430481</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <f>Table37[[#This Row],[Uncorrected TG]]/$G9</f>
+        <v>765.26846441662292</v>
+      </c>
+      <c r="J9" s="3">
+        <v>37.543964617350383</v>
+      </c>
+      <c r="K9" s="2">
+        <v>38.101388917215601</v>
+      </c>
+      <c r="L9" s="2">
+        <v>14.694885190628547</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1192,7 +1375,7 @@
         <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F10">
         <v>2</v>
@@ -1200,17 +1383,24 @@
       <c r="G10">
         <v>1.3177079594999996</v>
       </c>
-      <c r="H10">
-        <v>1373.2320044692881</v>
+      <c r="H10" s="2">
+        <v>1169.5803750410248</v>
       </c>
       <c r="I10">
-        <v>67.561742178854146</v>
-      </c>
-      <c r="J10">
-        <v>31.158934116229382</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <f>Table37[[#This Row],[Uncorrected TG]]/$G10</f>
+        <v>887.58693958623326</v>
+      </c>
+      <c r="J10" s="3">
+        <v>51.57173692789457</v>
+      </c>
+      <c r="K10" s="2">
+        <v>33.640278465273404</v>
+      </c>
+      <c r="L10" s="2">
+        <v>3.9240382481030669</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1232,17 +1422,24 @@
       <c r="G11">
         <v>1.0296552000000001</v>
       </c>
-      <c r="H11">
-        <v>307.49942330827292</v>
+      <c r="H11" s="2">
+        <v>391.98792009854083</v>
       </c>
       <c r="I11">
-        <v>47.968323654529669</v>
-      </c>
-      <c r="J11">
-        <v>53.385538705604588</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <f>Table37[[#This Row],[Uncorrected TG]]/$G11</f>
+        <v>380.69823771932658</v>
+      </c>
+      <c r="J11" s="3">
+        <v>26.924161347180512</v>
+      </c>
+      <c r="K11" s="2">
+        <v>53.588856669179123</v>
+      </c>
+      <c r="L11" s="2">
+        <v>11.972545141611461</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1264,17 +1461,24 @@
       <c r="G12">
         <v>1.3970977019999997</v>
       </c>
-      <c r="H12">
-        <v>899.84664593017567</v>
+      <c r="H12" s="2">
+        <v>1077.413118073418</v>
       </c>
       <c r="I12">
-        <v>60.931057688042152</v>
-      </c>
-      <c r="J12">
-        <v>33.443243448031232</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <f>Table37[[#This Row],[Uncorrected TG]]/$G12</f>
+        <v>771.17950772595157</v>
+      </c>
+      <c r="J12" s="3">
+        <v>38.894820073890735</v>
+      </c>
+      <c r="K12" s="2">
+        <v>40.776677403256571</v>
+      </c>
+      <c r="L12" s="2">
+        <v>14.21790366447296</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1296,19 +1500,26 @@
       <c r="G13">
         <v>1.5168491988749999</v>
       </c>
-      <c r="H13">
-        <v>1162.5731676532141</v>
+      <c r="H13" s="2">
+        <v>1175.8675944831375</v>
       </c>
       <c r="I13">
-        <v>59.639989032318056</v>
-      </c>
-      <c r="J13">
-        <v>36.297255418782434</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <f>Table37[[#This Row],[Uncorrected TG]]/$G13</f>
+        <v>775.20401853740111</v>
+      </c>
+      <c r="J13" s="3">
+        <v>49.989987145434434</v>
+      </c>
+      <c r="K13" s="2">
+        <v>32.171223262247743</v>
+      </c>
+      <c r="L13" s="2">
+        <v>3.5456382748870676</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -1320,7 +1531,7 @@
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F14">
         <v>2</v>
@@ -1328,19 +1539,26 @@
       <c r="G14">
         <v>1.1599954875000005</v>
       </c>
-      <c r="H14">
-        <v>230.7360642778344</v>
+      <c r="H14" s="2">
+        <v>322.1404922389703</v>
       </c>
       <c r="I14">
-        <v>37.151691621013541</v>
-      </c>
-      <c r="J14">
-        <v>41.023799350304927</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <f>Table37[[#This Row],[Uncorrected TG]]/$G14</f>
+        <v>277.70840120528499</v>
+      </c>
+      <c r="J14" s="3">
+        <v>27.695244757500376</v>
+      </c>
+      <c r="K14" s="2">
+        <v>52.011686817007195</v>
+      </c>
+      <c r="L14" s="2">
+        <v>11.868339998086107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -1352,7 +1570,7 @@
         <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F15">
         <v>2</v>
@@ -1360,19 +1578,26 @@
       <c r="G15">
         <v>1.0816727580000003</v>
       </c>
-      <c r="H15">
-        <v>1181.8371630261042</v>
+      <c r="H15" s="2">
+        <v>1180.02951730052</v>
       </c>
       <c r="I15">
-        <v>64.230650742943439</v>
-      </c>
-      <c r="J15">
-        <v>39.35471259246966</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <f>Table37[[#This Row],[Uncorrected TG]]/$G15</f>
+        <v>1090.9302361301768</v>
+      </c>
+      <c r="J15" s="3">
+        <v>36.110991148813781</v>
+      </c>
+      <c r="K15" s="2">
+        <v>40.589800474048424</v>
+      </c>
+      <c r="L15" s="2">
+        <v>13.094122785130706</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -1384,7 +1609,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F16">
         <v>2</v>
@@ -1392,17 +1617,24 @@
       <c r="G16">
         <v>1.7182133820000001</v>
       </c>
-      <c r="H16">
-        <v>946.78343543596884</v>
+      <c r="H16" s="2">
+        <v>1111.3977480199403</v>
       </c>
       <c r="I16">
-        <v>32.613894106217408</v>
-      </c>
-      <c r="J16">
-        <v>26.018873110486282</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <f>Table37[[#This Row],[Uncorrected TG]]/$G16</f>
+        <v>646.83336753335811</v>
+      </c>
+      <c r="J16" s="3">
+        <v>48.790692366744771</v>
+      </c>
+      <c r="K16" s="2">
+        <v>33.447067121795065</v>
+      </c>
+      <c r="L16" s="2">
+        <v>2.0990386641935355</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1424,17 +1656,24 @@
       <c r="G17">
         <v>1.1469169998750004</v>
       </c>
-      <c r="H17">
-        <v>282.19302898854266</v>
+      <c r="H17" s="2">
+        <v>458.82536554016383</v>
       </c>
       <c r="I17">
-        <v>36.550681239837601</v>
-      </c>
-      <c r="J17">
-        <v>36.023697802772212</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <f>Table37[[#This Row],[Uncorrected TG]]/$G17</f>
+        <v>400.05106349471674</v>
+      </c>
+      <c r="J17" s="3">
+        <v>23.513084098431133</v>
+      </c>
+      <c r="K17" s="2">
+        <v>56.800462920614144</v>
+      </c>
+      <c r="L17" s="2">
+        <v>11.744118123523009</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1456,17 +1695,24 @@
       <c r="G18">
         <v>1.3705949355</v>
       </c>
-      <c r="H18">
-        <v>1021.2887211710265</v>
+      <c r="H18" s="2">
+        <v>1204.5275593881572</v>
       </c>
       <c r="I18">
-        <v>45.162894376372229</v>
-      </c>
-      <c r="J18">
-        <v>36.167449909173207</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <f>Table37[[#This Row],[Uncorrected TG]]/$G18</f>
+        <v>878.83555395507096</v>
+      </c>
+      <c r="J18" s="3">
+        <v>38.736436207163216</v>
+      </c>
+      <c r="K18" s="2">
+        <v>40.329812000360214</v>
+      </c>
+      <c r="L18" s="2">
+        <v>8.5353180584189783</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1488,19 +1734,26 @@
       <c r="G19">
         <v>1.0947018468750003</v>
       </c>
-      <c r="H19">
-        <v>1568.5530817600268</v>
+      <c r="H19" s="2">
+        <v>1134.7843381446489</v>
       </c>
       <c r="I19">
-        <v>62.585864314755071</v>
-      </c>
-      <c r="J19">
-        <v>53.738104758224004</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <f>Table37[[#This Row],[Uncorrected TG]]/$G19</f>
+        <v>1036.6149846043199</v>
+      </c>
+      <c r="J19" s="3">
+        <v>50.438304965552526</v>
+      </c>
+      <c r="K19" s="2">
+        <v>35.957356021450636</v>
+      </c>
+      <c r="L19" s="2">
+        <v>2.0507520493230458</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -1512,7 +1765,7 @@
         <v>17</v>
       </c>
       <c r="E20" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F20">
         <v>2</v>
@@ -1520,19 +1773,26 @@
       <c r="G20">
         <v>1.4369259498750007</v>
       </c>
-      <c r="H20">
-        <v>196.35373588481642</v>
+      <c r="H20" s="2">
+        <v>412.9277399840787</v>
       </c>
       <c r="I20">
-        <v>32.03226131897484</v>
-      </c>
-      <c r="J20">
-        <v>34.554238918619035</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <f>Table37[[#This Row],[Uncorrected TG]]/$G20</f>
+        <v>287.36883763564828</v>
+      </c>
+      <c r="J20" s="3">
+        <v>22.776041352794039</v>
+      </c>
+      <c r="K20" s="2">
+        <v>58.205111279544361</v>
+      </c>
+      <c r="L20" s="2">
+        <v>11.746221843485765</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -1544,7 +1804,7 @@
         <v>17</v>
       </c>
       <c r="E21" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F21">
         <v>2</v>
@@ -1552,19 +1812,26 @@
       <c r="G21">
         <v>1.7317166988749999</v>
       </c>
-      <c r="H21">
-        <v>682.38752975253624</v>
+      <c r="H21" s="2">
+        <v>1033.0031794153399</v>
       </c>
       <c r="I21">
-        <v>42.217644187698873</v>
-      </c>
-      <c r="J21">
-        <v>32.531823980163296</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+        <f>Table37[[#This Row],[Uncorrected TG]]/$G21</f>
+        <v>596.51973101975898</v>
+      </c>
+      <c r="J21" s="3">
+        <v>38.131598686377345</v>
+      </c>
+      <c r="K21" s="2">
+        <v>40.37609124653914</v>
+      </c>
+      <c r="L21" s="2">
+        <v>8.7329101349055804</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -1576,7 +1843,7 @@
         <v>17</v>
       </c>
       <c r="E22" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F22">
         <v>2</v>
@@ -1584,17 +1851,24 @@
       <c r="G22">
         <v>1.7587529718750003</v>
       </c>
-      <c r="H22">
-        <v>1120.2796729962067</v>
+      <c r="H22" s="2">
+        <v>1270.7482773832228</v>
       </c>
       <c r="I22">
-        <v>46.672629509925279</v>
-      </c>
-      <c r="J22">
-        <v>30.911871920818694</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+        <f>Table37[[#This Row],[Uncorrected TG]]/$G22</f>
+        <v>722.52800575426033</v>
+      </c>
+      <c r="J22" s="3">
+        <v>51.683333336757698</v>
+      </c>
+      <c r="K22" s="2">
+        <v>35.84504064561721</v>
+      </c>
+      <c r="L22" s="2">
+        <v>3.9129942116373635</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1616,17 +1890,24 @@
       <c r="G23">
         <v>1.4236399874999996</v>
       </c>
-      <c r="H23">
-        <v>192.28212636543898</v>
+      <c r="H23" s="2">
+        <v>361.73103681110263</v>
       </c>
       <c r="I23">
-        <v>33.392664414054792</v>
-      </c>
-      <c r="J23">
-        <v>34.913210026813694</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+        <f>Table37[[#This Row],[Uncorrected TG]]/$G23</f>
+        <v>254.0888426759667</v>
+      </c>
+      <c r="J23" s="3">
+        <v>25.225051775906017</v>
+      </c>
+      <c r="K23" s="2">
+        <v>53.726694139835772</v>
+      </c>
+      <c r="L23" s="2">
+        <v>12.975142768201286</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -1648,17 +1929,24 @@
       <c r="G24">
         <v>1.1992902288750005</v>
       </c>
-      <c r="H24">
-        <v>1068.6496075423295</v>
+      <c r="H24" s="2">
+        <v>1160.3241599454154</v>
       </c>
       <c r="I24">
-        <v>59.087473477711526</v>
-      </c>
-      <c r="J24">
-        <v>43.513766587905387</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+        <f>Table37[[#This Row],[Uncorrected TG]]/$G24</f>
+        <v>967.50905828179941</v>
+      </c>
+      <c r="J24" s="3">
+        <v>36.817901889213168</v>
+      </c>
+      <c r="K24" s="2">
+        <v>42.640163898051767</v>
+      </c>
+      <c r="L24" s="2">
+        <v>13.938073709455281</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -1680,19 +1968,26 @@
       <c r="G25">
         <v>1.1992902288750005</v>
       </c>
-      <c r="H25">
-        <v>1398.2958544875862</v>
+      <c r="H25" s="2">
+        <v>1086.8330096226362</v>
       </c>
       <c r="I25">
-        <v>58.23599423281005</v>
-      </c>
-      <c r="J25">
-        <v>54.649923969427554</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+        <f>Table37[[#This Row],[Uncorrected TG]]/$G25</f>
+        <v>906.23018803558887</v>
+      </c>
+      <c r="J25" s="3">
+        <v>51.432696054065282</v>
+      </c>
+      <c r="K25" s="2">
+        <v>36.089754922507545</v>
+      </c>
+      <c r="L25" s="2">
+        <v>3.4018820895629762</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B26">
         <v>3</v>
@@ -1704,7 +1999,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F26">
         <v>2</v>
@@ -1713,9 +2008,9 @@
         <v>1.9218005088749992</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="B27">
         <v>3</v>
@@ -1727,7 +2022,7 @@
         <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F27">
         <v>2</v>
@@ -1736,9 +2031,9 @@
         <v>2.4615304155</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -1750,7 +2045,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F28">
         <v>2</v>
@@ -1759,7 +2054,7 @@
         <v>2.0038577838749996</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -1782,7 +2077,7 @@
         <v>2.0038577838749996</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -1805,7 +2100,7 @@
         <v>2.2938591554999999</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -1828,9 +2123,9 @@
         <v>2.2660522619999997</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B32">
         <v>3</v>
@@ -1842,7 +2137,7 @@
         <v>17</v>
       </c>
       <c r="E32" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F32">
         <v>2</v>
@@ -1853,7 +2148,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B33">
         <v>3</v>
@@ -1865,7 +2160,7 @@
         <v>17</v>
       </c>
       <c r="E33" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F33">
         <v>2</v>
@@ -1876,7 +2171,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -1888,7 +2183,7 @@
         <v>17</v>
       </c>
       <c r="E34" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F34">
         <v>2</v>
@@ -1968,7 +2263,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B38">
         <v>4</v>
@@ -1980,7 +2275,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F38">
         <v>2</v>
@@ -1991,7 +2286,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B39">
         <v>4</v>
@@ -2003,7 +2298,7 @@
         <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F39">
         <v>2</v>
@@ -2014,7 +2309,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B40">
         <v>4</v>
@@ -2026,7 +2321,7 @@
         <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F40">
         <v>2</v>
@@ -2106,7 +2401,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B44">
         <v>4</v>
@@ -2118,7 +2413,7 @@
         <v>17</v>
       </c>
       <c r="E44" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F44">
         <v>2</v>
@@ -2129,7 +2424,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="B45">
         <v>4</v>
@@ -2141,7 +2436,7 @@
         <v>17</v>
       </c>
       <c r="E45" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F45">
         <v>2</v>
@@ -2152,7 +2447,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B46">
         <v>4</v>
@@ -2164,7 +2459,7 @@
         <v>17</v>
       </c>
       <c r="E46" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F46">
         <v>2</v>
@@ -2219,7 +2514,7 @@
         <v>1.7433406250000003</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>37</v>
       </c>
@@ -2242,9 +2537,9 @@
         <v>1.6938577850000003</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B50">
         <v>5</v>
@@ -2256,7 +2551,7 @@
         <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F50">
         <v>2</v>
@@ -2264,19 +2559,26 @@
       <c r="G50">
         <v>1.7932687849999995</v>
       </c>
-      <c r="H50">
-        <v>152.63824777503584</v>
+      <c r="H50" s="2">
+        <v>358.61788116873248</v>
       </c>
       <c r="I50">
-        <v>24.751382233962783</v>
-      </c>
-      <c r="J50">
-        <v>11.018249802700005</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+        <f>Table37[[#This Row],[Uncorrected TG]]/$G50</f>
+        <v>199.97999416954809</v>
+      </c>
+      <c r="J50" s="3">
+        <v>25.442252929498082</v>
+      </c>
+      <c r="K50" s="2">
+        <v>55.241113225906886</v>
+      </c>
+      <c r="L50" s="2">
+        <v>10.701532287706707</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B51">
         <v>5</v>
@@ -2288,7 +2590,7 @@
         <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F51">
         <v>2</v>
@@ -2296,19 +2598,26 @@
       <c r="G51">
         <v>1.3254649062499999</v>
       </c>
-      <c r="H51">
-        <v>821.11415544916179</v>
+      <c r="H51" s="2">
+        <v>919.17156603481146</v>
       </c>
       <c r="I51">
-        <v>33.260767381892897</v>
-      </c>
-      <c r="J51">
-        <v>33.597232884235858</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+        <f>Table37[[#This Row],[Uncorrected TG]]/$G51</f>
+        <v>693.4710694342923</v>
+      </c>
+      <c r="J51" s="3">
+        <v>39.468801302169958</v>
+      </c>
+      <c r="K51" s="2">
+        <v>40.924989671327047</v>
+      </c>
+      <c r="L51" s="2">
+        <v>12.619236575154549</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B52">
         <v>5</v>
@@ -2320,7 +2629,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F52">
         <v>2</v>
@@ -2328,17 +2637,24 @@
       <c r="G52">
         <v>1.1238334962500003</v>
       </c>
-      <c r="H52">
-        <v>1327.6409253857712</v>
+      <c r="H52" s="2">
+        <v>949.66845336854442</v>
       </c>
       <c r="I52">
-        <v>57.929037128566513</v>
-      </c>
-      <c r="J52">
-        <v>56.956218360524133</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+        <f>Table37[[#This Row],[Uncorrected TG]]/$G52</f>
+        <v>845.0259371494011</v>
+      </c>
+      <c r="J52" s="3">
+        <v>52.370815577740998</v>
+      </c>
+      <c r="K52" s="2">
+        <v>31.901836908023153</v>
+      </c>
+      <c r="L52" s="2">
+        <v>3.0745909409573993</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>38</v>
       </c>
@@ -2360,17 +2676,24 @@
       <c r="G53">
         <v>1.5841495962500001</v>
       </c>
-      <c r="H53">
-        <v>186.30749906127105</v>
+      <c r="H53" s="2">
+        <v>302.01846494313321</v>
       </c>
       <c r="I53">
-        <v>26.342234982356572</v>
-      </c>
-      <c r="J53">
-        <v>47.836271708377311</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+        <f>Table37[[#This Row],[Uncorrected TG]]/$G53</f>
+        <v>190.65021741511757</v>
+      </c>
+      <c r="J53" s="3">
+        <v>32.574051332902357</v>
+      </c>
+      <c r="K53" s="2">
+        <v>49.685887639525646</v>
+      </c>
+      <c r="L53" s="2">
+        <v>8.3291614784647177</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>39</v>
       </c>
@@ -2392,17 +2715,24 @@
       <c r="G54">
         <v>1.8817146162499998</v>
       </c>
-      <c r="H54">
-        <v>762.42699470500224</v>
+      <c r="H54" s="2">
+        <v>1271.2709909380608</v>
       </c>
       <c r="I54">
-        <v>44.139647027541109</v>
-      </c>
-      <c r="J54">
-        <v>38.597910517659784</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+        <f>Table37[[#This Row],[Uncorrected TG]]/$G54</f>
+        <v>675.59181395504606</v>
+      </c>
+      <c r="J54" s="3">
+        <v>37.617734010205858</v>
+      </c>
+      <c r="K54" s="2">
+        <v>42.851087349351189</v>
+      </c>
+      <c r="L54" s="2">
+        <v>12.595568882096835</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>40</v>
       </c>
@@ -2424,19 +2754,26 @@
       <c r="G55">
         <v>1.2685516249999997</v>
       </c>
-      <c r="H55">
-        <v>1420.3935713429312</v>
+      <c r="H55" s="2">
+        <v>1227.6710554132078</v>
       </c>
       <c r="I55">
-        <v>62.773387729486053</v>
-      </c>
-      <c r="J55">
-        <v>69.527696212852916</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+        <f>Table37[[#This Row],[Uncorrected TG]]/$G55</f>
+        <v>967.77382269579141</v>
+      </c>
+      <c r="J55" s="3">
+        <v>48.923055436869895</v>
+      </c>
+      <c r="K55" s="2">
+        <v>31.946237800021848</v>
+      </c>
+      <c r="L55" s="2">
+        <v>2.5546507017523887</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B56">
         <v>5</v>
@@ -2448,7 +2785,7 @@
         <v>17</v>
       </c>
       <c r="E56" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F56">
         <v>2</v>
@@ -2456,19 +2793,26 @@
       <c r="G56">
         <v>1.5003796249999999</v>
       </c>
-      <c r="H56">
-        <v>117.06187941317323</v>
+      <c r="H56" s="2">
+        <v>185.25102930812591</v>
       </c>
       <c r="I56">
-        <v>28.492913529219052</v>
-      </c>
-      <c r="J56">
-        <v>36.849657513881439</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+        <f>Table37[[#This Row],[Uncorrected TG]]/$G56</f>
+        <v>123.46943814844587</v>
+      </c>
+      <c r="J56" s="3">
+        <v>31.603469697613505</v>
+      </c>
+      <c r="K56" s="2">
+        <v>44.040995841404794</v>
+      </c>
+      <c r="L56" s="2">
+        <v>12.315522950467626</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B57">
         <v>5</v>
@@ -2480,7 +2824,7 @@
         <v>17</v>
       </c>
       <c r="E57" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F57">
         <v>2</v>
@@ -2488,19 +2832,26 @@
       <c r="G57">
         <v>1.4766958399999999</v>
       </c>
-      <c r="H57">
-        <v>765.38914185226429</v>
+      <c r="H57" s="2">
+        <v>986.79033044668495</v>
       </c>
       <c r="I57">
-        <v>32.35970508026648</v>
-      </c>
-      <c r="J57">
-        <v>50.005902091176502</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+        <f>Table37[[#This Row],[Uncorrected TG]]/$G57</f>
+        <v>668.24210085584389</v>
+      </c>
+      <c r="J57" s="3">
+        <v>38.179233787275621</v>
+      </c>
+      <c r="K57" s="2">
+        <v>39.928626692931999</v>
+      </c>
+      <c r="L57" s="2">
+        <v>11.877187214254839</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B58">
         <v>5</v>
@@ -2512,7 +2863,7 @@
         <v>17</v>
       </c>
       <c r="E58" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F58">
         <v>2</v>
@@ -2520,17 +2871,24 @@
       <c r="G58">
         <v>1.5480811849999991</v>
       </c>
-      <c r="H58">
-        <v>1119.3377861226545</v>
+      <c r="H58" s="2">
+        <v>1113.5246970400055</v>
       </c>
       <c r="I58">
-        <v>54.754089628592283</v>
-      </c>
-      <c r="J58">
-        <v>57.170491795279062</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+        <f>Table37[[#This Row],[Uncorrected TG]]/$G58</f>
+        <v>719.29347622683383</v>
+      </c>
+      <c r="J58" s="3">
+        <v>51.872095007928962</v>
+      </c>
+      <c r="K58" s="2">
+        <v>32.302842577906901</v>
+      </c>
+      <c r="L58" s="2">
+        <v>2.7937639376126766</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>41</v>
       </c>
@@ -2552,17 +2910,24 @@
       <c r="G59">
         <v>1.5962280649999994</v>
       </c>
-      <c r="H59">
-        <v>142.2515824089829</v>
+      <c r="H59" s="2">
+        <v>265.1824892680574</v>
       </c>
       <c r="I59">
-        <v>18.642947253741404</v>
-      </c>
-      <c r="J59">
-        <v>50.85477636867634</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+        <f>Table37[[#This Row],[Uncorrected TG]]/$G59</f>
+        <v>166.13070217385101</v>
+      </c>
+      <c r="J59" s="3">
+        <v>28.542101800488929</v>
+      </c>
+      <c r="K59" s="2">
+        <v>33.859977945635059</v>
+      </c>
+      <c r="L59" s="2">
+        <v>10.696582447801806</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>42</v>
       </c>
@@ -2584,17 +2949,24 @@
       <c r="G60">
         <v>2.3444006599999998</v>
       </c>
-      <c r="H60">
-        <v>472.49573986369188</v>
+      <c r="H60" s="2">
+        <v>1001.6261902711625</v>
       </c>
       <c r="I60">
-        <v>19.556336291844268</v>
-      </c>
-      <c r="J60">
-        <v>42.734607884258317</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+        <f>Table37[[#This Row],[Uncorrected TG]]/$G60</f>
+        <v>427.2418991176886</v>
+      </c>
+      <c r="J60" s="3">
+        <v>36.864029553238922</v>
+      </c>
+      <c r="K60" s="2">
+        <v>44.460318395231987</v>
+      </c>
+      <c r="L60" s="2">
+        <v>11.8094211352545</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>43</v>
       </c>
@@ -2616,19 +2988,26 @@
       <c r="G61">
         <v>1.4766958399999999</v>
       </c>
-      <c r="H61">
-        <v>1009.4327139908567</v>
+      <c r="H61" s="2">
+        <v>962.15786674816911</v>
       </c>
       <c r="I61">
-        <v>27.161328866692514</v>
-      </c>
-      <c r="J61">
-        <v>51.637216863161015</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+        <f>Table37[[#This Row],[Uncorrected TG]]/$G61</f>
+        <v>651.56130374699853</v>
+      </c>
+      <c r="J61" s="3">
+        <v>51.641736455997375</v>
+      </c>
+      <c r="K61" s="2">
+        <v>34.254049611624005</v>
+      </c>
+      <c r="L61" s="2">
+        <v>3.0095903672112989</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B62">
         <v>6</v>
@@ -2640,7 +3019,7 @@
         <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F62">
         <v>6</v>
@@ -2649,9 +3028,9 @@
         <v>1.4413789062499998</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B63">
         <v>6</v>
@@ -2663,7 +3042,7 @@
         <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F63">
         <v>6</v>
@@ -2672,9 +3051,9 @@
         <v>1.1457916662499998</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B64">
         <v>6</v>
@@ -2686,7 +3065,7 @@
         <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F64">
         <v>6</v>
@@ -2766,7 +3145,7 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B68">
         <v>6</v>
@@ -2778,7 +3157,7 @@
         <v>17</v>
       </c>
       <c r="E68" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F68">
         <v>6</v>
@@ -2789,7 +3168,7 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B69">
         <v>6</v>
@@ -2801,7 +3180,7 @@
         <v>17</v>
       </c>
       <c r="E69" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F69">
         <v>6</v>
@@ -2812,7 +3191,7 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B70">
         <v>6</v>
@@ -2824,7 +3203,7 @@
         <v>17</v>
       </c>
       <c r="E70" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F70">
         <v>6</v>
@@ -2904,7 +3283,7 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B74">
         <v>7</v>
@@ -2916,7 +3295,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F74">
         <v>6</v>
@@ -2924,7 +3303,7 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B75">
         <v>7</v>
@@ -2936,7 +3315,7 @@
         <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F75">
         <v>6</v>
@@ -2944,7 +3323,7 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B76">
         <v>7</v>
@@ -2956,7 +3335,7 @@
         <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F76">
         <v>6</v>
@@ -3024,7 +3403,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B80">
         <v>7</v>
@@ -3036,7 +3415,7 @@
         <v>17</v>
       </c>
       <c r="E80" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F80">
         <v>6</v>
@@ -3044,7 +3423,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B81">
         <v>7</v>
@@ -3056,7 +3435,7 @@
         <v>17</v>
       </c>
       <c r="E81" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F81">
         <v>6</v>
@@ -3064,7 +3443,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B82">
         <v>7</v>
@@ -3076,7 +3455,7 @@
         <v>17</v>
       </c>
       <c r="E82" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F82">
         <v>6</v>
@@ -3144,7 +3523,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B86">
         <v>8</v>
@@ -3156,7 +3535,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F86">
         <v>6</v>
@@ -3164,7 +3543,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B87">
         <v>8</v>
@@ -3176,7 +3555,7 @@
         <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F87">
         <v>6</v>
@@ -3184,7 +3563,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B88">
         <v>8</v>
@@ -3196,7 +3575,7 @@
         <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F88">
         <v>6</v>
@@ -3264,7 +3643,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B92">
         <v>8</v>
@@ -3276,7 +3655,7 @@
         <v>17</v>
       </c>
       <c r="E92" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F92">
         <v>6</v>
@@ -3284,7 +3663,7 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B93">
         <v>8</v>
@@ -3296,7 +3675,7 @@
         <v>17</v>
       </c>
       <c r="E93" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F93">
         <v>6</v>
@@ -3304,7 +3683,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B94">
         <v>8</v>
@@ -3316,7 +3695,7 @@
         <v>17</v>
       </c>
       <c r="E94" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F94">
         <v>6</v>
@@ -3383,6 +3762,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -3392,29 +3772,39 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q49"/>
+  <dimension ref="A1:AB49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" customWidth="1"/>
-    <col min="8" max="8" width="52.28515625" customWidth="1"/>
-    <col min="9" max="9" width="43.28515625" customWidth="1"/>
-    <col min="10" max="10" width="50.85546875" customWidth="1"/>
-    <col min="11" max="12" width="40.5703125" customWidth="1"/>
-    <col min="13" max="13" width="23.140625" customWidth="1"/>
-    <col min="14" max="14" width="22.28515625" customWidth="1"/>
-    <col min="15" max="15" width="30.85546875" customWidth="1"/>
-    <col min="16" max="16" width="24.42578125" customWidth="1"/>
-    <col min="17" max="17" width="16.140625" customWidth="1"/>
+    <col min="3" max="4" width="14.42578125" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="52.28515625" customWidth="1"/>
+    <col min="10" max="10" width="43.28515625" customWidth="1"/>
+    <col min="11" max="11" width="50.85546875" customWidth="1"/>
+    <col min="12" max="12" width="26.5703125" customWidth="1"/>
+    <col min="13" max="13" width="43.85546875" customWidth="1"/>
+    <col min="14" max="14" width="30.28515625" customWidth="1"/>
+    <col min="15" max="15" width="20.42578125" customWidth="1"/>
+    <col min="16" max="16" width="21.140625" customWidth="1"/>
+    <col min="17" max="17" width="36.42578125" customWidth="1"/>
+    <col min="18" max="18" width="30.42578125" customWidth="1"/>
+    <col min="19" max="19" width="32.140625" customWidth="1"/>
+    <col min="20" max="20" width="25" customWidth="1"/>
+    <col min="21" max="21" width="33.140625" customWidth="1"/>
+    <col min="22" max="22" width="25.140625" customWidth="1"/>
+    <col min="23" max="23" width="26.5703125" customWidth="1"/>
+    <col min="24" max="24" width="24.140625" customWidth="1"/>
+    <col min="25" max="25" width="27.5703125" customWidth="1"/>
+    <col min="26" max="26" width="21.42578125" customWidth="1"/>
+    <col min="27" max="27" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3425,49 +3815,82 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
       <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
         <v>135</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K1" t="s">
+        <v>137</v>
+      </c>
+      <c r="L1" t="s">
+        <v>132</v>
+      </c>
+      <c r="M1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N1" t="s">
+        <v>139</v>
+      </c>
+      <c r="O1" t="s">
+        <v>140</v>
+      </c>
+      <c r="P1" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>141</v>
+      </c>
+      <c r="R1" t="s">
         <v>133</v>
       </c>
-      <c r="J1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="S1" t="s">
+        <v>142</v>
+      </c>
+      <c r="T1" t="s">
+        <v>129</v>
+      </c>
+      <c r="U1" t="s">
         <v>134</v>
       </c>
-      <c r="M1" t="s">
-        <v>64</v>
-      </c>
-      <c r="N1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O1" t="s">
-        <v>66</v>
-      </c>
-      <c r="P1" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V1" t="s">
+        <v>143</v>
+      </c>
+      <c r="W1" t="s">
+        <v>144</v>
+      </c>
+      <c r="X1" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -3481,51 +3904,89 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>155</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
+        <v>145</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
       </c>
       <c r="H2">
-        <v>719.57425480126631</v>
+        <v>2</v>
       </c>
       <c r="I2">
+        <v>1.3045721991250016E-3</v>
+      </c>
+      <c r="J2">
+        <v>8.5789234809236087E-3</v>
+      </c>
+      <c r="K2">
+        <f>(Table1[[#This Row],[IHCTG  TTR]]/Table1[[#This Row],[TRL TTR]])*100</f>
+        <v>15.206712147810778</v>
+      </c>
+      <c r="L2">
+        <v>95.90997853827183</v>
+      </c>
+      <c r="M2">
+        <v>1215.2454808049458</v>
+      </c>
+      <c r="N2">
+        <f>(Table1[[#This Row],[IHCTG conc]]/Table1[[#This Row],[TRL TG conc]])*100</f>
+        <v>7.892230833456269</v>
+      </c>
+      <c r="O2">
+        <v>19.73741838355819</v>
+      </c>
+      <c r="P2">
+        <v>2.448613504783332E-3</v>
+      </c>
+      <c r="Q2">
+        <f>(Table1[[#This Row],[EHCFA TTR]]/Table1[[#This Row],[TRL TTR]])*100</f>
+        <v>28.542200081725333</v>
+      </c>
+      <c r="R2">
         <v>93.416246733081522</v>
       </c>
-      <c r="J2">
-        <v>287.72993561481547</v>
-      </c>
-      <c r="K2">
+      <c r="S2">
+        <f>(Table1[[#This Row],[EHCFA conc]]/(Table1[[#This Row],[TRL TG conc]]*3))*100</f>
+        <v>2.562342292390317</v>
+      </c>
+      <c r="T2">
+        <v>3.3654337101666869E-4</v>
+      </c>
+      <c r="U2">
         <v>13.311204919543773</v>
       </c>
-      <c r="L2">
-        <v>19.737418383558186</v>
-      </c>
-      <c r="M2">
-        <f>((Table1[[#This Row],[13C 16:0 release (nmol/g of protein)]]+Table1[[#This Row],[Intracellular 13C 16:0 from TG (nmol/g of protein)]]+Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]])/Table1[[#This Row],[13C 16:0 from TG in media uptake (nmol/g of protein)]])*100</f>
-        <v>54.818162911676573</v>
-      </c>
-      <c r="N2">
-        <f>(Table1[[#This Row],[Intracellular 13C 16:0 from TG (nmol/g of protein)]]/Table1[[#This Row],[13C 16:0 from TG in media uptake (nmol/g of protein)]])*100</f>
-        <v>39.986135370321357</v>
-      </c>
-      <c r="O2">
-        <f>(Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[13C 16:0 from TG in media uptake (nmol/g of protein)]])*100</f>
-        <v>1.8498723141811255</v>
-      </c>
-      <c r="P2">
-        <f>(Table1[[#This Row],[13C 16:0 release (nmol/g of protein)]]/Table1[[#This Row],[13C 16:0 from TG in media uptake (nmol/g of protein)]])*100</f>
-        <v>12.982155227174081</v>
-      </c>
-      <c r="Q2">
-        <f>(Table1[[#This Row],[13C 16:0 release (nmol/g of protein)]]+Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]])/Table1[[#This Row],[Intracellular 13C 16:0 from TG (nmol/g of protein)]]</f>
-        <v>0.37092925845401609</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V2">
+        <f>(Table1[[#This Row],[IHCFA TTR]]/Table1[[#This Row],[TRL TTR]])*100</f>
+        <v>3.9229091128393692</v>
+      </c>
+      <c r="W2">
+        <f>(Table1[[#This Row],[IHCFA conc]]/Table1[[#This Row],[TRL TG conc]]*3)*100</f>
+        <v>3.2860533439038484</v>
+      </c>
+      <c r="X2">
+        <f>(Table1[[#This Row],[IHCFA TTR]]/Table1[[#This Row],[IHCTG  TTR]])*100</f>
+        <v>25.797220823990731</v>
+      </c>
+      <c r="Y2">
+        <f>(Table1[[#This Row],[IHCFA conc]]/(Table1[[#This Row],[IHCTG conc]]*3))*100</f>
+        <v>4.6262843284278574</v>
+      </c>
+      <c r="Z2">
+        <f>((Table1[[#This Row],[IHCFA conc]]+Table1[[#This Row],[EHCFA conc]])/(Table1[[#This Row],[IHCTG conc]]*3))*100</f>
+        <v>37.092925845401609</v>
+      </c>
+      <c r="AA2">
+        <v>239.85808493375549</v>
+      </c>
+      <c r="AB2">
+        <f>((Table1[[#This Row],[IHCTG conc]]*3+Table1[[#This Row],[EHCFA conc]]+Table1[[#This Row],[IHCFA conc]])/(Table1[[#This Row],[TRL disappearance conc]]*3))*100</f>
+        <v>54.818162911676552</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -3539,51 +4000,89 @@
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>156</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
+        <v>145</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
       </c>
       <c r="H3">
-        <v>1086.778543479096</v>
+        <v>2</v>
       </c>
       <c r="I3">
+        <v>2.3025373962499984E-4</v>
+      </c>
+      <c r="J3">
+        <v>8.5789234809236087E-3</v>
+      </c>
+      <c r="K3">
+        <f>(Table1[[#This Row],[IHCTG  TTR]]/Table1[[#This Row],[TRL TTR]])*100</f>
+        <v>2.6839467695101842</v>
+      </c>
+      <c r="L3">
+        <v>67.157790306243214</v>
+      </c>
+      <c r="M3">
+        <v>1353.5788805485456</v>
+      </c>
+      <c r="N3">
+        <f>(Table1[[#This Row],[IHCTG conc]]/Table1[[#This Row],[TRL TG conc]])*100</f>
+        <v>4.9614980900874528</v>
+      </c>
+      <c r="O3">
+        <v>26.76308855721982</v>
+      </c>
+      <c r="P3">
+        <v>1.5061790384333328E-3</v>
+      </c>
+      <c r="Q3">
+        <f>(Table1[[#This Row],[EHCFA TTR]]/Table1[[#This Row],[TRL TTR]])*100</f>
+        <v>17.556737063601567</v>
+      </c>
+      <c r="R3">
         <v>66.30298334212101</v>
       </c>
-      <c r="J3">
-        <v>201.47337091872959</v>
-      </c>
-      <c r="K3">
+      <c r="S3">
+        <f>(Table1[[#This Row],[EHCFA conc]]/(Table1[[#This Row],[TRL TG conc]]*3))*100</f>
+        <v>1.6327821573588024</v>
+      </c>
+      <c r="T3">
+        <v>1.1565021899166868E-4</v>
+      </c>
+      <c r="U3">
         <v>5.3968581122769166</v>
       </c>
-      <c r="L3">
-        <v>26.763088557219827</v>
-      </c>
-      <c r="M3">
-        <f>((Table1[[#This Row],[13C 16:0 release (nmol/g of protein)]]+Table1[[#This Row],[Intracellular 13C 16:0 from TG (nmol/g of protein)]]+Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]])/Table1[[#This Row],[13C 16:0 from TG in media uptake (nmol/g of protein)]])*100</f>
+      <c r="V3">
+        <f>(Table1[[#This Row],[IHCFA TTR]]/Table1[[#This Row],[TRL TTR]])*100</f>
+        <v>1.3480737909462941</v>
+      </c>
+      <c r="W3">
+        <f>(Table1[[#This Row],[IHCFA conc]]/Table1[[#This Row],[TRL TG conc]]*3)*100</f>
+        <v>1.1961308328236788</v>
+      </c>
+      <c r="X3">
+        <f>(Table1[[#This Row],[IHCFA TTR]]/Table1[[#This Row],[IHCTG  TTR]])*100</f>
+        <v>50.227292368854073</v>
+      </c>
+      <c r="Y3">
+        <f>(Table1[[#This Row],[IHCFA conc]]/(Table1[[#This Row],[IHCTG conc]]*3))*100</f>
+        <v>2.6786954959193601</v>
+      </c>
+      <c r="Z3">
+        <f>((Table1[[#This Row],[IHCFA conc]]+Table1[[#This Row],[EHCFA conc]])/(Table1[[#This Row],[IHCTG conc]]*3))*100</f>
+        <v>35.587750940703835</v>
+      </c>
+      <c r="AA3">
+        <v>362.25951449303204</v>
+      </c>
+      <c r="AB3">
+        <f>((Table1[[#This Row],[IHCTG conc]]*3+Table1[[#This Row],[EHCFA conc]]+Table1[[#This Row],[IHCFA conc]])/(Table1[[#This Row],[TRL disappearance conc]]*3))*100</f>
         <v>25.136051315350795</v>
       </c>
-      <c r="N3">
-        <f>(Table1[[#This Row],[Intracellular 13C 16:0 from TG (nmol/g of protein)]]/Table1[[#This Row],[13C 16:0 from TG in media uptake (nmol/g of protein)]])*100</f>
-        <v>18.538585632520345</v>
-      </c>
-      <c r="O3">
-        <f>(Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[13C 16:0 from TG in media uptake (nmol/g of protein)]])*100</f>
-        <v>0.49659225834547632</v>
-      </c>
-      <c r="P3">
-        <f>(Table1[[#This Row],[13C 16:0 release (nmol/g of protein)]]/Table1[[#This Row],[13C 16:0 from TG in media uptake (nmol/g of protein)]])*100</f>
-        <v>6.1008734244849707</v>
-      </c>
-      <c r="Q3">
-        <f>(Table1[[#This Row],[13C 16:0 release (nmol/g of protein)]]+Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]])/Table1[[#This Row],[Intracellular 13C 16:0 from TG (nmol/g of protein)]]</f>
-        <v>0.35587750940703838</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -3597,51 +4096,89 @@
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>157</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
+        <v>145</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
       </c>
       <c r="H4">
-        <v>756.51706682103986</v>
+        <v>2</v>
       </c>
       <c r="I4">
+        <v>1.5509442975000093E-4</v>
+      </c>
+      <c r="J4">
+        <v>8.5789234809236087E-3</v>
+      </c>
+      <c r="K4">
+        <f>(Table1[[#This Row],[IHCTG  TTR]]/Table1[[#This Row],[TRL TTR]])*100</f>
+        <v>1.8078542149825005</v>
+      </c>
+      <c r="L4">
+        <v>57.525998339080779</v>
+      </c>
+      <c r="M4">
+        <v>1182.1247258425985</v>
+      </c>
+      <c r="N4">
+        <f>(Table1[[#This Row],[IHCTG conc]]/Table1[[#This Row],[TRL TG conc]])*100</f>
+        <v>4.866322231613692</v>
+      </c>
+      <c r="O4">
+        <v>21.332127659140973</v>
+      </c>
+      <c r="P4">
+        <v>1.0479878270333344E-3</v>
+      </c>
+      <c r="Q4">
+        <f>(Table1[[#This Row],[EHCFA TTR]]/Table1[[#This Row],[TRL TTR]])*100</f>
+        <v>12.215843040955853</v>
+      </c>
+      <c r="R4">
         <v>41.358324202080681</v>
       </c>
-      <c r="J4">
-        <v>172.57799501724236</v>
-      </c>
-      <c r="K4">
+      <c r="S4">
+        <f>(Table1[[#This Row],[EHCFA conc]]/(Table1[[#This Row],[TRL TG conc]]*3))*100</f>
+        <v>1.1662143398221978</v>
+      </c>
+      <c r="T4">
+        <v>1.0009301791666717E-4</v>
+      </c>
+      <c r="U4">
         <v>4.9588827001107951</v>
       </c>
-      <c r="L4">
-        <v>21.332127659140966</v>
-      </c>
-      <c r="M4">
-        <f>((Table1[[#This Row],[13C 16:0 release (nmol/g of protein)]]+Table1[[#This Row],[Intracellular 13C 16:0 from TG (nmol/g of protein)]]+Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]])/Table1[[#This Row],[13C 16:0 from TG in media uptake (nmol/g of protein)]])*100</f>
-        <v>28.934601943516391</v>
-      </c>
-      <c r="N4">
-        <f>(Table1[[#This Row],[Intracellular 13C 16:0 from TG (nmol/g of protein)]]/Table1[[#This Row],[13C 16:0 from TG in media uptake (nmol/g of protein)]])*100</f>
-        <v>22.812174713048087</v>
-      </c>
-      <c r="O4">
-        <f>(Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[13C 16:0 from TG in media uptake (nmol/g of protein)]])*100</f>
-        <v>0.65548854316645022</v>
-      </c>
-      <c r="P4">
-        <f>(Table1[[#This Row],[13C 16:0 release (nmol/g of protein)]]/Table1[[#This Row],[13C 16:0 from TG in media uptake (nmol/g of protein)]])*100</f>
-        <v>5.4669386873018588</v>
-      </c>
-      <c r="Q4">
-        <f>(Table1[[#This Row],[13C 16:0 release (nmol/g of protein)]]+Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]])/Table1[[#This Row],[Intracellular 13C 16:0 from TG (nmol/g of protein)]]</f>
-        <v>0.26838419867819124</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V4">
+        <f>(Table1[[#This Row],[IHCFA TTR]]/Table1[[#This Row],[TRL TTR]])*100</f>
+        <v>1.1667316783887567</v>
+      </c>
+      <c r="W4">
+        <f>(Table1[[#This Row],[IHCFA conc]]/Table1[[#This Row],[TRL TG conc]]*3)*100</f>
+        <v>1.2584668753737944</v>
+      </c>
+      <c r="X4">
+        <f>(Table1[[#This Row],[IHCFA TTR]]/Table1[[#This Row],[IHCTG  TTR]])*100</f>
+        <v>64.536823197331216</v>
+      </c>
+      <c r="Y4">
+        <f>(Table1[[#This Row],[IHCFA conc]]/(Table1[[#This Row],[IHCTG conc]]*3))*100</f>
+        <v>2.873415408271113</v>
+      </c>
+      <c r="Z4">
+        <f>((Table1[[#This Row],[IHCFA conc]]+Table1[[#This Row],[EHCFA conc]])/(Table1[[#This Row],[IHCTG conc]]*3))*100</f>
+        <v>26.83841986781913</v>
+      </c>
+      <c r="AA4">
+        <v>252.17235560701337</v>
+      </c>
+      <c r="AB4">
+        <f>((Table1[[#This Row],[IHCTG conc]]*3+Table1[[#This Row],[EHCFA conc]]+Table1[[#This Row],[IHCFA conc]])/(Table1[[#This Row],[TRL disappearance conc]]*3))*100</f>
+        <v>28.934601943516387</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -3655,51 +4192,89 @@
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>155</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
       </c>
       <c r="H5">
-        <v>1573.3907601537371</v>
+        <v>2</v>
       </c>
       <c r="I5">
+        <v>8.5712656022499806E-4</v>
+      </c>
+      <c r="J5">
+        <v>8.518569182048609E-3</v>
+      </c>
+      <c r="K5">
+        <f>(Table1[[#This Row],[IHCTG  TTR]]/Table1[[#This Row],[TRL TTR]])*100</f>
+        <v>10.061860647105409</v>
+      </c>
+      <c r="L5">
+        <v>85.782854352920424</v>
+      </c>
+      <c r="M5">
+        <v>1682.8851039452009</v>
+      </c>
+      <c r="N5">
+        <f>(Table1[[#This Row],[IHCTG conc]]/Table1[[#This Row],[TRL TG conc]])*100</f>
+        <v>5.0973684508716008</v>
+      </c>
+      <c r="O5">
+        <v>31.164551013518889</v>
+      </c>
+      <c r="P5">
+        <v>1.5737766491416665E-3</v>
+      </c>
+      <c r="Q5">
+        <f>(Table1[[#This Row],[EHCFA TTR]]/Table1[[#This Row],[TRL TTR]])*100</f>
+        <v>18.474659482230006</v>
+      </c>
+      <c r="R5">
         <v>53.522299198183525</v>
       </c>
-      <c r="J5">
-        <v>257.34856305876127</v>
-      </c>
-      <c r="K5">
+      <c r="S5">
+        <f>(Table1[[#This Row],[EHCFA conc]]/(Table1[[#This Row],[TRL TG conc]]*3))*100</f>
+        <v>1.0601297948131017</v>
+      </c>
+      <c r="T5">
+        <v>1.9534256852500077E-4</v>
+      </c>
+      <c r="U5">
         <v>9.1550770296190898</v>
       </c>
-      <c r="L5">
-        <v>31.164551013518881</v>
-      </c>
-      <c r="M5">
-        <f>((Table1[[#This Row],[13C 16:0 release (nmol/g of protein)]]+Table1[[#This Row],[Intracellular 13C 16:0 from TG (nmol/g of protein)]]+Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]])/Table1[[#This Row],[13C 16:0 from TG in media uptake (nmol/g of protein)]])*100</f>
-        <v>20.33988932636759</v>
-      </c>
-      <c r="N5">
-        <f>(Table1[[#This Row],[Intracellular 13C 16:0 from TG (nmol/g of protein)]]/Table1[[#This Row],[13C 16:0 from TG in media uptake (nmol/g of protein)]])*100</f>
-        <v>16.356303187748196</v>
-      </c>
-      <c r="O5">
-        <f>(Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[13C 16:0 from TG in media uptake (nmol/g of protein)]])*100</f>
-        <v>0.58186925088619057</v>
-      </c>
-      <c r="P5">
-        <f>(Table1[[#This Row],[13C 16:0 release (nmol/g of protein)]]/Table1[[#This Row],[13C 16:0 from TG in media uptake (nmol/g of protein)]])*100</f>
-        <v>3.4017168877332056</v>
-      </c>
-      <c r="Q5">
-        <f>(Table1[[#This Row],[13C 16:0 release (nmol/g of protein)]]+Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]])/Table1[[#This Row],[Intracellular 13C 16:0 from TG (nmol/g of protein)]]</f>
-        <v>0.24355051950879272</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V5">
+        <f>(Table1[[#This Row],[IHCFA TTR]]/Table1[[#This Row],[TRL TTR]])*100</f>
+        <v>2.2931382530372706</v>
+      </c>
+      <c r="W5">
+        <f>(Table1[[#This Row],[IHCFA conc]]/Table1[[#This Row],[TRL TG conc]]*3)*100</f>
+        <v>1.6320324557196633</v>
+      </c>
+      <c r="X5">
+        <f>(Table1[[#This Row],[IHCFA TTR]]/Table1[[#This Row],[IHCTG  TTR]])*100</f>
+        <v>22.790399643399546</v>
+      </c>
+      <c r="Y5">
+        <f>(Table1[[#This Row],[IHCFA conc]]/(Table1[[#This Row],[IHCTG conc]]*3))*100</f>
+        <v>3.5574618800294915</v>
+      </c>
+      <c r="Z5">
+        <f>((Table1[[#This Row],[IHCFA conc]]+Table1[[#This Row],[EHCFA conc]])/(Table1[[#This Row],[IHCTG conc]]*3))*100</f>
+        <v>24.355051950879272</v>
+      </c>
+      <c r="AA5">
+        <v>524.46358671791256</v>
+      </c>
+      <c r="AB5">
+        <f>((Table1[[#This Row],[IHCTG conc]]*3+Table1[[#This Row],[EHCFA conc]]+Table1[[#This Row],[IHCFA conc]])/(Table1[[#This Row],[TRL disappearance conc]]*3))*100</f>
+        <v>20.339889326367587</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -3713,51 +4288,89 @@
         <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>156</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
       </c>
       <c r="H6">
-        <v>1178.6357308448771</v>
+        <v>2</v>
       </c>
       <c r="I6">
+        <v>1.5016340592500024E-4</v>
+      </c>
+      <c r="J6">
+        <v>8.518569182048609E-3</v>
+      </c>
+      <c r="K6">
+        <f>(Table1[[#This Row],[IHCTG  TTR]]/Table1[[#This Row],[TRL TTR]])*100</f>
+        <v>1.7627773246408951</v>
+      </c>
+      <c r="L6">
+        <v>44.00964153451006</v>
+      </c>
+      <c r="M6">
+        <v>1240.2793274938169</v>
+      </c>
+      <c r="N6">
+        <f>(Table1[[#This Row],[IHCTG conc]]/Table1[[#This Row],[TRL TG conc]])*100</f>
+        <v>3.5483653205313508</v>
+      </c>
+      <c r="O6">
+        <v>31.676620599826201</v>
+      </c>
+      <c r="P6">
+        <v>1.5005993004166638E-3</v>
+      </c>
+      <c r="Q6">
+        <f>(Table1[[#This Row],[EHCFA TTR]]/Table1[[#This Row],[TRL TTR]])*100</f>
+        <v>17.615626149740191</v>
+      </c>
+      <c r="R6">
         <v>27.999627176137924</v>
       </c>
-      <c r="J6">
-        <v>132.02892460353021</v>
-      </c>
-      <c r="K6">
+      <c r="S6">
+        <f>(Table1[[#This Row],[EHCFA conc]]/(Table1[[#This Row],[TRL TG conc]]*3))*100</f>
+        <v>0.75250863670943258</v>
+      </c>
+      <c r="T6">
+        <v>7.4657849825000844E-5</v>
+      </c>
+      <c r="U6">
         <v>4.4450496556092585</v>
       </c>
-      <c r="L6">
-        <v>31.676620599826212</v>
-      </c>
-      <c r="M6">
-        <f>((Table1[[#This Row],[13C 16:0 release (nmol/g of protein)]]+Table1[[#This Row],[Intracellular 13C 16:0 from TG (nmol/g of protein)]]+Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]])/Table1[[#This Row],[13C 16:0 from TG in media uptake (nmol/g of protein)]])*100</f>
+      <c r="V6">
+        <f>(Table1[[#This Row],[IHCFA TTR]]/Table1[[#This Row],[TRL TTR]])*100</f>
+        <v>0.87641302464654713</v>
+      </c>
+      <c r="W6">
+        <f>(Table1[[#This Row],[IHCFA conc]]/Table1[[#This Row],[TRL TG conc]]*3)*100</f>
+        <v>1.0751730413642853</v>
+      </c>
+      <c r="X6">
+        <f>(Table1[[#This Row],[IHCFA TTR]]/Table1[[#This Row],[IHCTG  TTR]])*100</f>
+        <v>49.717738729427211</v>
+      </c>
+      <c r="Y6">
+        <f>(Table1[[#This Row],[IHCFA conc]]/(Table1[[#This Row],[IHCTG conc]]*3))*100</f>
+        <v>3.3667241242457311</v>
+      </c>
+      <c r="Z6">
+        <f>((Table1[[#This Row],[IHCFA conc]]+Table1[[#This Row],[EHCFA conc]])/(Table1[[#This Row],[IHCTG conc]]*3))*100</f>
+        <v>24.573915851526731</v>
+      </c>
+      <c r="AA6">
+        <v>392.87857694829233</v>
+      </c>
+      <c r="AB6">
+        <f>((Table1[[#This Row],[IHCTG conc]]*3+Table1[[#This Row],[EHCFA conc]]+Table1[[#This Row],[IHCFA conc]])/(Table1[[#This Row],[TRL disappearance conc]]*3))*100</f>
         <v>13.954574524681886</v>
       </c>
-      <c r="N6">
-        <f>(Table1[[#This Row],[Intracellular 13C 16:0 from TG (nmol/g of protein)]]/Table1[[#This Row],[13C 16:0 from TG in media uptake (nmol/g of protein)]])*100</f>
-        <v>11.201843041775799</v>
-      </c>
-      <c r="O6">
-        <f>(Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[13C 16:0 from TG in media uptake (nmol/g of protein)]])*100</f>
-        <v>0.37713515204760761</v>
-      </c>
-      <c r="P6">
-        <f>(Table1[[#This Row],[13C 16:0 release (nmol/g of protein)]]/Table1[[#This Row],[13C 16:0 from TG in media uptake (nmol/g of protein)]])*100</f>
-        <v>2.3755963308584795</v>
-      </c>
-      <c r="Q6">
-        <f>(Table1[[#This Row],[13C 16:0 release (nmol/g of protein)]]+Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]])/Table1[[#This Row],[Intracellular 13C 16:0 from TG (nmol/g of protein)]]</f>
-        <v>0.24573915851526726</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -3771,51 +4384,89 @@
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>157</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
       </c>
       <c r="H7">
-        <v>1157.7374920557836</v>
+        <v>2</v>
       </c>
       <c r="I7">
+        <v>9.2364165400000281E-5</v>
+      </c>
+      <c r="J7">
+        <v>8.518569182048609E-3</v>
+      </c>
+      <c r="K7">
+        <f>(Table1[[#This Row],[IHCTG  TTR]]/Table1[[#This Row],[TRL TTR]])*100</f>
+        <v>1.0842685364889864</v>
+      </c>
+      <c r="L7">
+        <v>34.975530149395901</v>
+      </c>
+      <c r="M7">
+        <v>1142.3623386984511</v>
+      </c>
+      <c r="N7">
+        <f>(Table1[[#This Row],[IHCTG conc]]/Table1[[#This Row],[TRL TG conc]])*100</f>
+        <v>3.0616844554981757</v>
+      </c>
+      <c r="O7">
+        <v>33.781969544935869</v>
+      </c>
+      <c r="P7">
+        <v>1.5747198716166665E-3</v>
+      </c>
+      <c r="Q7">
+        <f>(Table1[[#This Row],[EHCFA TTR]]/Table1[[#This Row],[TRL TTR]])*100</f>
+        <v>18.48573202803955</v>
+      </c>
+      <c r="R7">
         <v>36.454777226160658</v>
       </c>
-      <c r="J7">
-        <v>104.92659044818774</v>
-      </c>
-      <c r="K7">
+      <c r="S7">
+        <f>(Table1[[#This Row],[EHCFA conc]]/(Table1[[#This Row],[TRL TG conc]]*3))*100</f>
+        <v>1.0637248793202616</v>
+      </c>
+      <c r="T7">
+        <v>5.2557789049998901E-5</v>
+      </c>
+      <c r="U7">
         <v>3.062997095945275</v>
       </c>
-      <c r="L7">
-        <v>33.781969544935876</v>
-      </c>
-      <c r="M7">
-        <f>((Table1[[#This Row],[13C 16:0 release (nmol/g of protein)]]+Table1[[#This Row],[Intracellular 13C 16:0 from TG (nmol/g of protein)]]+Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]])/Table1[[#This Row],[13C 16:0 from TG in media uptake (nmol/g of protein)]])*100</f>
+      <c r="V7">
+        <f>(Table1[[#This Row],[IHCFA TTR]]/Table1[[#This Row],[TRL TTR]])*100</f>
+        <v>0.61697907156468512</v>
+      </c>
+      <c r="W7">
+        <f>(Table1[[#This Row],[IHCFA conc]]/Table1[[#This Row],[TRL TG conc]]*3)*100</f>
+        <v>0.80438499909803474</v>
+      </c>
+      <c r="X7">
+        <f>(Table1[[#This Row],[IHCFA TTR]]/Table1[[#This Row],[IHCTG  TTR]])*100</f>
+        <v>56.902792140639789</v>
+      </c>
+      <c r="Y7">
+        <f>(Table1[[#This Row],[IHCFA conc]]/(Table1[[#This Row],[IHCTG conc]]*3))*100</f>
+        <v>2.9191810034633399</v>
+      </c>
+      <c r="Z7">
+        <f>((Table1[[#This Row],[IHCFA conc]]+Table1[[#This Row],[EHCFA conc]])/(Table1[[#This Row],[IHCTG conc]]*3))*100</f>
+        <v>37.662306716827551</v>
+      </c>
+      <c r="AA7">
+        <v>385.91249735192787</v>
+      </c>
+      <c r="AB7">
+        <f>((Table1[[#This Row],[IHCTG conc]]*3+Table1[[#This Row],[EHCFA conc]]+Table1[[#This Row],[IHCFA conc]])/(Table1[[#This Row],[TRL disappearance conc]]*3))*100</f>
         <v>12.476434922549251</v>
       </c>
-      <c r="N7">
-        <f>(Table1[[#This Row],[Intracellular 13C 16:0 from TG (nmol/g of protein)]]/Table1[[#This Row],[13C 16:0 from TG in media uptake (nmol/g of protein)]])*100</f>
-        <v>9.0630726885997763</v>
-      </c>
-      <c r="O7">
-        <f>(Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[13C 16:0 from TG in media uptake (nmol/g of protein)]])*100</f>
-        <v>0.26456749625567877</v>
-      </c>
-      <c r="P7">
-        <f>(Table1[[#This Row],[13C 16:0 release (nmol/g of protein)]]/Table1[[#This Row],[13C 16:0 from TG in media uptake (nmol/g of protein)]])*100</f>
-        <v>3.1487947376937968</v>
-      </c>
-      <c r="Q7">
-        <f>(Table1[[#This Row],[13C 16:0 release (nmol/g of protein)]]+Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]])/Table1[[#This Row],[Intracellular 13C 16:0 from TG (nmol/g of protein)]]</f>
-        <v>0.37662306716827543</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -3829,51 +4480,89 @@
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>155</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8">
-        <v>2</v>
+        <v>145</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
       </c>
       <c r="H8">
-        <v>813.18764460744478</v>
+        <v>2</v>
       </c>
       <c r="I8">
+        <v>6.1249365265833057E-4</v>
+      </c>
+      <c r="J8">
+        <v>8.5789234809236087E-3</v>
+      </c>
+      <c r="K8">
+        <f>(Table1[[#This Row],[IHCTG  TTR]]/Table1[[#This Row],[TRL TTR]])*100</f>
+        <v>7.1395164442286108</v>
+      </c>
+      <c r="L8">
+        <v>56.268837018958486</v>
+      </c>
+      <c r="M8">
+        <v>1508.4544577254853</v>
+      </c>
+      <c r="N8">
+        <f>(Table1[[#This Row],[IHCTG conc]]/Table1[[#This Row],[TRL TG conc]])*100</f>
+        <v>3.7302310806123464</v>
+      </c>
+      <c r="O8">
+        <v>17.969554653390183</v>
+      </c>
+      <c r="P8">
+        <v>1.8751183206166672E-3</v>
+      </c>
+      <c r="Q8">
+        <f>(Table1[[#This Row],[EHCFA TTR]]/Table1[[#This Row],[TRL TTR]])*100</f>
+        <v>21.857268278313068</v>
+      </c>
+      <c r="R8">
         <v>61.537168115192785</v>
       </c>
-      <c r="J8">
-        <v>168.80651105687545</v>
-      </c>
-      <c r="K8">
+      <c r="S8">
+        <f>(Table1[[#This Row],[EHCFA conc]]/(Table1[[#This Row],[TRL TG conc]]*3))*100</f>
+        <v>1.3598282179934302</v>
+      </c>
+      <c r="T8">
+        <v>2.5550981484166388E-4</v>
+      </c>
+      <c r="U8">
         <v>9.1244583295087782</v>
       </c>
-      <c r="L8">
-        <v>17.969554653390183</v>
-      </c>
-      <c r="M8">
-        <f>((Table1[[#This Row],[13C 16:0 release (nmol/g of protein)]]+Table1[[#This Row],[Intracellular 13C 16:0 from TG (nmol/g of protein)]]+Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]])/Table1[[#This Row],[13C 16:0 from TG in media uptake (nmol/g of protein)]])*100</f>
+      <c r="V8">
+        <f>(Table1[[#This Row],[IHCFA TTR]]/Table1[[#This Row],[TRL TTR]])*100</f>
+        <v>2.9783435580212876</v>
+      </c>
+      <c r="W8">
+        <f>(Table1[[#This Row],[IHCFA conc]]/Table1[[#This Row],[TRL TG conc]]*3)*100</f>
+        <v>1.8146636677252508</v>
+      </c>
+      <c r="X8">
+        <f>(Table1[[#This Row],[IHCFA TTR]]/Table1[[#This Row],[IHCTG  TTR]])*100</f>
+        <v>41.716320443927245</v>
+      </c>
+      <c r="Y8">
+        <f>(Table1[[#This Row],[IHCFA conc]]/(Table1[[#This Row],[IHCTG conc]]*3))*100</f>
+        <v>5.4052762967386387</v>
+      </c>
+      <c r="Z8">
+        <f>((Table1[[#This Row],[IHCFA conc]]+Table1[[#This Row],[EHCFA conc]])/(Table1[[#This Row],[IHCTG conc]]*3))*100</f>
+        <v>41.859538475322061</v>
+      </c>
+      <c r="AA8">
+        <v>271.06254820248159</v>
+      </c>
+      <c r="AB8">
+        <f>((Table1[[#This Row],[IHCTG conc]]*3+Table1[[#This Row],[EHCFA conc]]+Table1[[#This Row],[IHCFA conc]])/(Table1[[#This Row],[TRL disappearance conc]]*3))*100</f>
         <v>29.448078692486401</v>
       </c>
-      <c r="N8">
-        <f>(Table1[[#This Row],[Intracellular 13C 16:0 from TG (nmol/g of protein)]]/Table1[[#This Row],[13C 16:0 from TG in media uptake (nmol/g of protein)]])*100</f>
-        <v>20.758617297778116</v>
-      </c>
-      <c r="O8">
-        <f>(Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[13C 16:0 from TG in media uptake (nmol/g of protein)]])*100</f>
-        <v>1.1220606203274874</v>
-      </c>
-      <c r="P8">
-        <f>(Table1[[#This Row],[13C 16:0 release (nmol/g of protein)]]/Table1[[#This Row],[13C 16:0 from TG in media uptake (nmol/g of protein)]])*100</f>
-        <v>7.5674007743808032</v>
-      </c>
-      <c r="Q8">
-        <f>(Table1[[#This Row],[13C 16:0 release (nmol/g of protein)]]+Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]])/Table1[[#This Row],[Intracellular 13C 16:0 from TG (nmol/g of protein)]]</f>
-        <v>0.41859538475322061</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -3887,51 +4576,89 @@
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>156</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9">
-        <v>2</v>
+        <v>145</v>
+      </c>
+      <c r="G9" t="s">
+        <v>11</v>
       </c>
       <c r="H9">
-        <v>549.02042696327112</v>
+        <v>2</v>
       </c>
       <c r="I9">
+        <v>1.7808597505833239E-4</v>
+      </c>
+      <c r="J9">
+        <v>8.5789234809236087E-3</v>
+      </c>
+      <c r="K9">
+        <f>(Table1[[#This Row],[IHCTG  TTR]]/Table1[[#This Row],[TRL TTR]])*100</f>
+        <v>2.0758545690998473</v>
+      </c>
+      <c r="L9">
+        <v>59.235924405298945</v>
+      </c>
+      <c r="M9">
+        <v>1262.2781657014114</v>
+      </c>
+      <c r="N9">
+        <f>(Table1[[#This Row],[IHCTG conc]]/Table1[[#This Row],[TRL TG conc]])*100</f>
+        <v>4.6927789781092555</v>
+      </c>
+      <c r="O9">
+        <v>14.498136303107618</v>
+      </c>
+      <c r="P9">
+        <v>1.635109989066668E-3</v>
+      </c>
+      <c r="Q9">
+        <f>(Table1[[#This Row],[EHCFA TTR]]/Table1[[#This Row],[TRL TTR]])*100</f>
+        <v>19.059617359946795</v>
+      </c>
+      <c r="R9">
         <v>54.056632049597937</v>
       </c>
-      <c r="J9">
-        <v>177.70777321589685</v>
-      </c>
-      <c r="K9">
+      <c r="S9">
+        <f>(Table1[[#This Row],[EHCFA conc]]/(Table1[[#This Row],[TRL TG conc]]*3))*100</f>
+        <v>1.4274886343972693</v>
+      </c>
+      <c r="T9">
+        <v>1.3201930776666516E-4</v>
+      </c>
+      <c r="U9">
         <v>5.8260864942035058</v>
       </c>
-      <c r="L9">
-        <v>14.4981363031076</v>
-      </c>
-      <c r="M9">
-        <f>((Table1[[#This Row],[13C 16:0 release (nmol/g of protein)]]+Table1[[#This Row],[Intracellular 13C 16:0 from TG (nmol/g of protein)]]+Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]])/Table1[[#This Row],[13C 16:0 from TG in media uptake (nmol/g of protein)]])*100</f>
-        <v>43.275346433620555</v>
-      </c>
-      <c r="N9">
-        <f>(Table1[[#This Row],[Intracellular 13C 16:0 from TG (nmol/g of protein)]]/Table1[[#This Row],[13C 16:0 from TG in media uptake (nmol/g of protein)]])*100</f>
-        <v>32.36815325776309</v>
-      </c>
-      <c r="O9">
-        <f>(Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[13C 16:0 from TG in media uptake (nmol/g of protein)]])*100</f>
-        <v>1.0611784567704736</v>
-      </c>
-      <c r="P9">
-        <f>(Table1[[#This Row],[13C 16:0 release (nmol/g of protein)]]/Table1[[#This Row],[13C 16:0 from TG in media uptake (nmol/g of protein)]])*100</f>
-        <v>9.8460147190869947</v>
-      </c>
-      <c r="Q9">
-        <f>(Table1[[#This Row],[13C 16:0 release (nmol/g of protein)]]+Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]])/Table1[[#This Row],[Intracellular 13C 16:0 from TG (nmol/g of protein)]]</f>
-        <v>0.33697298356808536</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V9">
+        <f>(Table1[[#This Row],[IHCFA TTR]]/Table1[[#This Row],[TRL TTR]])*100</f>
+        <v>1.5388796515113798</v>
+      </c>
+      <c r="W9">
+        <f>(Table1[[#This Row],[IHCFA conc]]/Table1[[#This Row],[TRL TG conc]]*3)*100</f>
+        <v>1.3846598917361734</v>
+      </c>
+      <c r="X9">
+        <f>(Table1[[#This Row],[IHCFA TTR]]/Table1[[#This Row],[IHCTG  TTR]])*100</f>
+        <v>74.132344067758282</v>
+      </c>
+      <c r="Y9">
+        <f>(Table1[[#This Row],[IHCFA conc]]/(Table1[[#This Row],[IHCTG conc]]*3))*100</f>
+        <v>3.2784646325658495</v>
+      </c>
+      <c r="Z9">
+        <f>((Table1[[#This Row],[IHCFA conc]]+Table1[[#This Row],[EHCFA conc]])/(Table1[[#This Row],[IHCTG conc]]*3))*100</f>
+        <v>33.697298356808538</v>
+      </c>
+      <c r="AA9">
+        <v>183.00680898775727</v>
+      </c>
+      <c r="AB9">
+        <f>((Table1[[#This Row],[IHCTG conc]]*3+Table1[[#This Row],[EHCFA conc]]+Table1[[#This Row],[IHCFA conc]])/(Table1[[#This Row],[TRL disappearance conc]]*3))*100</f>
+        <v>43.275346433620506</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -3945,51 +4672,89 @@
         <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>157</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10">
-        <v>2</v>
+        <v>145</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
       </c>
       <c r="H10">
-        <v>604.87071025630792</v>
+        <v>2</v>
       </c>
       <c r="I10">
+        <v>9.3351166133332983E-5</v>
+      </c>
+      <c r="J10">
+        <v>8.5789234809236087E-3</v>
+      </c>
+      <c r="K10">
+        <f>(Table1[[#This Row],[IHCTG  TTR]]/Table1[[#This Row],[TRL TTR]])*100</f>
+        <v>1.0881454571883276</v>
+      </c>
+      <c r="L10">
+        <v>47.693895613067475</v>
+      </c>
+      <c r="M10">
+        <v>1580.4048070635386</v>
+      </c>
+      <c r="N10">
+        <f>(Table1[[#This Row],[IHCTG conc]]/Table1[[#This Row],[TRL TG conc]])*100</f>
+        <v>3.017827799555028</v>
+      </c>
+      <c r="O10">
+        <v>12.75771683206035</v>
+      </c>
+      <c r="P10">
+        <v>2.2799637343166677E-3</v>
+      </c>
+      <c r="Q10">
+        <f>(Table1[[#This Row],[EHCFA TTR]]/Table1[[#This Row],[TRL TTR]])*100</f>
+        <v>26.576338387753122</v>
+      </c>
+      <c r="R10">
         <v>114.90074013637613</v>
       </c>
-      <c r="J10">
-        <v>143.08168683920243</v>
-      </c>
-      <c r="K10">
+      <c r="S10">
+        <f>(Table1[[#This Row],[EHCFA conc]]/(Table1[[#This Row],[TRL TG conc]]*3))*100</f>
+        <v>2.4234453439362103</v>
+      </c>
+      <c r="T10">
+        <v>1.0624187329166465E-4</v>
+      </c>
+      <c r="U10">
         <v>6.4974221857152834</v>
       </c>
-      <c r="L10">
-        <v>12.75771683206035</v>
-      </c>
-      <c r="M10">
-        <f>((Table1[[#This Row],[13C 16:0 release (nmol/g of protein)]]+Table1[[#This Row],[Intracellular 13C 16:0 from TG (nmol/g of protein)]]+Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]])/Table1[[#This Row],[13C 16:0 from TG in media uptake (nmol/g of protein)]])*100</f>
+      <c r="V10">
+        <f>(Table1[[#This Row],[IHCFA TTR]]/Table1[[#This Row],[TRL TTR]])*100</f>
+        <v>1.2384056522698652</v>
+      </c>
+      <c r="W10">
+        <f>(Table1[[#This Row],[IHCFA conc]]/Table1[[#This Row],[TRL TG conc]]*3)*100</f>
+        <v>1.2333717583005417</v>
+      </c>
+      <c r="X10">
+        <f>(Table1[[#This Row],[IHCFA TTR]]/Table1[[#This Row],[IHCTG  TTR]])*100</f>
+        <v>113.80883356070768</v>
+      </c>
+      <c r="Y10">
+        <f>(Table1[[#This Row],[IHCFA conc]]/(Table1[[#This Row],[IHCTG conc]]*3))*100</f>
+        <v>4.5410578594989541</v>
+      </c>
+      <c r="Z10">
+        <f>((Table1[[#This Row],[IHCFA conc]]+Table1[[#This Row],[EHCFA conc]])/(Table1[[#This Row],[IHCTG conc]]*3))*100</f>
+        <v>84.845353031461443</v>
+      </c>
+      <c r="AA10">
+        <v>201.62357008543597</v>
+      </c>
+      <c r="AB10">
+        <f>((Table1[[#This Row],[IHCTG conc]]*3+Table1[[#This Row],[EHCFA conc]]+Table1[[#This Row],[IHCFA conc]])/(Table1[[#This Row],[TRL disappearance conc]]*3))*100</f>
         <v>43.725021674338166</v>
       </c>
-      <c r="N10">
-        <f>(Table1[[#This Row],[Intracellular 13C 16:0 from TG (nmol/g of protein)]]/Table1[[#This Row],[13C 16:0 from TG in media uptake (nmol/g of protein)]])*100</f>
-        <v>23.654920698437028</v>
-      </c>
-      <c r="O10">
-        <f>(Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[13C 16:0 from TG in media uptake (nmol/g of protein)]])*100</f>
-        <v>1.0741836355346197</v>
-      </c>
-      <c r="P10">
-        <f>(Table1[[#This Row],[13C 16:0 release (nmol/g of protein)]]/Table1[[#This Row],[13C 16:0 from TG in media uptake (nmol/g of protein)]])*100</f>
-        <v>18.995917340366518</v>
-      </c>
-      <c r="Q10">
-        <f>(Table1[[#This Row],[13C 16:0 release (nmol/g of protein)]]+Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]])/Table1[[#This Row],[Intracellular 13C 16:0 from TG (nmol/g of protein)]]</f>
-        <v>0.84845353031461446</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -4003,51 +4768,89 @@
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>155</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="G11" t="s">
+        <v>11</v>
       </c>
       <c r="H11">
-        <v>370.95715357612983</v>
+        <v>2</v>
       </c>
       <c r="I11">
+        <v>5.8962548244166982E-4</v>
+      </c>
+      <c r="J11">
+        <v>8.518569182048609E-3</v>
+      </c>
+      <c r="K11">
+        <f>(Table1[[#This Row],[IHCTG  TTR]]/Table1[[#This Row],[TRL TTR]])*100</f>
+        <v>6.9216492798368323</v>
+      </c>
+      <c r="L11">
+        <v>36.912082984033965</v>
+      </c>
+      <c r="M11">
+        <v>1217.1556106137523</v>
+      </c>
+      <c r="N11">
+        <f>(Table1[[#This Row],[IHCTG conc]]/Table1[[#This Row],[TRL TG conc]])*100</f>
+        <v>3.0326510975388761</v>
+      </c>
+      <c r="O11">
+        <v>10.159127020991567</v>
+      </c>
+      <c r="P11">
+        <v>1.7051751016083343E-3</v>
+      </c>
+      <c r="Q11">
+        <f>(Table1[[#This Row],[EHCFA TTR]]/Table1[[#This Row],[TRL TTR]])*100</f>
+        <v>20.017153880744338</v>
+      </c>
+      <c r="R11">
         <v>37.503297534008659</v>
       </c>
-      <c r="J11">
-        <v>110.73624895210187</v>
-      </c>
-      <c r="K11">
+      <c r="S11">
+        <f>(Table1[[#This Row],[EHCFA conc]]/(Table1[[#This Row],[TRL TG conc]]*3))*100</f>
+        <v>1.0270748513166028</v>
+      </c>
+      <c r="T11">
+        <v>1.4692381480833384E-4</v>
+      </c>
+      <c r="U11">
         <v>4.7937276478442055</v>
       </c>
-      <c r="L11">
-        <v>10.159127020991567</v>
-      </c>
-      <c r="M11">
-        <f>((Table1[[#This Row],[13C 16:0 release (nmol/g of protein)]]+Table1[[#This Row],[Intracellular 13C 16:0 from TG (nmol/g of protein)]]+Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]])/Table1[[#This Row],[13C 16:0 from TG in media uptake (nmol/g of protein)]])*100</f>
-        <v>41.253625293021457</v>
-      </c>
-      <c r="N11">
-        <f>(Table1[[#This Row],[Intracellular 13C 16:0 from TG (nmol/g of protein)]]/Table1[[#This Row],[13C 16:0 from TG in media uptake (nmol/g of protein)]])*100</f>
-        <v>29.851493059123875</v>
-      </c>
-      <c r="O11">
-        <f>(Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[13C 16:0 from TG in media uptake (nmol/g of protein)]])*100</f>
-        <v>1.2922591198555793</v>
-      </c>
-      <c r="P11">
-        <f>(Table1[[#This Row],[13C 16:0 release (nmol/g of protein)]]/Table1[[#This Row],[13C 16:0 from TG in media uptake (nmol/g of protein)]])*100</f>
-        <v>10.109873114042005</v>
-      </c>
-      <c r="Q11">
-        <f>(Table1[[#This Row],[13C 16:0 release (nmol/g of protein)]]+Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]])/Table1[[#This Row],[Intracellular 13C 16:0 from TG (nmol/g of protein)]]</f>
-        <v>0.38196187411177457</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V11">
+        <f>(Table1[[#This Row],[IHCFA TTR]]/Table1[[#This Row],[TRL TTR]])*100</f>
+        <v>1.7247475681473601</v>
+      </c>
+      <c r="W11">
+        <f>(Table1[[#This Row],[IHCFA conc]]/Table1[[#This Row],[TRL TG conc]]*3)*100</f>
+        <v>1.1815402088382838</v>
+      </c>
+      <c r="X11">
+        <f>(Table1[[#This Row],[IHCFA TTR]]/Table1[[#This Row],[IHCTG  TTR]])*100</f>
+        <v>24.918158930294986</v>
+      </c>
+      <c r="Y11">
+        <f>(Table1[[#This Row],[IHCFA conc]]/(Table1[[#This Row],[IHCTG conc]]*3))*100</f>
+        <v>4.3289597518493652</v>
+      </c>
+      <c r="Z11">
+        <f>((Table1[[#This Row],[IHCFA conc]]+Table1[[#This Row],[EHCFA conc]])/(Table1[[#This Row],[IHCTG conc]]*3))*100</f>
+        <v>38.196187411177448</v>
+      </c>
+      <c r="AA11">
+        <v>123.6523845253766</v>
+      </c>
+      <c r="AB11">
+        <f>((Table1[[#This Row],[IHCTG conc]]*3+Table1[[#This Row],[EHCFA conc]]+Table1[[#This Row],[IHCFA conc]])/(Table1[[#This Row],[TRL disappearance conc]]*3))*100</f>
+        <v>41.253625293021464</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -4061,51 +4864,89 @@
         <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>156</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="G12" t="s">
+        <v>11</v>
       </c>
       <c r="H12">
-        <v>495.45973864814658</v>
+        <v>2</v>
       </c>
       <c r="I12">
+        <v>1.0624187329166812E-4</v>
+      </c>
+      <c r="J12">
+        <v>8.518569182048609E-3</v>
+      </c>
+      <c r="K12">
+        <f>(Table1[[#This Row],[IHCTG  TTR]]/Table1[[#This Row],[TRL TTR]])*100</f>
+        <v>1.2471797906572648</v>
+      </c>
+      <c r="L12">
+        <v>36.982182614390908</v>
+      </c>
+      <c r="M12">
+        <v>1444.8474243846458</v>
+      </c>
+      <c r="N12">
+        <f>(Table1[[#This Row],[IHCTG conc]]/Table1[[#This Row],[TRL TG conc]])*100</f>
+        <v>2.5595908599235977</v>
+      </c>
+      <c r="O12">
+        <v>11.430497326483243</v>
+      </c>
+      <c r="P12">
+        <v>1.6706221162583346E-3</v>
+      </c>
+      <c r="Q12">
+        <f>(Table1[[#This Row],[EHCFA TTR]]/Table1[[#This Row],[TRL TTR]])*100</f>
+        <v>19.611534291214983</v>
+      </c>
+      <c r="R12">
         <v>46.497110752052109</v>
       </c>
-      <c r="J12">
-        <v>110.94654784317271</v>
-      </c>
-      <c r="K12">
+      <c r="S12">
+        <f>(Table1[[#This Row],[EHCFA conc]]/(Table1[[#This Row],[TRL TG conc]]*3))*100</f>
+        <v>1.0727109766591219</v>
+      </c>
+      <c r="T12">
+        <v>4.8948072658332523E-5</v>
+      </c>
+      <c r="U12">
         <v>2.8262028286689529</v>
       </c>
-      <c r="L12">
-        <v>11.430497326483239</v>
-      </c>
-      <c r="M12">
-        <f>((Table1[[#This Row],[13C 16:0 release (nmol/g of protein)]]+Table1[[#This Row],[Intracellular 13C 16:0 from TG (nmol/g of protein)]]+Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]])/Table1[[#This Row],[13C 16:0 from TG in media uptake (nmol/g of protein)]])*100</f>
+      <c r="V12">
+        <f>(Table1[[#This Row],[IHCFA TTR]]/Table1[[#This Row],[TRL TTR]])*100</f>
+        <v>0.57460439203196245</v>
+      </c>
+      <c r="W12">
+        <f>(Table1[[#This Row],[IHCFA conc]]/Table1[[#This Row],[TRL TG conc]]*3)*100</f>
+        <v>0.5868168737344609</v>
+      </c>
+      <c r="X12">
+        <f>(Table1[[#This Row],[IHCFA TTR]]/Table1[[#This Row],[IHCTG  TTR]])*100</f>
+        <v>46.07229818317898</v>
+      </c>
+      <c r="Y12">
+        <f>(Table1[[#This Row],[IHCFA conc]]/(Table1[[#This Row],[IHCTG conc]]*3))*100</f>
+        <v>2.5473553558997626</v>
+      </c>
+      <c r="Z12">
+        <f>((Table1[[#This Row],[IHCFA conc]]+Table1[[#This Row],[EHCFA conc]])/(Table1[[#This Row],[IHCTG conc]]*3))*100</f>
+        <v>44.456825867571375</v>
+      </c>
+      <c r="AA12">
+        <v>165.15324621604893</v>
+      </c>
+      <c r="AB12">
+        <f>((Table1[[#This Row],[IHCTG conc]]*3+Table1[[#This Row],[EHCFA conc]]+Table1[[#This Row],[IHCFA conc]])/(Table1[[#This Row],[TRL disappearance conc]]*3))*100</f>
         <v>32.347706366855824</v>
       </c>
-      <c r="N12">
-        <f>(Table1[[#This Row],[Intracellular 13C 16:0 from TG (nmol/g of protein)]]/Table1[[#This Row],[13C 16:0 from TG in media uptake (nmol/g of protein)]])*100</f>
-        <v>22.392646503606624</v>
-      </c>
-      <c r="O12">
-        <f>(Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[13C 16:0 from TG in media uptake (nmol/g of protein)]])*100</f>
-        <v>0.57042028003732426</v>
-      </c>
-      <c r="P12">
-        <f>(Table1[[#This Row],[13C 16:0 release (nmol/g of protein)]]/Table1[[#This Row],[13C 16:0 from TG in media uptake (nmol/g of protein)]])*100</f>
-        <v>9.3846395832118823</v>
-      </c>
-      <c r="Q12">
-        <f>(Table1[[#This Row],[13C 16:0 release (nmol/g of protein)]]+Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]])/Table1[[#This Row],[Intracellular 13C 16:0 from TG (nmol/g of protein)]]</f>
-        <v>0.44456825867571381</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -4119,51 +4960,89 @@
         <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>157</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13">
-        <v>2</v>
-      </c>
-      <c r="H13" s="1">
-        <v>279.16875749039144</v>
-      </c>
-      <c r="I13">
+        <v>4</v>
+      </c>
+      <c r="G13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13" s="1">
+        <v>7.6548274616667147E-5</v>
+      </c>
+      <c r="J13">
+        <v>8.518569182048609E-3</v>
+      </c>
+      <c r="K13">
+        <f>(Table1[[#This Row],[IHCTG  TTR]]/Table1[[#This Row],[TRL TTR]])*100</f>
+        <v>0.89860483586820217</v>
+      </c>
+      <c r="L13">
+        <v>34.866552803790746</v>
+      </c>
+      <c r="M13">
+        <v>1444.8474243846458</v>
+      </c>
+      <c r="N13">
+        <f>(Table1[[#This Row],[IHCTG conc]]/Table1[[#This Row],[TRL TG conc]])*100</f>
+        <v>2.4131650315008355</v>
+      </c>
+      <c r="O13">
+        <v>6.4405591155363542</v>
+      </c>
+      <c r="P13">
+        <v>1.1636460057083357E-3</v>
+      </c>
+      <c r="Q13">
+        <f>(Table1[[#This Row],[EHCFA TTR]]/Table1[[#This Row],[TRL TTR]])*100</f>
+        <v>13.660110997989142</v>
+      </c>
+      <c r="R13">
         <v>37.64815376578585</v>
       </c>
-      <c r="J13">
-        <v>104.59965841137225</v>
-      </c>
-      <c r="K13">
+      <c r="S13">
+        <f>(Table1[[#This Row],[EHCFA conc]]/(Table1[[#This Row],[TRL TG conc]]*3))*100</f>
+        <v>0.86856123191969647</v>
+      </c>
+      <c r="T13">
+        <v>4.3014128733332227E-5</v>
+      </c>
+      <c r="U13">
         <v>2.4478089402161163</v>
       </c>
-      <c r="L13">
-        <v>6.4405591155363275</v>
-      </c>
-      <c r="M13">
-        <f>((Table1[[#This Row],[13C 16:0 release (nmol/g of protein)]]+Table1[[#This Row],[Intracellular 13C 16:0 from TG (nmol/g of protein)]]+Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]])/Table1[[#This Row],[13C 16:0 from TG in media uptake (nmol/g of protein)]])*100</f>
-        <v>51.830879077632609</v>
-      </c>
-      <c r="N13">
-        <f>(Table1[[#This Row],[Intracellular 13C 16:0 from TG (nmol/g of protein)]]/Table1[[#This Row],[13C 16:0 from TG in media uptake (nmol/g of protein)]])*100</f>
-        <v>37.468253737158399</v>
-      </c>
-      <c r="O13">
-        <f>(Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[13C 16:0 from TG in media uptake (nmol/g of protein)]])*100</f>
-        <v>0.87682051609960909</v>
-      </c>
-      <c r="P13">
-        <f>(Table1[[#This Row],[13C 16:0 release (nmol/g of protein)]]/Table1[[#This Row],[13C 16:0 from TG in media uptake (nmol/g of protein)]])*100</f>
-        <v>13.485804824374606</v>
-      </c>
-      <c r="Q13">
-        <f>(Table1[[#This Row],[13C 16:0 release (nmol/g of protein)]]+Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]])/Table1[[#This Row],[Intracellular 13C 16:0 from TG (nmol/g of protein)]]</f>
-        <v>0.38332785512847012</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V13">
+        <f>(Table1[[#This Row],[IHCFA TTR]]/Table1[[#This Row],[TRL TTR]])*100</f>
+        <v>0.50494546459723499</v>
+      </c>
+      <c r="W13">
+        <f>(Table1[[#This Row],[IHCFA conc]]/Table1[[#This Row],[TRL TG conc]]*3)*100</f>
+        <v>0.50824929308891431</v>
+      </c>
+      <c r="X13">
+        <f>(Table1[[#This Row],[IHCFA TTR]]/Table1[[#This Row],[IHCTG  TTR]])*100</f>
+        <v>56.192159717165715</v>
+      </c>
+      <c r="Y13">
+        <f>(Table1[[#This Row],[IHCFA conc]]/(Table1[[#This Row],[IHCTG conc]]*3))*100</f>
+        <v>2.3401691529328996</v>
+      </c>
+      <c r="Z13">
+        <f>((Table1[[#This Row],[IHCFA conc]]+Table1[[#This Row],[EHCFA conc]])/(Table1[[#This Row],[IHCTG conc]]*3))*100</f>
+        <v>38.332785512847011</v>
+      </c>
+      <c r="AA13">
+        <v>93.056252496797526</v>
+      </c>
+      <c r="AB13">
+        <f>((Table1[[#This Row],[IHCTG conc]]*3+Table1[[#This Row],[EHCFA conc]]+Table1[[#This Row],[IHCFA conc]])/(Table1[[#This Row],[TRL disappearance conc]]*3))*100</f>
+        <v>51.830879077632396</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -4177,16 +5056,19 @@
         <v>9</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>155</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+      <c r="G14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -4200,16 +5082,19 @@
         <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>156</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+      <c r="G15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -4223,16 +5108,19 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>157</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+      <c r="G16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -4246,16 +5134,19 @@
         <v>9</v>
       </c>
       <c r="E17" t="s">
-        <v>17</v>
+        <v>155</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="G17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -4269,16 +5160,19 @@
         <v>13</v>
       </c>
       <c r="E18" t="s">
-        <v>17</v>
+        <v>156</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="G18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -4292,16 +5186,19 @@
         <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>17</v>
+        <v>157</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="G19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -4315,16 +5212,19 @@
         <v>9</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>155</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+      <c r="G20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -4338,16 +5238,19 @@
         <v>13</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>156</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+      <c r="G21" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -4361,16 +5264,19 @@
         <v>15</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>157</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+      <c r="G22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -4384,16 +5290,19 @@
         <v>9</v>
       </c>
       <c r="E23" t="s">
-        <v>17</v>
+        <v>155</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="G23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -4407,16 +5316,19 @@
         <v>13</v>
       </c>
       <c r="E24" t="s">
-        <v>17</v>
+        <v>156</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="G24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -4430,16 +5342,19 @@
         <v>15</v>
       </c>
       <c r="E25" t="s">
-        <v>17</v>
+        <v>157</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="G25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>38</v>
       </c>
@@ -4453,51 +5368,89 @@
         <v>9</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>155</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26">
-        <v>2</v>
+        <v>145</v>
+      </c>
+      <c r="G26" t="s">
+        <v>11</v>
       </c>
       <c r="H26">
-        <v>1428.1432085841832</v>
+        <v>2</v>
       </c>
       <c r="I26">
+        <v>1.3486529254249976E-3</v>
+      </c>
+      <c r="J26">
+        <v>8.5699568976486118E-3</v>
+      </c>
+      <c r="K26">
+        <f>(Table1[[#This Row],[IHCTG  TTR]]/Table1[[#This Row],[TRL TTR]])*100</f>
+        <v>15.73698609610318</v>
+      </c>
+      <c r="L26">
+        <v>81.740297696131194</v>
+      </c>
+      <c r="M26">
+        <v>1293.0255358275808</v>
+      </c>
+      <c r="N26">
+        <f>(Table1[[#This Row],[IHCTG conc]]/Table1[[#This Row],[TRL TG conc]])*100</f>
+        <v>6.3216305812409637</v>
+      </c>
+      <c r="O26">
+        <v>36.816576548895533</v>
+      </c>
+      <c r="P26">
+        <v>2.9614957003666672E-3</v>
+      </c>
+      <c r="Q26">
+        <f>(Table1[[#This Row],[EHCFA TTR]]/Table1[[#This Row],[TRL TTR]])*100</f>
+        <v>34.556716395845932</v>
+      </c>
+      <c r="R26">
         <v>114.71441811570725</v>
       </c>
-      <c r="J26">
-        <v>245.22089308839355</v>
-      </c>
-      <c r="K26">
+      <c r="S26">
+        <f>(Table1[[#This Row],[EHCFA conc]]/(Table1[[#This Row],[TRL TG conc]]*3))*100</f>
+        <v>2.9572609598486155</v>
+      </c>
+      <c r="T26">
+        <v>3.0118247780833163E-4</v>
+      </c>
+      <c r="U26">
         <v>7.7505838011601567</v>
       </c>
-      <c r="L26">
-        <v>36.816576548895526</v>
-      </c>
-      <c r="M26">
-        <f>((Table1[[#This Row],[13C 16:0 release (nmol/g of protein)]]+Table1[[#This Row],[Intracellular 13C 16:0 from TG (nmol/g of protein)]]+Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]])/Table1[[#This Row],[13C 16:0 from TG in media uptake (nmol/g of protein)]])*100</f>
-        <v>25.74573003569952</v>
-      </c>
-      <c r="N26">
-        <f>(Table1[[#This Row],[Intracellular 13C 16:0 from TG (nmol/g of protein)]]/Table1[[#This Row],[13C 16:0 from TG in media uptake (nmol/g of protein)]])*100</f>
-        <v>17.170609474906787</v>
-      </c>
-      <c r="O26">
-        <f>(Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[13C 16:0 from TG in media uptake (nmol/g of protein)]])*100</f>
-        <v>0.54270354363438411</v>
-      </c>
-      <c r="P26">
-        <f>(Table1[[#This Row],[13C 16:0 release (nmol/g of protein)]]/Table1[[#This Row],[13C 16:0 from TG in media uptake (nmol/g of protein)]])*100</f>
-        <v>8.0324170171583535</v>
-      </c>
-      <c r="Q26">
-        <f>(Table1[[#This Row],[13C 16:0 release (nmol/g of protein)]]+Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]])/Table1[[#This Row],[Intracellular 13C 16:0 from TG (nmol/g of protein)]]</f>
-        <v>0.49940688321660692</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V26">
+        <f>(Table1[[#This Row],[IHCFA TTR]]/Table1[[#This Row],[TRL TTR]])*100</f>
+        <v>3.5143989801275288</v>
+      </c>
+      <c r="W26">
+        <f>(Table1[[#This Row],[IHCFA conc]]/Table1[[#This Row],[TRL TG conc]]*3)*100</f>
+        <v>1.7982437901814947</v>
+      </c>
+      <c r="X26">
+        <f>(Table1[[#This Row],[IHCFA TTR]]/Table1[[#This Row],[IHCTG  TTR]])*100</f>
+        <v>22.332096874621822</v>
+      </c>
+      <c r="Y26">
+        <f>(Table1[[#This Row],[IHCFA conc]]/(Table1[[#This Row],[IHCTG conc]]*3))*100</f>
+        <v>3.1606539326835992</v>
+      </c>
+      <c r="Z26">
+        <f>((Table1[[#This Row],[IHCFA conc]]+Table1[[#This Row],[EHCFA conc]])/(Table1[[#This Row],[IHCTG conc]]*3))*100</f>
+        <v>49.940688321660687</v>
+      </c>
+      <c r="AA26">
+        <v>476.04773619472792</v>
+      </c>
+      <c r="AB26">
+        <f>((Table1[[#This Row],[IHCTG conc]]*3+Table1[[#This Row],[EHCFA conc]]+Table1[[#This Row],[IHCFA conc]])/(Table1[[#This Row],[TRL disappearance conc]]*3))*100</f>
+        <v>25.745730035699509</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>39</v>
       </c>
@@ -4511,51 +5464,89 @@
         <v>13</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>156</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27">
-        <v>2</v>
+        <v>145</v>
+      </c>
+      <c r="G27" t="s">
+        <v>11</v>
       </c>
       <c r="H27">
-        <v>1361.478653312982</v>
+        <v>2</v>
       </c>
       <c r="I27">
+        <v>2.968046519749995E-4</v>
+      </c>
+      <c r="J27">
+        <v>8.5699568976486118E-3</v>
+      </c>
+      <c r="K27">
+        <f>(Table1[[#This Row],[IHCTG  TTR]]/Table1[[#This Row],[TRL TTR]])*100</f>
+        <v>3.4633155746259998</v>
+      </c>
+      <c r="L27">
+        <v>73.693074579465886</v>
+      </c>
+      <c r="M27">
+        <v>1088.5528883249447</v>
+      </c>
+      <c r="N27">
+        <f>(Table1[[#This Row],[IHCTG conc]]/Table1[[#This Row],[TRL TG conc]])*100</f>
+        <v>6.7698203155626286</v>
+      </c>
+      <c r="O27">
+        <v>41.690782564486845</v>
+      </c>
+      <c r="P27">
+        <v>2.0427970097166674E-3</v>
+      </c>
+      <c r="Q27">
+        <f>(Table1[[#This Row],[EHCFA TTR]]/Table1[[#This Row],[TRL TTR]])*100</f>
+        <v>23.836724432968399</v>
+      </c>
+      <c r="R27">
         <v>57.259391851635655</v>
       </c>
-      <c r="J27">
-        <v>221.07922373839764</v>
-      </c>
-      <c r="K27">
+      <c r="S27">
+        <f>(Table1[[#This Row],[EHCFA conc]]/(Table1[[#This Row],[TRL TG conc]]*3))*100</f>
+        <v>1.753379569817255</v>
+      </c>
+      <c r="T27">
+        <v>1.1061571928333222E-4</v>
+      </c>
+      <c r="U27">
         <v>4.7706781583065725</v>
       </c>
-      <c r="L27">
-        <v>41.690782564486852</v>
-      </c>
-      <c r="M27">
-        <f>((Table1[[#This Row],[13C 16:0 release (nmol/g of protein)]]+Table1[[#This Row],[Intracellular 13C 16:0 from TG (nmol/g of protein)]]+Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]])/Table1[[#This Row],[13C 16:0 from TG in media uptake (nmol/g of protein)]])*100</f>
+      <c r="V27">
+        <f>(Table1[[#This Row],[IHCFA TTR]]/Table1[[#This Row],[TRL TTR]])*100</f>
+        <v>1.2907383386453495</v>
+      </c>
+      <c r="W27">
+        <f>(Table1[[#This Row],[IHCFA conc]]/Table1[[#This Row],[TRL TG conc]]*3)*100</f>
+        <v>1.3147762160590055</v>
+      </c>
+      <c r="X27">
+        <f>(Table1[[#This Row],[IHCFA TTR]]/Table1[[#This Row],[IHCTG  TTR]])*100</f>
+        <v>37.268863054292567</v>
+      </c>
+      <c r="Y27">
+        <f>(Table1[[#This Row],[IHCFA conc]]/(Table1[[#This Row],[IHCTG conc]]*3))*100</f>
+        <v>2.1579043374748323</v>
+      </c>
+      <c r="Z27">
+        <f>((Table1[[#This Row],[IHCFA conc]]+Table1[[#This Row],[EHCFA conc]])/(Table1[[#This Row],[IHCTG conc]]*3))*100</f>
+        <v>28.057846848305481</v>
+      </c>
+      <c r="AA27">
+        <v>453.82621777099399</v>
+      </c>
+      <c r="AB27">
+        <f>((Table1[[#This Row],[IHCTG conc]]*3+Table1[[#This Row],[EHCFA conc]]+Table1[[#This Row],[IHCFA conc]])/(Table1[[#This Row],[TRL disappearance conc]]*3))*100</f>
         <v>20.794251386860164</v>
       </c>
-      <c r="N27">
-        <f>(Table1[[#This Row],[Intracellular 13C 16:0 from TG (nmol/g of protein)]]/Table1[[#This Row],[13C 16:0 from TG in media uptake (nmol/g of protein)]])*100</f>
-        <v>16.238170403952349</v>
-      </c>
-      <c r="O27">
-        <f>(Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[13C 16:0 from TG in media uptake (nmol/g of protein)]])*100</f>
-        <v>0.35040418347344227</v>
-      </c>
-      <c r="P27">
-        <f>(Table1[[#This Row],[13C 16:0 release (nmol/g of protein)]]/Table1[[#This Row],[13C 16:0 from TG in media uptake (nmol/g of protein)]])*100</f>
-        <v>4.2056767994343751</v>
-      </c>
-      <c r="Q27">
-        <f>(Table1[[#This Row],[13C 16:0 release (nmol/g of protein)]]+Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]])/Table1[[#This Row],[Intracellular 13C 16:0 from TG (nmol/g of protein)]]</f>
-        <v>0.28057846848305484</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -4569,51 +5560,89 @@
         <v>15</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>157</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28">
-        <v>2</v>
+        <v>145</v>
+      </c>
+      <c r="G28" t="s">
+        <v>11</v>
       </c>
       <c r="H28">
-        <v>1447.3802106709334</v>
+        <v>2</v>
       </c>
       <c r="I28">
+        <v>1.8366571307499961E-4</v>
+      </c>
+      <c r="J28">
+        <v>8.5699568976486118E-3</v>
+      </c>
+      <c r="K28">
+        <f>(Table1[[#This Row],[IHCTG  TTR]]/Table1[[#This Row],[TRL TTR]])*100</f>
+        <v>2.1431346186279305</v>
+      </c>
+      <c r="L28">
+        <v>84.965711074150192</v>
+      </c>
+      <c r="M28">
+        <v>1614.7122751288916</v>
+      </c>
+      <c r="N28">
+        <f>(Table1[[#This Row],[IHCTG conc]]/Table1[[#This Row],[TRL TG conc]])*100</f>
+        <v>5.261972202903328</v>
+      </c>
+      <c r="O28">
+        <v>29.87901173818307</v>
+      </c>
+      <c r="P28">
+        <v>1.8002455593416657E-3</v>
+      </c>
+      <c r="Q28">
+        <f>(Table1[[#This Row],[EHCFA TTR]]/Table1[[#This Row],[TRL TTR]])*100</f>
+        <v>21.006471570885139</v>
+      </c>
+      <c r="R28">
         <v>92.9705955283506</v>
       </c>
-      <c r="J28">
-        <v>254.89713322245055</v>
-      </c>
-      <c r="K28">
+      <c r="S28">
+        <f>(Table1[[#This Row],[EHCFA conc]]/(Table1[[#This Row],[TRL TG conc]]*3))*100</f>
+        <v>1.919239668068818</v>
+      </c>
+      <c r="T28">
+        <v>9.5106276308333168E-5</v>
+      </c>
+      <c r="U28">
         <v>5.8334563618689934</v>
       </c>
-      <c r="L28">
-        <v>29.87901173818307</v>
-      </c>
-      <c r="M28">
-        <f>((Table1[[#This Row],[13C 16:0 release (nmol/g of protein)]]+Table1[[#This Row],[Intracellular 13C 16:0 from TG (nmol/g of protein)]]+Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]])/Table1[[#This Row],[13C 16:0 from TG in media uptake (nmol/g of protein)]])*100</f>
-        <v>24.437337370303815</v>
-      </c>
-      <c r="N28">
-        <f>(Table1[[#This Row],[Intracellular 13C 16:0 from TG (nmol/g of protein)]]/Table1[[#This Row],[13C 16:0 from TG in media uptake (nmol/g of protein)]])*100</f>
-        <v>17.610931208206374</v>
-      </c>
-      <c r="O28">
-        <f>(Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[13C 16:0 from TG in media uptake (nmol/g of protein)]])*100</f>
-        <v>0.40303552023589528</v>
-      </c>
-      <c r="P28">
-        <f>(Table1[[#This Row],[13C 16:0 release (nmol/g of protein)]]/Table1[[#This Row],[13C 16:0 from TG in media uptake (nmol/g of protein)]])*100</f>
-        <v>6.4233706418615508</v>
-      </c>
-      <c r="Q28">
-        <f>(Table1[[#This Row],[13C 16:0 release (nmol/g of protein)]]+Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]])/Table1[[#This Row],[Intracellular 13C 16:0 from TG (nmol/g of protein)]]</f>
-        <v>0.38762323703339807</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V28">
+        <f>(Table1[[#This Row],[IHCFA TTR]]/Table1[[#This Row],[TRL TTR]])*100</f>
+        <v>1.1097637647912562</v>
+      </c>
+      <c r="W28">
+        <f>(Table1[[#This Row],[IHCFA conc]]/Table1[[#This Row],[TRL TG conc]]*3)*100</f>
+        <v>1.0838072736029734</v>
+      </c>
+      <c r="X28">
+        <f>(Table1[[#This Row],[IHCFA TTR]]/Table1[[#This Row],[IHCTG  TTR]])*100</f>
+        <v>51.782270471732886</v>
+      </c>
+      <c r="Y28">
+        <f>(Table1[[#This Row],[IHCFA conc]]/(Table1[[#This Row],[IHCTG conc]]*3))*100</f>
+        <v>2.288553146173713</v>
+      </c>
+      <c r="Z28">
+        <f>((Table1[[#This Row],[IHCFA conc]]+Table1[[#This Row],[EHCFA conc]])/(Table1[[#This Row],[IHCTG conc]]*3))*100</f>
+        <v>38.762323703339803</v>
+      </c>
+      <c r="AA28">
+        <v>482.46007022364444</v>
+      </c>
+      <c r="AB28">
+        <f>((Table1[[#This Row],[IHCTG conc]]*3+Table1[[#This Row],[EHCFA conc]]+Table1[[#This Row],[IHCFA conc]])/(Table1[[#This Row],[TRL disappearance conc]]*3))*100</f>
+        <v>24.437337370303819</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>41</v>
       </c>
@@ -4627,51 +5656,89 @@
         <v>9</v>
       </c>
       <c r="E29" t="s">
-        <v>17</v>
+        <v>155</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="G29" t="s">
+        <v>11</v>
       </c>
       <c r="H29">
-        <v>724.63745737837883</v>
+        <v>2</v>
       </c>
       <c r="I29">
+        <v>1.1786380692666663E-3</v>
+      </c>
+      <c r="J29">
+        <v>8.906376893573608E-3</v>
+      </c>
+      <c r="K29">
+        <f>(Table1[[#This Row],[IHCTG  TTR]]/Table1[[#This Row],[TRL TTR]])*100</f>
+        <v>13.233642404209414</v>
+      </c>
+      <c r="L29">
+        <v>54.552385812883152</v>
+      </c>
+      <c r="M29">
+        <v>1031.6996727916805</v>
+      </c>
+      <c r="N29">
+        <f>(Table1[[#This Row],[IHCTG conc]]/Table1[[#This Row],[TRL TG conc]])*100</f>
+        <v>5.2876226727173057</v>
+      </c>
+      <c r="O29">
+        <v>15.246048106934973</v>
+      </c>
+      <c r="P29">
+        <v>1.241049946283334E-3</v>
+      </c>
+      <c r="Q29">
+        <f>(Table1[[#This Row],[EHCFA TTR]]/Table1[[#This Row],[TRL TTR]])*100</f>
+        <v>13.934397354987446</v>
+      </c>
+      <c r="R29">
         <v>31.189951751682202</v>
       </c>
-      <c r="J29">
-        <v>163.65715743864945</v>
-      </c>
-      <c r="K29">
+      <c r="S29">
+        <f>(Table1[[#This Row],[EHCFA conc]]/(Table1[[#This Row],[TRL TG conc]]*3))*100</f>
+        <v>1.0077206437181205</v>
+      </c>
+      <c r="T29">
+        <v>1.2721563887499975E-4</v>
+      </c>
+      <c r="U29">
         <v>2.3173938065130026</v>
       </c>
-      <c r="L29">
-        <v>21.644820331424153</v>
-      </c>
-      <c r="M29">
-        <f>((Table1[[#This Row],[13C 16:0 release (nmol/g of protein)]]+Table1[[#This Row],[Intracellular 13C 16:0 from TG (nmol/g of protein)]]+Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]])/Table1[[#This Row],[13C 16:0 from TG in media uptake (nmol/g of protein)]])*100</f>
-        <v>27.208709816099478</v>
-      </c>
-      <c r="N29">
-        <f>(Table1[[#This Row],[Intracellular 13C 16:0 from TG (nmol/g of protein)]]/Table1[[#This Row],[13C 16:0 from TG in media uptake (nmol/g of protein)]])*100</f>
-        <v>22.584694701090196</v>
-      </c>
-      <c r="O29">
-        <f>(Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[13C 16:0 from TG in media uptake (nmol/g of protein)]])*100</f>
-        <v>0.31980044405887587</v>
-      </c>
-      <c r="P29">
-        <f>(Table1[[#This Row],[13C 16:0 release (nmol/g of protein)]]/Table1[[#This Row],[13C 16:0 from TG in media uptake (nmol/g of protein)]])*100</f>
-        <v>4.3042146709504099</v>
-      </c>
-      <c r="Q29">
-        <f>(Table1[[#This Row],[13C 16:0 release (nmol/g of protein)]]+Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]])/Table1[[#This Row],[Intracellular 13C 16:0 from TG (nmol/g of protein)]]</f>
-        <v>0.20474109463105017</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V29">
+        <f>(Table1[[#This Row],[IHCFA TTR]]/Table1[[#This Row],[TRL TTR]])*100</f>
+        <v>1.4283657697754979</v>
+      </c>
+      <c r="W29">
+        <f>(Table1[[#This Row],[IHCFA conc]]/Table1[[#This Row],[TRL TG conc]]*3)*100</f>
+        <v>0.67385709260981641</v>
+      </c>
+      <c r="X29">
+        <f>(Table1[[#This Row],[IHCFA TTR]]/Table1[[#This Row],[IHCTG  TTR]])*100</f>
+        <v>10.79344390718278</v>
+      </c>
+      <c r="Y29">
+        <f>(Table1[[#This Row],[IHCFA conc]]/(Table1[[#This Row],[IHCTG conc]]*3))*100</f>
+        <v>1.4160051676210554</v>
+      </c>
+      <c r="Z29">
+        <f>((Table1[[#This Row],[IHCFA conc]]+Table1[[#This Row],[EHCFA conc]])/(Table1[[#This Row],[IHCTG conc]]*3))*100</f>
+        <v>20.474109463105016</v>
+      </c>
+      <c r="AA29">
+        <v>157.2934284329103</v>
+      </c>
+      <c r="AB29">
+        <f>((Table1[[#This Row],[IHCTG conc]]*3+Table1[[#This Row],[EHCFA conc]]+Table1[[#This Row],[IHCFA conc]])/(Table1[[#This Row],[TRL disappearance conc]]*3))*100</f>
+        <v>41.782737939989737</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>42</v>
       </c>
@@ -4685,51 +5752,89 @@
         <v>13</v>
       </c>
       <c r="E30" t="s">
-        <v>17</v>
+        <v>156</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="G30" t="s">
+        <v>11</v>
       </c>
       <c r="H30">
-        <v>510.54331135642929</v>
+        <v>2</v>
       </c>
       <c r="I30">
+        <v>1.8648742081666704E-4</v>
+      </c>
+      <c r="J30">
+        <v>8.906376893573608E-3</v>
+      </c>
+      <c r="K30">
+        <f>(Table1[[#This Row],[IHCTG  TTR]]/Table1[[#This Row],[TRL TTR]])*100</f>
+        <v>2.093864015020821</v>
+      </c>
+      <c r="L30">
+        <v>28.697933072232512</v>
+      </c>
+      <c r="M30">
+        <v>702.451590489399</v>
+      </c>
+      <c r="N30">
+        <f>(Table1[[#This Row],[IHCTG conc]]/Table1[[#This Row],[TRL TG conc]])*100</f>
+        <v>4.0853965541224877</v>
+      </c>
+      <c r="O30">
+        <v>16.060369747490629</v>
+      </c>
+      <c r="P30">
+        <v>1.2215885205333326E-3</v>
+      </c>
+      <c r="Q30">
+        <f>(Table1[[#This Row],[EHCFA TTR]]/Table1[[#This Row],[TRL TTR]])*100</f>
+        <v>13.715886214233414</v>
+      </c>
+      <c r="R30">
         <v>30.248572818017287</v>
       </c>
-      <c r="J30">
-        <v>86.093799216697533</v>
-      </c>
-      <c r="K30">
+      <c r="S30">
+        <f>(Table1[[#This Row],[EHCFA conc]]/(Table1[[#This Row],[TRL TG conc]]*3))*100</f>
+        <v>1.4353811340908234</v>
+      </c>
+      <c r="T30">
+        <v>6.0413996499999317E-5</v>
+      </c>
+      <c r="U30">
         <v>1.1545141526654323</v>
       </c>
-      <c r="L30">
-        <v>22.397662140314129</v>
-      </c>
-      <c r="M30">
-        <f>((Table1[[#This Row],[13C 16:0 release (nmol/g of protein)]]+Table1[[#This Row],[Intracellular 13C 16:0 from TG (nmol/g of protein)]]+Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]])/Table1[[#This Row],[13C 16:0 from TG in media uptake (nmol/g of protein)]])*100</f>
-        <v>23.014087849904534</v>
-      </c>
-      <c r="N30">
-        <f>(Table1[[#This Row],[Intracellular 13C 16:0 from TG (nmol/g of protein)]]/Table1[[#This Row],[13C 16:0 from TG in media uptake (nmol/g of protein)]])*100</f>
-        <v>16.86317248735676</v>
-      </c>
-      <c r="O30">
-        <f>(Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[13C 16:0 from TG in media uptake (nmol/g of protein)]])*100</f>
-        <v>0.22613441934986453</v>
-      </c>
-      <c r="P30">
-        <f>(Table1[[#This Row],[13C 16:0 release (nmol/g of protein)]]/Table1[[#This Row],[13C 16:0 from TG in media uptake (nmol/g of protein)]])*100</f>
-        <v>5.9247809431979093</v>
-      </c>
-      <c r="Q30">
-        <f>(Table1[[#This Row],[13C 16:0 release (nmol/g of protein)]]+Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]])/Table1[[#This Row],[Intracellular 13C 16:0 from TG (nmol/g of protein)]]</f>
-        <v>0.36475434068882651</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V30">
+        <f>(Table1[[#This Row],[IHCFA TTR]]/Table1[[#This Row],[TRL TTR]])*100</f>
+        <v>0.67832292773946057</v>
+      </c>
+      <c r="W30">
+        <f>(Table1[[#This Row],[IHCFA conc]]/Table1[[#This Row],[TRL TG conc]]*3)*100</f>
+        <v>0.4930649321447535</v>
+      </c>
+      <c r="X30">
+        <f>(Table1[[#This Row],[IHCFA TTR]]/Table1[[#This Row],[IHCTG  TTR]])*100</f>
+        <v>32.395748858252162</v>
+      </c>
+      <c r="Y30">
+        <f>(Table1[[#This Row],[IHCFA conc]]/(Table1[[#This Row],[IHCTG conc]]*3))*100</f>
+        <v>1.3409957083663222</v>
+      </c>
+      <c r="Z30">
+        <f>((Table1[[#This Row],[IHCFA conc]]+Table1[[#This Row],[EHCFA conc]])/(Table1[[#This Row],[IHCTG conc]]*3))*100</f>
+        <v>36.475434068882649</v>
+      </c>
+      <c r="AA30">
+        <v>112.81632272972621</v>
+      </c>
+      <c r="AB30">
+        <f>((Table1[[#This Row],[IHCTG conc]]*3+Table1[[#This Row],[EHCFA conc]]+Table1[[#This Row],[IHCFA conc]])/(Table1[[#This Row],[TRL disappearance conc]]*3))*100</f>
+        <v>34.716278443994099</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>43</v>
       </c>
@@ -4743,51 +5848,89 @@
         <v>15</v>
       </c>
       <c r="E31" t="s">
-        <v>17</v>
+        <v>157</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="G31" t="s">
+        <v>11</v>
       </c>
       <c r="H31">
-        <v>811.139534707797</v>
+        <v>2</v>
       </c>
       <c r="I31">
+        <v>1.1812170066666759E-4</v>
+      </c>
+      <c r="J31">
+        <v>8.906376893573608E-3</v>
+      </c>
+      <c r="K31">
+        <f>(Table1[[#This Row],[IHCTG  TTR]]/Table1[[#This Row],[TRL TTR]])*100</f>
+        <v>1.3262598481757295</v>
+      </c>
+      <c r="L31">
+        <v>38.83653796527301</v>
+      </c>
+      <c r="M31">
+        <v>1115.2113575138105</v>
+      </c>
+      <c r="N31">
+        <f>(Table1[[#This Row],[IHCTG conc]]/Table1[[#This Row],[TRL TG conc]])*100</f>
+        <v>3.4824374504087729</v>
+      </c>
+      <c r="O31">
+        <v>16.078349776873356</v>
+      </c>
+      <c r="P31">
+        <v>1.3103588889083334E-3</v>
+      </c>
+      <c r="Q31">
+        <f>(Table1[[#This Row],[EHCFA TTR]]/Table1[[#This Row],[TRL TTR]])*100</f>
+        <v>14.712591939083808</v>
+      </c>
+      <c r="R31">
         <v>33.164711116617596</v>
       </c>
-      <c r="J31">
-        <v>116.50961389581904</v>
-      </c>
-      <c r="K31">
+      <c r="S31">
+        <f>(Table1[[#This Row],[EHCFA conc]]/(Table1[[#This Row],[TRL TG conc]]*3))*100</f>
+        <v>0.9912832783719473</v>
+      </c>
+      <c r="T31">
+        <v>7.3595232099999894E-5</v>
+      </c>
+      <c r="U31">
         <v>1.9533001157192151</v>
       </c>
-      <c r="L31">
-        <v>22.414284709542621</v>
-      </c>
-      <c r="M31">
-        <f>((Table1[[#This Row],[13C 16:0 release (nmol/g of protein)]]+Table1[[#This Row],[Intracellular 13C 16:0 from TG (nmol/g of protein)]]+Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]])/Table1[[#This Row],[13C 16:0 from TG in media uptake (nmol/g of protein)]])*100</f>
-        <v>18.693161736072675</v>
-      </c>
-      <c r="N31">
-        <f>(Table1[[#This Row],[Intracellular 13C 16:0 from TG (nmol/g of protein)]]/Table1[[#This Row],[13C 16:0 from TG in media uptake (nmol/g of protein)]])*100</f>
-        <v>14.363695629481333</v>
-      </c>
-      <c r="O31">
-        <f>(Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[13C 16:0 from TG in media uptake (nmol/g of protein)]])*100</f>
-        <v>0.24080938385315759</v>
-      </c>
-      <c r="P31">
-        <f>(Table1[[#This Row],[13C 16:0 release (nmol/g of protein)]]/Table1[[#This Row],[13C 16:0 from TG in media uptake (nmol/g of protein)]])*100</f>
-        <v>4.0886567227381878</v>
-      </c>
-      <c r="Q31">
-        <f>(Table1[[#This Row],[13C 16:0 release (nmol/g of protein)]]+Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]])/Table1[[#This Row],[Intracellular 13C 16:0 from TG (nmol/g of protein)]]</f>
-        <v>0.30141728272946433</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V31">
+        <f>(Table1[[#This Row],[IHCFA TTR]]/Table1[[#This Row],[TRL TTR]])*100</f>
+        <v>0.82632065742807825</v>
+      </c>
+      <c r="W31">
+        <f>(Table1[[#This Row],[IHCFA conc]]/Table1[[#This Row],[TRL TG conc]]*3)*100</f>
+        <v>0.52545199685029909</v>
+      </c>
+      <c r="X31">
+        <f>(Table1[[#This Row],[IHCFA TTR]]/Table1[[#This Row],[IHCTG  TTR]])*100</f>
+        <v>62.30458221024201</v>
+      </c>
+      <c r="Y31">
+        <f>(Table1[[#This Row],[IHCFA conc]]/(Table1[[#This Row],[IHCTG conc]]*3))*100</f>
+        <v>1.6765141093556657</v>
+      </c>
+      <c r="Z31">
+        <f>((Table1[[#This Row],[IHCFA conc]]+Table1[[#This Row],[EHCFA conc]])/(Table1[[#This Row],[IHCTG conc]]*3))*100</f>
+        <v>30.141728272946434</v>
+      </c>
+      <c r="AA31">
+        <v>179.30758281248808</v>
+      </c>
+      <c r="AB31">
+        <f>((Table1[[#This Row],[IHCTG conc]]*3+Table1[[#This Row],[EHCFA conc]]+Table1[[#This Row],[IHCFA conc]])/(Table1[[#This Row],[TRL disappearance conc]]*3))*100</f>
+        <v>28.187620911849791</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>44</v>
       </c>
@@ -4801,403 +5944,2976 @@
         <v>9</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>155</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
+        <v>145</v>
+      </c>
+      <c r="G32" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33">
+        <v>6</v>
+      </c>
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" t="s">
+        <v>156</v>
+      </c>
+      <c r="F33" t="s">
+        <v>145</v>
+      </c>
+      <c r="G33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34">
+        <v>6</v>
+      </c>
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" t="s">
+        <v>157</v>
+      </c>
+      <c r="F34" t="s">
+        <v>145</v>
+      </c>
+      <c r="G34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35">
+        <v>6</v>
+      </c>
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" t="s">
+        <v>155</v>
+      </c>
+      <c r="F35" t="s">
+        <v>4</v>
+      </c>
+      <c r="G35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36">
+        <v>6</v>
+      </c>
+      <c r="C36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" t="s">
+        <v>156</v>
+      </c>
+      <c r="F36" t="s">
+        <v>4</v>
+      </c>
+      <c r="G36" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37">
+        <v>6</v>
+      </c>
+      <c r="C37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" t="s">
+        <v>157</v>
+      </c>
+      <c r="F37" t="s">
+        <v>4</v>
+      </c>
+      <c r="G37" t="s">
+        <v>11</v>
+      </c>
+      <c r="H37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38">
+        <v>7</v>
+      </c>
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" t="s">
+        <v>155</v>
+      </c>
+      <c r="F38" t="s">
+        <v>145</v>
+      </c>
+      <c r="G38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39">
+        <v>7</v>
+      </c>
+      <c r="C39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" t="s">
+        <v>156</v>
+      </c>
+      <c r="F39" t="s">
+        <v>145</v>
+      </c>
+      <c r="G39" t="s">
+        <v>11</v>
+      </c>
+      <c r="H39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40">
+        <v>7</v>
+      </c>
+      <c r="C40" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" t="s">
+        <v>157</v>
+      </c>
+      <c r="F40" t="s">
+        <v>145</v>
+      </c>
+      <c r="G40" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41">
+        <v>7</v>
+      </c>
+      <c r="C41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" t="s">
+        <v>155</v>
+      </c>
+      <c r="F41" t="s">
+        <v>4</v>
+      </c>
+      <c r="G41" t="s">
+        <v>11</v>
+      </c>
+      <c r="H41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42">
+        <v>7</v>
+      </c>
+      <c r="C42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" t="s">
+        <v>156</v>
+      </c>
+      <c r="F42" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43">
+        <v>7</v>
+      </c>
+      <c r="C43" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" t="s">
+        <v>157</v>
+      </c>
+      <c r="F43" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" t="s">
+        <v>11</v>
+      </c>
+      <c r="H43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44">
+        <v>8</v>
+      </c>
+      <c r="C44" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" t="s">
+        <v>155</v>
+      </c>
+      <c r="F44" t="s">
+        <v>145</v>
+      </c>
+      <c r="G44" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45">
+        <v>8</v>
+      </c>
+      <c r="C45" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" t="s">
+        <v>156</v>
+      </c>
+      <c r="F45" t="s">
+        <v>145</v>
+      </c>
+      <c r="G45" t="s">
+        <v>11</v>
+      </c>
+      <c r="H45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>58</v>
+      </c>
+      <c r="B46">
+        <v>8</v>
+      </c>
+      <c r="C46" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46" t="s">
+        <v>157</v>
+      </c>
+      <c r="F46" t="s">
+        <v>145</v>
+      </c>
+      <c r="G46" t="s">
+        <v>11</v>
+      </c>
+      <c r="H46">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>59</v>
+      </c>
+      <c r="B47">
+        <v>8</v>
+      </c>
+      <c r="C47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" t="s">
+        <v>155</v>
+      </c>
+      <c r="F47" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" t="s">
+        <v>11</v>
+      </c>
+      <c r="H47">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48">
+        <v>8</v>
+      </c>
+      <c r="C48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" t="s">
+        <v>156</v>
+      </c>
+      <c r="F48" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>61</v>
+      </c>
+      <c r="B49">
+        <v>8</v>
+      </c>
+      <c r="C49" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" t="s">
+        <v>157</v>
+      </c>
+      <c r="F49" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" t="s">
+        <v>11</v>
+      </c>
+      <c r="H49">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F60E434C-11A3-44BB-A07D-9898958DBABA}">
+  <dimension ref="A1:J97"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
+    <col min="8" max="8" width="37" customWidth="1"/>
+    <col min="9" max="9" width="35.85546875" customWidth="1"/>
+    <col min="10" max="10" width="37.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>1.6105425179999999</v>
+      </c>
+      <c r="H2">
+        <v>57.671423177511606</v>
+      </c>
+      <c r="I2">
+        <v>20.144252748558504</v>
+      </c>
+      <c r="J2">
+        <v>39.109498305910371</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>1.8536911395000002</v>
+      </c>
+      <c r="H3">
+        <v>177.77243858776924</v>
+      </c>
+      <c r="I3">
+        <v>29.734371999687095</v>
+      </c>
+      <c r="J3">
+        <v>110.59729231982354</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>1.1077408155000004</v>
+      </c>
+      <c r="H4">
+        <v>453.15545725729072</v>
+      </c>
+      <c r="I4">
+        <v>70.328908625300357</v>
+      </c>
+      <c r="J4">
+        <v>36.642261251919024</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>1.4236399874999996</v>
+      </c>
+      <c r="H5">
+        <v>75.327978077620799</v>
+      </c>
+      <c r="I5">
+        <v>40.4866324849474</v>
+      </c>
+      <c r="J5">
+        <v>40.600934793142386</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>1.2781464648750005</v>
+      </c>
+      <c r="H6">
+        <v>298.53092968279952</v>
+      </c>
+      <c r="I6">
+        <v>47.756694083919342</v>
+      </c>
+      <c r="J6">
+        <v>47.76749967535234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>1.4635275138749999</v>
+      </c>
+      <c r="H7">
+        <v>379.60791125721187</v>
+      </c>
+      <c r="I7">
+        <v>50.700576649730742</v>
+      </c>
+      <c r="J7">
+        <v>43.755952867542817</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>1.6508449938750001</v>
+      </c>
+      <c r="H8">
+        <v>50.701355870015881</v>
+      </c>
+      <c r="I8">
+        <v>31.255620097332791</v>
+      </c>
+      <c r="J8">
+        <v>27.228711706365296</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>1.2124082355000003</v>
+      </c>
+      <c r="H9">
+        <v>287.31212150831749</v>
+      </c>
+      <c r="I9">
+        <v>52.180755624689148</v>
+      </c>
+      <c r="J9">
+        <v>47.74944422430481</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>1.3177079594999996</v>
+      </c>
+      <c r="H10">
+        <v>457.7440014897627</v>
+      </c>
+      <c r="I10">
+        <v>67.561742178854146</v>
+      </c>
+      <c r="J10">
+        <v>31.158934116229382</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>1.0296552000000001</v>
+      </c>
+      <c r="H11">
+        <v>102.49980776942432</v>
+      </c>
+      <c r="I11">
+        <v>47.968323654529669</v>
+      </c>
+      <c r="J11">
+        <v>53.385538705604588</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>1.3970977019999997</v>
+      </c>
+      <c r="H12">
+        <v>299.9488819767252</v>
+      </c>
+      <c r="I12">
+        <v>60.931057688042152</v>
+      </c>
+      <c r="J12">
+        <v>33.443243448031232</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>1.5168491988749999</v>
+      </c>
+      <c r="H13">
+        <v>387.52438921773802</v>
+      </c>
+      <c r="I13">
+        <v>59.639989032318056</v>
+      </c>
+      <c r="J13">
+        <v>36.297255418782434</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>1.1599954875000005</v>
+      </c>
+      <c r="H14">
+        <v>76.912021425944801</v>
+      </c>
+      <c r="I14">
+        <v>37.151691621013541</v>
+      </c>
+      <c r="J14">
+        <v>41.023799350304927</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>1.0816727580000003</v>
+      </c>
+      <c r="H15">
+        <v>393.94572100870141</v>
+      </c>
+      <c r="I15">
+        <v>64.230650742943439</v>
+      </c>
+      <c r="J15">
+        <v>39.35471259246966</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>1.7182133820000001</v>
+      </c>
+      <c r="H16">
+        <v>315.5944784786563</v>
+      </c>
+      <c r="I16">
+        <v>32.613894106217408</v>
+      </c>
+      <c r="J16">
+        <v>26.018873110486282</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>1.1469169998750004</v>
+      </c>
+      <c r="H17">
+        <v>94.064342996180883</v>
+      </c>
+      <c r="I17">
+        <v>36.550681239837601</v>
+      </c>
+      <c r="J17">
+        <v>36.023697802772212</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>1.3705949355</v>
+      </c>
+      <c r="H18">
+        <v>340.4295737236755</v>
+      </c>
+      <c r="I18">
+        <v>45.162894376372229</v>
+      </c>
+      <c r="J18">
+        <v>36.167449909173207</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>1.0947018468750003</v>
+      </c>
+      <c r="H19">
+        <v>522.85102725334229</v>
+      </c>
+      <c r="I19">
+        <v>62.585864314755071</v>
+      </c>
+      <c r="J19">
+        <v>53.738104758224004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>1.4369259498750007</v>
+      </c>
+      <c r="H20">
+        <v>65.451245294938801</v>
+      </c>
+      <c r="I20">
+        <v>32.03226131897484</v>
+      </c>
+      <c r="J20">
+        <v>34.554238918619035</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <v>1.7317166988749999</v>
+      </c>
+      <c r="H21">
+        <v>227.46250991751208</v>
+      </c>
+      <c r="I21">
+        <v>42.217644187698873</v>
+      </c>
+      <c r="J21">
+        <v>32.531823980163296</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <v>1.7587529718750003</v>
+      </c>
+      <c r="H22">
+        <v>373.42655766540224</v>
+      </c>
+      <c r="I22">
+        <v>46.672629509925279</v>
+      </c>
+      <c r="J22">
+        <v>30.911871920818694</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <v>1.4236399874999996</v>
+      </c>
+      <c r="H23">
+        <v>64.09404212181299</v>
+      </c>
+      <c r="I23">
+        <v>33.392664414054792</v>
+      </c>
+      <c r="J23">
+        <v>34.913210026813694</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <v>1.1992902288750005</v>
+      </c>
+      <c r="H24">
+        <v>356.2165358474432</v>
+      </c>
+      <c r="I24">
+        <v>59.087473477711526</v>
+      </c>
+      <c r="J24">
+        <v>43.513766587905387</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <v>1.1992902288750005</v>
+      </c>
+      <c r="H25">
+        <v>466.09861816252874</v>
+      </c>
+      <c r="I25">
+        <v>58.23599423281005</v>
+      </c>
+      <c r="J25">
+        <v>54.649923969427554</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <v>1.9218005088749992</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <v>2.4615304155</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <v>2.0038577838749996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29">
+        <v>2.0038577838749996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30">
+        <v>2.2938591554999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31">
+        <v>2.2660522619999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
       </c>
       <c r="G32">
-        <v>6</v>
+        <v>1.8536911395000002</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="B33">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
-      </c>
-      <c r="F33" t="s">
-        <v>11</v>
+        <v>62</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
       </c>
       <c r="G33">
-        <v>6</v>
+        <v>2.5599956538749997</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="B34">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D34" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34" t="s">
-        <v>11</v>
+        <v>62</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
       </c>
       <c r="G34">
-        <v>6</v>
+        <v>2.7015000588749998</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B35">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E35" t="s">
-        <v>17</v>
-      </c>
-      <c r="F35" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
       </c>
       <c r="G35">
-        <v>6</v>
+        <v>3.2190963498749996</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B36">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D36" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E36" t="s">
-        <v>17</v>
-      </c>
-      <c r="F36" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
       </c>
       <c r="G36">
-        <v>6</v>
+        <v>2.673120139875</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B37">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D37" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E37" t="s">
-        <v>17</v>
-      </c>
-      <c r="F37" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
       </c>
       <c r="G37">
-        <v>6</v>
+        <v>2.7015000588749998</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="B38">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" t="s">
-        <v>11</v>
+        <v>62</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
       </c>
       <c r="G38">
-        <v>6</v>
+        <v>3.059583462</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="B39">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D39" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
-      </c>
-      <c r="F39" t="s">
-        <v>11</v>
+        <v>62</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
       </c>
       <c r="G39">
-        <v>6</v>
+        <v>2.3914944948749999</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="B40">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D40" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
-      </c>
-      <c r="F40" t="s">
-        <v>11</v>
+        <v>62</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
       </c>
       <c r="G40">
-        <v>6</v>
+        <v>1.7993814795</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="B41">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>17</v>
-      </c>
-      <c r="F41" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
       </c>
       <c r="G41">
-        <v>6</v>
+        <v>1.7317166988749999</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="B42">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D42" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>17</v>
-      </c>
-      <c r="F42" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
       </c>
       <c r="G42">
-        <v>6</v>
+        <v>1.6692833600000001</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="B43">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D43" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>17</v>
-      </c>
-      <c r="F43" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
       </c>
       <c r="G43">
-        <v>6</v>
+        <v>1.6938577850000003</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="B44">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
-      </c>
-      <c r="F44" t="s">
-        <v>11</v>
+        <v>62</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
       </c>
       <c r="G44">
-        <v>6</v>
+        <v>1.5241747399999999</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="B45">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D45" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
-      </c>
-      <c r="F45" t="s">
-        <v>11</v>
+        <v>62</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
       </c>
       <c r="G45">
-        <v>6</v>
+        <v>1.7433406249999994</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="B46">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D46" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
-      </c>
-      <c r="F46" t="s">
-        <v>11</v>
+        <v>62</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
       </c>
       <c r="G46">
-        <v>6</v>
+        <v>2.0758337600000001</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="B47">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E47" t="s">
-        <v>17</v>
-      </c>
-      <c r="F47" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="F47">
+        <v>2</v>
       </c>
       <c r="G47">
-        <v>6</v>
+        <v>1.6326304662499993</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>36</v>
+      </c>
+      <c r="B48">
+        <v>4</v>
+      </c>
+      <c r="C48" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" t="s">
+        <v>17</v>
+      </c>
+      <c r="E48" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+      <c r="G48">
+        <v>1.7433406250000003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>37</v>
+      </c>
+      <c r="B49">
+        <v>4</v>
+      </c>
+      <c r="C49" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" t="s">
+        <v>17</v>
+      </c>
+      <c r="E49" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49">
+        <v>2</v>
+      </c>
+      <c r="G49">
+        <v>1.6938577850000003</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>91</v>
+      </c>
+      <c r="B50">
+        <v>5</v>
+      </c>
+      <c r="C50" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" t="s">
+        <v>62</v>
+      </c>
+      <c r="F50">
+        <v>2</v>
+      </c>
+      <c r="G50">
+        <v>1.7932687849999995</v>
+      </c>
+      <c r="H50">
+        <v>50.879415925011941</v>
+      </c>
+      <c r="I50">
+        <v>24.751382233962783</v>
+      </c>
+      <c r="J50">
+        <v>11.018249802700005</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>92</v>
+      </c>
+      <c r="B51">
+        <v>5</v>
+      </c>
+      <c r="C51" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" t="s">
+        <v>62</v>
+      </c>
+      <c r="F51">
+        <v>2</v>
+      </c>
+      <c r="G51">
+        <v>1.3254649062499999</v>
+      </c>
+      <c r="H51">
+        <v>273.70471848305391</v>
+      </c>
+      <c r="I51">
+        <v>33.260767381892897</v>
+      </c>
+      <c r="J51">
+        <v>33.597232884235858</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>93</v>
+      </c>
+      <c r="B52">
+        <v>5</v>
+      </c>
+      <c r="C52" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" t="s">
+        <v>62</v>
+      </c>
+      <c r="F52">
+        <v>2</v>
+      </c>
+      <c r="G52">
+        <v>1.1238334962500003</v>
+      </c>
+      <c r="H52">
+        <v>442.54697512859042</v>
+      </c>
+      <c r="I52">
+        <v>57.929037128566513</v>
+      </c>
+      <c r="J52">
+        <v>56.956218360524133</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>38</v>
+      </c>
+      <c r="B53">
+        <v>5</v>
+      </c>
+      <c r="C53" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53">
+        <v>2</v>
+      </c>
+      <c r="G53">
+        <v>1.5841495962500001</v>
+      </c>
+      <c r="H53">
+        <v>62.102499687090351</v>
+      </c>
+      <c r="I53">
+        <v>26.342234982356572</v>
+      </c>
+      <c r="J53">
+        <v>47.836271708377311</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>39</v>
+      </c>
+      <c r="B54">
+        <v>5</v>
+      </c>
+      <c r="C54" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54">
+        <v>2</v>
+      </c>
+      <c r="G54">
+        <v>1.8817146162499998</v>
+      </c>
+      <c r="H54">
+        <v>254.14233156833407</v>
+      </c>
+      <c r="I54">
+        <v>44.139647027541109</v>
+      </c>
+      <c r="J54">
+        <v>38.597910517659784</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>40</v>
+      </c>
+      <c r="B55">
+        <v>5</v>
+      </c>
+      <c r="C55" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55">
+        <v>2</v>
+      </c>
+      <c r="G55">
+        <v>1.2685516249999997</v>
+      </c>
+      <c r="H55">
+        <v>473.464523780977</v>
+      </c>
+      <c r="I55">
+        <v>62.773387729486053</v>
+      </c>
+      <c r="J55">
+        <v>69.527696212852916</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>94</v>
+      </c>
+      <c r="B56">
+        <v>5</v>
+      </c>
+      <c r="C56" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" t="s">
+        <v>62</v>
+      </c>
+      <c r="F56">
+        <v>2</v>
+      </c>
+      <c r="G56">
+        <v>1.5003796249999999</v>
+      </c>
+      <c r="H56">
+        <v>39.020626471057739</v>
+      </c>
+      <c r="I56">
+        <v>28.492913529219052</v>
+      </c>
+      <c r="J56">
+        <v>36.849657513881439</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>95</v>
+      </c>
+      <c r="B57">
+        <v>5</v>
+      </c>
+      <c r="C57" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" t="s">
+        <v>62</v>
+      </c>
+      <c r="F57">
+        <v>2</v>
+      </c>
+      <c r="G57">
+        <v>1.4766958399999999</v>
+      </c>
+      <c r="H57">
+        <v>255.12971395075476</v>
+      </c>
+      <c r="I57">
+        <v>32.35970508026648</v>
+      </c>
+      <c r="J57">
+        <v>50.005902091176502</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>96</v>
+      </c>
+      <c r="B58">
+        <v>5</v>
+      </c>
+      <c r="C58" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" t="s">
+        <v>17</v>
+      </c>
+      <c r="E58" t="s">
+        <v>62</v>
+      </c>
+      <c r="F58">
+        <v>2</v>
+      </c>
+      <c r="G58">
+        <v>1.5480811849999991</v>
+      </c>
+      <c r="H58">
+        <v>373.11259537421819</v>
+      </c>
+      <c r="I58">
+        <v>54.754089628592283</v>
+      </c>
+      <c r="J58">
+        <v>57.170491795279062</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>41</v>
+      </c>
+      <c r="B59">
+        <v>5</v>
+      </c>
+      <c r="C59" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" t="s">
+        <v>17</v>
+      </c>
+      <c r="E59" t="s">
+        <v>11</v>
+      </c>
+      <c r="F59">
+        <v>2</v>
+      </c>
+      <c r="G59">
+        <v>1.5962280649999994</v>
+      </c>
+      <c r="H59">
+        <v>47.41719413632763</v>
+      </c>
+      <c r="I59">
+        <v>18.642947253741404</v>
+      </c>
+      <c r="J59">
+        <v>50.85477636867634</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>42</v>
+      </c>
+      <c r="B60">
+        <v>5</v>
+      </c>
+      <c r="C60" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60" t="s">
+        <v>17</v>
+      </c>
+      <c r="E60" t="s">
+        <v>11</v>
+      </c>
+      <c r="F60">
+        <v>2</v>
+      </c>
+      <c r="G60">
+        <v>2.3444006599999998</v>
+      </c>
+      <c r="H60">
+        <v>157.49857995456395</v>
+      </c>
+      <c r="I60">
+        <v>19.556336291844268</v>
+      </c>
+      <c r="J60">
+        <v>42.734607884258317</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>43</v>
+      </c>
+      <c r="B61">
+        <v>5</v>
+      </c>
+      <c r="C61" t="s">
+        <v>15</v>
+      </c>
+      <c r="D61" t="s">
+        <v>17</v>
+      </c>
+      <c r="E61" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61">
+        <v>2</v>
+      </c>
+      <c r="G61">
+        <v>1.4766958399999999</v>
+      </c>
+      <c r="H61">
+        <v>336.47757133028557</v>
+      </c>
+      <c r="I61">
+        <v>27.161328866692514</v>
+      </c>
+      <c r="J61">
+        <v>51.637216863161015</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>97</v>
+      </c>
+      <c r="B62">
+        <v>6</v>
+      </c>
+      <c r="C62" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" t="s">
+        <v>62</v>
+      </c>
+      <c r="F62">
+        <v>6</v>
+      </c>
+      <c r="G62">
+        <v>1.4413789062499998</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>98</v>
+      </c>
+      <c r="B63">
+        <v>6</v>
+      </c>
+      <c r="C63" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" t="s">
+        <v>62</v>
+      </c>
+      <c r="F63">
+        <v>6</v>
+      </c>
+      <c r="G63">
+        <v>1.1457916662499998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>99</v>
+      </c>
+      <c r="B64">
+        <v>6</v>
+      </c>
+      <c r="C64" t="s">
+        <v>15</v>
+      </c>
+      <c r="D64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" t="s">
+        <v>62</v>
+      </c>
+      <c r="F64">
+        <v>6</v>
+      </c>
+      <c r="G64">
+        <v>1.5003796249999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>44</v>
+      </c>
+      <c r="B65">
+        <v>6</v>
+      </c>
+      <c r="C65" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" t="s">
+        <v>11</v>
+      </c>
+      <c r="F65">
+        <v>6</v>
+      </c>
+      <c r="G65">
+        <v>1.7807449962499993</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>45</v>
+      </c>
+      <c r="B66">
+        <v>6</v>
+      </c>
+      <c r="C66" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" t="s">
+        <v>11</v>
+      </c>
+      <c r="F66">
+        <v>6</v>
+      </c>
+      <c r="G66">
+        <v>1.6692833599999997</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>46</v>
+      </c>
+      <c r="B67">
+        <v>6</v>
+      </c>
+      <c r="C67" t="s">
+        <v>15</v>
+      </c>
+      <c r="D67" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67" t="s">
+        <v>11</v>
+      </c>
+      <c r="F67">
+        <v>6</v>
+      </c>
+      <c r="G67">
+        <v>2.6098511562500004</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>100</v>
+      </c>
+      <c r="B68">
+        <v>6</v>
+      </c>
+      <c r="C68" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68" t="s">
+        <v>62</v>
+      </c>
+      <c r="F68">
+        <v>6</v>
+      </c>
+      <c r="G68">
+        <v>2.3994500000000003</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>101</v>
+      </c>
+      <c r="B69">
+        <v>6</v>
+      </c>
+      <c r="C69" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" t="s">
+        <v>17</v>
+      </c>
+      <c r="E69" t="s">
+        <v>62</v>
+      </c>
+      <c r="F69">
+        <v>6</v>
+      </c>
+      <c r="G69">
+        <v>2.1953111562499998</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>102</v>
+      </c>
+      <c r="B70">
+        <v>6</v>
+      </c>
+      <c r="C70" t="s">
+        <v>15</v>
+      </c>
+      <c r="D70" t="s">
+        <v>17</v>
+      </c>
+      <c r="E70" t="s">
+        <v>62</v>
+      </c>
+      <c r="F70">
+        <v>6</v>
+      </c>
+      <c r="G70">
+        <v>3.5299982600000002</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>47</v>
+      </c>
+      <c r="B71">
+        <v>6</v>
+      </c>
+      <c r="C71" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" t="s">
+        <v>17</v>
+      </c>
+      <c r="E71" t="s">
+        <v>11</v>
+      </c>
+      <c r="F71">
+        <v>6</v>
+      </c>
+      <c r="G71">
+        <v>2.1552348650000002</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>48</v>
+      </c>
+      <c r="B72">
+        <v>6</v>
+      </c>
+      <c r="C72" t="s">
+        <v>13</v>
+      </c>
+      <c r="D72" t="s">
+        <v>17</v>
+      </c>
+      <c r="E72" t="s">
+        <v>11</v>
+      </c>
+      <c r="F72">
+        <v>6</v>
+      </c>
+      <c r="G72">
+        <v>3.2322898962499993</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>49</v>
+      </c>
+      <c r="B73">
+        <v>6</v>
+      </c>
+      <c r="C73" t="s">
+        <v>15</v>
+      </c>
+      <c r="D73" t="s">
+        <v>17</v>
+      </c>
+      <c r="E73" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73">
+        <v>6</v>
+      </c>
+      <c r="G73">
+        <v>3.7884931399999995</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>103</v>
+      </c>
+      <c r="B74">
+        <v>7</v>
+      </c>
+      <c r="C74" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" t="s">
+        <v>10</v>
+      </c>
+      <c r="E74" t="s">
+        <v>62</v>
+      </c>
+      <c r="F74">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>104</v>
+      </c>
+      <c r="B75">
+        <v>7</v>
+      </c>
+      <c r="C75" t="s">
+        <v>13</v>
+      </c>
+      <c r="D75" t="s">
+        <v>10</v>
+      </c>
+      <c r="E75" t="s">
+        <v>62</v>
+      </c>
+      <c r="F75">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>105</v>
+      </c>
+      <c r="B76">
+        <v>7</v>
+      </c>
+      <c r="C76" t="s">
+        <v>15</v>
+      </c>
+      <c r="D76" t="s">
+        <v>10</v>
+      </c>
+      <c r="E76" t="s">
+        <v>62</v>
+      </c>
+      <c r="F76">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>50</v>
+      </c>
+      <c r="B77">
+        <v>7</v>
+      </c>
+      <c r="C77" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" t="s">
+        <v>10</v>
+      </c>
+      <c r="E77" t="s">
+        <v>11</v>
+      </c>
+      <c r="F77">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>51</v>
+      </c>
+      <c r="B78">
+        <v>7</v>
+      </c>
+      <c r="C78" t="s">
+        <v>13</v>
+      </c>
+      <c r="D78" t="s">
+        <v>10</v>
+      </c>
+      <c r="E78" t="s">
+        <v>11</v>
+      </c>
+      <c r="F78">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>52</v>
+      </c>
+      <c r="B79">
+        <v>7</v>
+      </c>
+      <c r="C79" t="s">
+        <v>15</v>
+      </c>
+      <c r="D79" t="s">
+        <v>10</v>
+      </c>
+      <c r="E79" t="s">
+        <v>11</v>
+      </c>
+      <c r="F79">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>106</v>
+      </c>
+      <c r="B80">
+        <v>7</v>
+      </c>
+      <c r="C80" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" t="s">
+        <v>17</v>
+      </c>
+      <c r="E80" t="s">
+        <v>62</v>
+      </c>
+      <c r="F80">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>107</v>
+      </c>
+      <c r="B81">
+        <v>7</v>
+      </c>
+      <c r="C81" t="s">
+        <v>13</v>
+      </c>
+      <c r="D81" t="s">
+        <v>17</v>
+      </c>
+      <c r="E81" t="s">
+        <v>62</v>
+      </c>
+      <c r="F81">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>108</v>
+      </c>
+      <c r="B82">
+        <v>7</v>
+      </c>
+      <c r="C82" t="s">
+        <v>15</v>
+      </c>
+      <c r="D82" t="s">
+        <v>17</v>
+      </c>
+      <c r="E82" t="s">
+        <v>62</v>
+      </c>
+      <c r="F82">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>53</v>
+      </c>
+      <c r="B83">
+        <v>7</v>
+      </c>
+      <c r="C83" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" t="s">
+        <v>17</v>
+      </c>
+      <c r="E83" t="s">
+        <v>11</v>
+      </c>
+      <c r="F83">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>54</v>
+      </c>
+      <c r="B84">
+        <v>7</v>
+      </c>
+      <c r="C84" t="s">
+        <v>13</v>
+      </c>
+      <c r="D84" t="s">
+        <v>17</v>
+      </c>
+      <c r="E84" t="s">
+        <v>11</v>
+      </c>
+      <c r="F84">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>55</v>
+      </c>
+      <c r="B85">
+        <v>7</v>
+      </c>
+      <c r="C85" t="s">
+        <v>15</v>
+      </c>
+      <c r="D85" t="s">
+        <v>17</v>
+      </c>
+      <c r="E85" t="s">
+        <v>11</v>
+      </c>
+      <c r="F85">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>109</v>
+      </c>
+      <c r="B86">
+        <v>8</v>
+      </c>
+      <c r="C86" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" t="s">
+        <v>10</v>
+      </c>
+      <c r="E86" t="s">
+        <v>62</v>
+      </c>
+      <c r="F86">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>110</v>
+      </c>
+      <c r="B87">
+        <v>8</v>
+      </c>
+      <c r="C87" t="s">
+        <v>13</v>
+      </c>
+      <c r="D87" t="s">
+        <v>10</v>
+      </c>
+      <c r="E87" t="s">
+        <v>62</v>
+      </c>
+      <c r="F87">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>111</v>
+      </c>
+      <c r="B88">
+        <v>8</v>
+      </c>
+      <c r="C88" t="s">
+        <v>15</v>
+      </c>
+      <c r="D88" t="s">
+        <v>10</v>
+      </c>
+      <c r="E88" t="s">
+        <v>62</v>
+      </c>
+      <c r="F88">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>56</v>
+      </c>
+      <c r="B89">
+        <v>8</v>
+      </c>
+      <c r="C89" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" t="s">
+        <v>10</v>
+      </c>
+      <c r="E89" t="s">
+        <v>11</v>
+      </c>
+      <c r="F89">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>57</v>
+      </c>
+      <c r="B90">
+        <v>8</v>
+      </c>
+      <c r="C90" t="s">
+        <v>13</v>
+      </c>
+      <c r="D90" t="s">
+        <v>10</v>
+      </c>
+      <c r="E90" t="s">
+        <v>11</v>
+      </c>
+      <c r="F90">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>58</v>
+      </c>
+      <c r="B91">
+        <v>8</v>
+      </c>
+      <c r="C91" t="s">
+        <v>15</v>
+      </c>
+      <c r="D91" t="s">
+        <v>10</v>
+      </c>
+      <c r="E91" t="s">
+        <v>11</v>
+      </c>
+      <c r="F91">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>112</v>
+      </c>
+      <c r="B92">
+        <v>8</v>
+      </c>
+      <c r="C92" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" t="s">
+        <v>17</v>
+      </c>
+      <c r="E92" t="s">
+        <v>62</v>
+      </c>
+      <c r="F92">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>113</v>
+      </c>
+      <c r="B93">
+        <v>8</v>
+      </c>
+      <c r="C93" t="s">
+        <v>13</v>
+      </c>
+      <c r="D93" t="s">
+        <v>17</v>
+      </c>
+      <c r="E93" t="s">
+        <v>62</v>
+      </c>
+      <c r="F93">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>114</v>
+      </c>
+      <c r="B94">
+        <v>8</v>
+      </c>
+      <c r="C94" t="s">
+        <v>15</v>
+      </c>
+      <c r="D94" t="s">
+        <v>17</v>
+      </c>
+      <c r="E94" t="s">
+        <v>62</v>
+      </c>
+      <c r="F94">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>59</v>
+      </c>
+      <c r="B95">
+        <v>8</v>
+      </c>
+      <c r="C95" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" t="s">
+        <v>17</v>
+      </c>
+      <c r="E95" t="s">
+        <v>11</v>
+      </c>
+      <c r="F95">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>60</v>
       </c>
-      <c r="B48">
+      <c r="B96">
         <v>8</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C96" t="s">
+        <v>13</v>
+      </c>
+      <c r="D96" t="s">
+        <v>17</v>
+      </c>
+      <c r="E96" t="s">
+        <v>11</v>
+      </c>
+      <c r="F96">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>61</v>
+      </c>
+      <c r="B97">
         <v>8</v>
       </c>
-      <c r="D48" t="s">
-        <v>13</v>
-      </c>
-      <c r="E48" t="s">
+      <c r="C97" t="s">
+        <v>15</v>
+      </c>
+      <c r="D97" t="s">
         <v>17</v>
       </c>
-      <c r="F48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>61</v>
-      </c>
-      <c r="B49">
-        <v>8</v>
-      </c>
-      <c r="C49" t="s">
-        <v>8</v>
-      </c>
-      <c r="D49" t="s">
-        <v>15</v>
-      </c>
-      <c r="E49" t="s">
-        <v>17</v>
-      </c>
-      <c r="F49" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49">
+      <c r="E97" t="s">
+        <v>11</v>
+      </c>
+      <c r="F97">
         <v>6</v>
       </c>
     </row>
@@ -5209,12 +8925,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9E2B87C-5870-4272-B260-FCCD7D84AC17}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5225,9 +8941,12 @@
     <col min="8" max="8" width="30.42578125" customWidth="1"/>
     <col min="9" max="9" width="20.28515625" customWidth="1"/>
     <col min="10" max="10" width="31.5703125" customWidth="1"/>
+    <col min="11" max="11" width="21" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" customWidth="1"/>
+    <col min="13" max="13" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5250,16 +8969,25 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>68</v>
+        <v>146</v>
       </c>
       <c r="I1" t="s">
-        <v>69</v>
+        <v>147</v>
       </c>
       <c r="J1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+      <c r="K1" t="s">
+        <v>149</v>
+      </c>
+      <c r="L1" t="s">
+        <v>150</v>
+      </c>
+      <c r="M1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -5288,11 +9016,21 @@
         <v>53.570248698276018</v>
       </c>
       <c r="J2">
-        <f>Table2[[#This Row],[Total 13C 16:0 release]]-Table2[[#This Row],[13C 16:0 HL release]]</f>
+        <f>Table2[[#This Row],[Basal EHCFA]]-Table2[[#This Row],[Inhibited EHCFA]]</f>
         <v>39.845998034805504</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2">
+        <v>13.311204919543773</v>
+      </c>
+      <c r="L2">
+        <v>9.1550770296190898</v>
+      </c>
+      <c r="M2">
+        <f>Table2[[#This Row],[Basal IHCFA]]-Table2[[#This Row],[Inhibited IHCFA]]</f>
+        <v>4.156127889924683</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -5321,11 +9059,21 @@
         <v>28.034965758426736</v>
       </c>
       <c r="J3">
-        <f>Table2[[#This Row],[Total 13C 16:0 release]]-Table2[[#This Row],[13C 16:0 HL release]]</f>
+        <f>Table2[[#This Row],[Basal EHCFA]]-Table2[[#This Row],[Inhibited EHCFA]]</f>
         <v>38.268017583694274</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3">
+        <v>5.3968581122769166</v>
+      </c>
+      <c r="L3">
+        <v>4.4450496556092585</v>
+      </c>
+      <c r="M3">
+        <f>Table2[[#This Row],[Basal IHCFA]]-Table2[[#This Row],[Inhibited IHCFA]]</f>
+        <v>0.95180845666765812</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -5354,11 +9102,21 @@
         <v>36.48732591468174</v>
       </c>
       <c r="J4">
-        <f>Table2[[#This Row],[Total 13C 16:0 release]]-Table2[[#This Row],[13C 16:0 HL release]]</f>
+        <f>Table2[[#This Row],[Basal EHCFA]]-Table2[[#This Row],[Inhibited EHCFA]]</f>
         <v>4.8709982873989404</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <v>4.9588827001107951</v>
+      </c>
+      <c r="L4">
+        <v>3.062997095945275</v>
+      </c>
+      <c r="M4">
+        <f>Table2[[#This Row],[Basal IHCFA]]-Table2[[#This Row],[Inhibited IHCFA]]</f>
+        <v>1.8958856041655201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -5387,11 +9145,21 @@
         <v>37.537977265219588</v>
       </c>
       <c r="J5">
-        <f>Table2[[#This Row],[Total 13C 16:0 release]]-Table2[[#This Row],[13C 16:0 HL release]]</f>
+        <f>Table2[[#This Row],[Basal EHCFA]]-Table2[[#This Row],[Inhibited EHCFA]]</f>
         <v>23.999190849973196</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <v>9.1244583295087782</v>
+      </c>
+      <c r="L5">
+        <v>4.7937276478442055</v>
+      </c>
+      <c r="M5">
+        <f>Table2[[#This Row],[Basal IHCFA]]-Table2[[#This Row],[Inhibited IHCFA]]</f>
+        <v>4.3307306816645728</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -5420,11 +9188,21 @@
         <v>46.538277978232166</v>
       </c>
       <c r="J6">
-        <f>Table2[[#This Row],[Total 13C 16:0 release]]-Table2[[#This Row],[13C 16:0 HL release]]</f>
+        <f>Table2[[#This Row],[Basal EHCFA]]-Table2[[#This Row],[Inhibited EHCFA]]</f>
         <v>7.5183540713657706</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6">
+        <v>5.8260864942035058</v>
+      </c>
+      <c r="L6">
+        <v>2.8262028286689529</v>
+      </c>
+      <c r="M6">
+        <f>Table2[[#This Row],[Basal IHCFA]]-Table2[[#This Row],[Inhibited IHCFA]]</f>
+        <v>2.9998836655345529</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -5453,11 +9231,21 @@
         <v>37.689320991965914</v>
       </c>
       <c r="J7">
-        <f>Table2[[#This Row],[Total 13C 16:0 release]]-Table2[[#This Row],[13C 16:0 HL release]]</f>
+        <f>Table2[[#This Row],[Basal EHCFA]]-Table2[[#This Row],[Inhibited EHCFA]]</f>
         <v>77.211419144410215</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7">
+        <v>6.4974221857152834</v>
+      </c>
+      <c r="L7">
+        <v>2.4478089402161163</v>
+      </c>
+      <c r="M7">
+        <f>Table2[[#This Row],[Basal IHCFA]]-Table2[[#This Row],[Inhibited IHCFA]]</f>
+        <v>4.0496132454991667</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -5480,7 +9268,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -5503,7 +9291,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -5526,7 +9314,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -5549,7 +9337,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -5572,7 +9360,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -5595,7 +9383,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -5624,11 +9412,21 @@
         <v>31.189951751682202</v>
       </c>
       <c r="J14">
-        <f>Table2[[#This Row],[Total 13C 16:0 release]]-Table2[[#This Row],[13C 16:0 HL release]]</f>
+        <f>Table2[[#This Row],[Basal EHCFA]]-Table2[[#This Row],[Inhibited EHCFA]]</f>
         <v>83.524466364025045</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K14">
+        <v>7.7505838011601567</v>
+      </c>
+      <c r="L14">
+        <v>2.3173938065130026</v>
+      </c>
+      <c r="M14">
+        <f>Table2[[#This Row],[Basal IHCFA]]-Table2[[#This Row],[Inhibited IHCFA]]</f>
+        <v>5.4331899946471545</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -5657,11 +9455,21 @@
         <v>22.472564601015304</v>
       </c>
       <c r="J15">
-        <f>Table2[[#This Row],[Total 13C 16:0 release]]-Table2[[#This Row],[13C 16:0 HL release]]</f>
+        <f>Table2[[#This Row],[Basal EHCFA]]-Table2[[#This Row],[Inhibited EHCFA]]</f>
         <v>34.786827250620348</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K15">
+        <v>4.7706781583065725</v>
+      </c>
+      <c r="L15">
+        <v>1.1545141526654323</v>
+      </c>
+      <c r="M15">
+        <f>Table2[[#This Row],[Basal IHCFA]]-Table2[[#This Row],[Inhibited IHCFA]]</f>
+        <v>3.6161640056411404</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -5690,8 +9498,18 @@
         <v>14.127899245915417</v>
       </c>
       <c r="J16">
-        <f>Table2[[#This Row],[Total 13C 16:0 release]]-Table2[[#This Row],[13C 16:0 HL release]]</f>
+        <f>Table2[[#This Row],[Basal EHCFA]]-Table2[[#This Row],[Inhibited EHCFA]]</f>
         <v>78.842696282435185</v>
+      </c>
+      <c r="K16">
+        <v>5.8334563618689934</v>
+      </c>
+      <c r="L16">
+        <v>1.9533001157192151</v>
+      </c>
+      <c r="M16">
+        <f>Table2[[#This Row],[Basal IHCFA]]-Table2[[#This Row],[Inhibited IHCFA]]</f>
+        <v>3.8801562461497783</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -5909,12 +9727,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B60D3A8E-12A1-4C20-B78E-80076B3F7194}">
   <dimension ref="A1:O37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5950,36 +9768,36 @@
         <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="H1" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="I1" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="J1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="K1" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="L1" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="M1" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="N1" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="O1" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -5991,45 +9809,15 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F2">
         <v>2</v>
-      </c>
-      <c r="G2">
-        <v>173.01426953253483</v>
-      </c>
-      <c r="H2">
-        <v>20.144252748558504</v>
-      </c>
-      <c r="I2">
-        <v>39.109498305910371</v>
-      </c>
-      <c r="J2">
-        <v>152.10406761004765</v>
-      </c>
-      <c r="K2">
-        <v>31.255620097332791</v>
-      </c>
-      <c r="L2">
-        <v>27.228711706365296</v>
-      </c>
-      <c r="M2">
-        <f>Table4[[#This Row],[Total IHCTG]]-Table4[[#This Row],[BAF IHCTG]]</f>
-        <v>20.910201922487175</v>
-      </c>
-      <c r="N2">
-        <f>Table4[[#This Row],[Total IHCFA]]-Table4[[#This Row],[BAF IHCFA]]</f>
-        <v>-11.111367348774287</v>
-      </c>
-      <c r="O2">
-        <f>Table4[[#This Row],[Total EHCFA]]-Table4[[#This Row],[BAF EHCFA]]</f>
-        <v>11.880786599545075</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -6041,45 +9829,15 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F3">
         <v>2</v>
-      </c>
-      <c r="G3">
-        <v>533.31731576330765</v>
-      </c>
-      <c r="H3">
-        <v>29.734371999687095</v>
-      </c>
-      <c r="I3">
-        <v>110.59729231982354</v>
-      </c>
-      <c r="J3">
-        <v>861.93636452495252</v>
-      </c>
-      <c r="K3">
-        <v>52.180755624689148</v>
-      </c>
-      <c r="L3">
-        <v>47.74944422430481</v>
-      </c>
-      <c r="M3">
-        <f>Table4[[#This Row],[Total IHCTG]]-Table4[[#This Row],[BAF IHCTG]]</f>
-        <v>-328.61904876164488</v>
-      </c>
-      <c r="N3">
-        <f>Table4[[#This Row],[Total IHCFA]]-Table4[[#This Row],[BAF IHCFA]]</f>
-        <v>-22.446383625002053</v>
-      </c>
-      <c r="O3">
-        <f>Table4[[#This Row],[Total EHCFA]]-Table4[[#This Row],[BAF EHCFA]]</f>
-        <v>62.847848095518728</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -6091,40 +9849,10 @@
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F4">
         <v>2</v>
-      </c>
-      <c r="G4">
-        <v>1359.466371771872</v>
-      </c>
-      <c r="H4">
-        <v>70.328908625300357</v>
-      </c>
-      <c r="I4">
-        <v>36.642261251919024</v>
-      </c>
-      <c r="J4">
-        <v>1373.2320044692881</v>
-      </c>
-      <c r="K4">
-        <v>67.561742178854146</v>
-      </c>
-      <c r="L4">
-        <v>31.158934116229382</v>
-      </c>
-      <c r="M4">
-        <f>Table4[[#This Row],[Total IHCTG]]-Table4[[#This Row],[BAF IHCTG]]</f>
-        <v>-13.765632697416095</v>
-      </c>
-      <c r="N4">
-        <f>Table4[[#This Row],[Total IHCFA]]-Table4[[#This Row],[BAF IHCFA]]</f>
-        <v>2.7671664464462111</v>
-      </c>
-      <c r="O4">
-        <f>Table4[[#This Row],[Total EHCFA]]-Table4[[#This Row],[BAF EHCFA]]</f>
-        <v>5.4833271356896418</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -6146,36 +9874,6 @@
       <c r="F5">
         <v>2</v>
       </c>
-      <c r="G5">
-        <v>225.98393423286237</v>
-      </c>
-      <c r="H5">
-        <v>40.4866324849474</v>
-      </c>
-      <c r="I5">
-        <v>40.600934793142386</v>
-      </c>
-      <c r="J5">
-        <v>307.49942330827292</v>
-      </c>
-      <c r="K5">
-        <v>47.968323654529669</v>
-      </c>
-      <c r="L5">
-        <v>53.385538705604588</v>
-      </c>
-      <c r="M5">
-        <f>Table4[[#This Row],[Total IHCTG]]-Table4[[#This Row],[BAF IHCTG]]</f>
-        <v>-81.515489075410557</v>
-      </c>
-      <c r="N5">
-        <f>Table4[[#This Row],[Total IHCFA]]-Table4[[#This Row],[BAF IHCFA]]</f>
-        <v>-7.4816911695822697</v>
-      </c>
-      <c r="O5">
-        <f>Table4[[#This Row],[Total EHCFA]]-Table4[[#This Row],[BAF EHCFA]]</f>
-        <v>-12.784603912462202</v>
-      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -6196,36 +9894,6 @@
       <c r="F6">
         <v>2</v>
       </c>
-      <c r="G6">
-        <v>895.59278904839846</v>
-      </c>
-      <c r="H6">
-        <v>47.756694083919342</v>
-      </c>
-      <c r="I6">
-        <v>47.76749967535234</v>
-      </c>
-      <c r="J6">
-        <v>899.84664593017567</v>
-      </c>
-      <c r="K6">
-        <v>60.931057688042152</v>
-      </c>
-      <c r="L6">
-        <v>33.443243448031232</v>
-      </c>
-      <c r="M6">
-        <f>Table4[[#This Row],[Total IHCTG]]-Table4[[#This Row],[BAF IHCTG]]</f>
-        <v>-4.2538568817772102</v>
-      </c>
-      <c r="N6">
-        <f>Table4[[#This Row],[Total IHCFA]]-Table4[[#This Row],[BAF IHCFA]]</f>
-        <v>-13.17436360412281</v>
-      </c>
-      <c r="O6">
-        <f>Table4[[#This Row],[Total EHCFA]]-Table4[[#This Row],[BAF EHCFA]]</f>
-        <v>14.324256227321108</v>
-      </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -6246,40 +9914,10 @@
       <c r="F7">
         <v>2</v>
       </c>
-      <c r="G7">
-        <v>1138.8237337716355</v>
-      </c>
-      <c r="H7">
-        <v>50.700576649730742</v>
-      </c>
-      <c r="I7">
-        <v>43.755952867542817</v>
-      </c>
-      <c r="J7">
-        <v>1162.5731676532141</v>
-      </c>
-      <c r="K7">
-        <v>59.639989032318056</v>
-      </c>
-      <c r="L7">
-        <v>36.297255418782434</v>
-      </c>
-      <c r="M7">
-        <f>Table4[[#This Row],[Total IHCTG]]-Table4[[#This Row],[BAF IHCTG]]</f>
-        <v>-23.749433881578625</v>
-      </c>
-      <c r="N7">
-        <f>Table4[[#This Row],[Total IHCFA]]-Table4[[#This Row],[BAF IHCFA]]</f>
-        <v>-8.9394123825873137</v>
-      </c>
-      <c r="O7">
-        <f>Table4[[#This Row],[Total EHCFA]]-Table4[[#This Row],[BAF EHCFA]]</f>
-        <v>7.4586974487603825</v>
-      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -6291,45 +9929,15 @@
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F8">
         <v>2</v>
-      </c>
-      <c r="G8">
-        <v>230.7360642778344</v>
-      </c>
-      <c r="H8">
-        <v>37.151691621013541</v>
-      </c>
-      <c r="I8">
-        <v>41.023799350304927</v>
-      </c>
-      <c r="J8">
-        <v>196.35373588481642</v>
-      </c>
-      <c r="K8">
-        <v>32.03226131897484</v>
-      </c>
-      <c r="L8">
-        <v>34.554238918619035</v>
-      </c>
-      <c r="M8">
-        <f>Table4[[#This Row],[Total IHCTG]]-Table4[[#This Row],[BAF IHCTG]]</f>
-        <v>34.382328393017985</v>
-      </c>
-      <c r="N8">
-        <f>Table4[[#This Row],[Total IHCFA]]-Table4[[#This Row],[BAF IHCFA]]</f>
-        <v>5.1194303020387011</v>
-      </c>
-      <c r="O8">
-        <f>Table4[[#This Row],[Total EHCFA]]-Table4[[#This Row],[BAF EHCFA]]</f>
-        <v>6.4695604316858919</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -6341,45 +9949,15 @@
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F9">
         <v>2</v>
-      </c>
-      <c r="G9">
-        <v>1181.8371630261042</v>
-      </c>
-      <c r="H9">
-        <v>64.230650742943439</v>
-      </c>
-      <c r="I9">
-        <v>39.35471259246966</v>
-      </c>
-      <c r="J9">
-        <v>682.38752975253624</v>
-      </c>
-      <c r="K9">
-        <v>42.217644187698873</v>
-      </c>
-      <c r="L9">
-        <v>32.531823980163296</v>
-      </c>
-      <c r="M9">
-        <f>Table4[[#This Row],[Total IHCTG]]-Table4[[#This Row],[BAF IHCTG]]</f>
-        <v>499.449633273568</v>
-      </c>
-      <c r="N9">
-        <f>Table4[[#This Row],[Total IHCFA]]-Table4[[#This Row],[BAF IHCFA]]</f>
-        <v>22.013006555244566</v>
-      </c>
-      <c r="O9">
-        <f>Table4[[#This Row],[Total EHCFA]]-Table4[[#This Row],[BAF EHCFA]]</f>
-        <v>6.8228886123063646</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -6391,40 +9969,10 @@
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F10">
         <v>2</v>
-      </c>
-      <c r="G10">
-        <v>946.78343543596884</v>
-      </c>
-      <c r="H10">
-        <v>32.613894106217408</v>
-      </c>
-      <c r="I10">
-        <v>26.018873110486282</v>
-      </c>
-      <c r="J10">
-        <v>1120.2796729962067</v>
-      </c>
-      <c r="K10">
-        <v>46.672629509925279</v>
-      </c>
-      <c r="L10">
-        <v>30.911871920818694</v>
-      </c>
-      <c r="M10">
-        <f>Table4[[#This Row],[Total IHCTG]]-Table4[[#This Row],[BAF IHCTG]]</f>
-        <v>-173.49623756023789</v>
-      </c>
-      <c r="N10">
-        <f>Table4[[#This Row],[Total IHCFA]]-Table4[[#This Row],[BAF IHCFA]]</f>
-        <v>-14.058735403707871</v>
-      </c>
-      <c r="O10">
-        <f>Table4[[#This Row],[Total EHCFA]]-Table4[[#This Row],[BAF EHCFA]]</f>
-        <v>-4.8929988103324114</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -6446,36 +9994,6 @@
       <c r="F11">
         <v>2</v>
       </c>
-      <c r="G11">
-        <v>282.19302898854266</v>
-      </c>
-      <c r="H11">
-        <v>36.550681239837601</v>
-      </c>
-      <c r="I11">
-        <v>36.023697802772212</v>
-      </c>
-      <c r="J11">
-        <v>192.28212636543898</v>
-      </c>
-      <c r="K11">
-        <v>33.392664414054792</v>
-      </c>
-      <c r="L11">
-        <v>34.913210026813694</v>
-      </c>
-      <c r="M11">
-        <f>Table4[[#This Row],[Total IHCTG]]-Table4[[#This Row],[BAF IHCTG]]</f>
-        <v>89.910902623103681</v>
-      </c>
-      <c r="N11">
-        <f>Table4[[#This Row],[Total IHCFA]]-Table4[[#This Row],[BAF IHCFA]]</f>
-        <v>3.1580168257828092</v>
-      </c>
-      <c r="O11">
-        <f>Table4[[#This Row],[Total EHCFA]]-Table4[[#This Row],[BAF EHCFA]]</f>
-        <v>1.1104877759585179</v>
-      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -6496,36 +10014,6 @@
       <c r="F12">
         <v>2</v>
       </c>
-      <c r="G12">
-        <v>1021.2887211710265</v>
-      </c>
-      <c r="H12">
-        <v>45.162894376372229</v>
-      </c>
-      <c r="I12">
-        <v>36.167449909173207</v>
-      </c>
-      <c r="J12">
-        <v>1068.6496075423295</v>
-      </c>
-      <c r="K12">
-        <v>59.087473477711526</v>
-      </c>
-      <c r="L12">
-        <v>43.513766587905387</v>
-      </c>
-      <c r="M12">
-        <f>Table4[[#This Row],[Total IHCTG]]-Table4[[#This Row],[BAF IHCTG]]</f>
-        <v>-47.360886371302968</v>
-      </c>
-      <c r="N12">
-        <f>Table4[[#This Row],[Total IHCFA]]-Table4[[#This Row],[BAF IHCFA]]</f>
-        <v>-13.924579101339297</v>
-      </c>
-      <c r="O12">
-        <f>Table4[[#This Row],[Total EHCFA]]-Table4[[#This Row],[BAF EHCFA]]</f>
-        <v>-7.3463166787321796</v>
-      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -6546,40 +10034,10 @@
       <c r="F13">
         <v>2</v>
       </c>
-      <c r="G13">
-        <v>1568.5530817600268</v>
-      </c>
-      <c r="H13">
-        <v>62.585864314755071</v>
-      </c>
-      <c r="I13">
-        <v>53.738104758224004</v>
-      </c>
-      <c r="J13">
-        <v>1398.2958544875862</v>
-      </c>
-      <c r="K13">
-        <v>58.23599423281005</v>
-      </c>
-      <c r="L13">
-        <v>54.649923969427554</v>
-      </c>
-      <c r="M13">
-        <f>Table4[[#This Row],[Total IHCTG]]-Table4[[#This Row],[BAF IHCTG]]</f>
-        <v>170.25722727244056</v>
-      </c>
-      <c r="N13">
-        <f>Table4[[#This Row],[Total IHCFA]]-Table4[[#This Row],[BAF IHCFA]]</f>
-        <v>4.3498700819450207</v>
-      </c>
-      <c r="O13">
-        <f>Table4[[#This Row],[Total EHCFA]]-Table4[[#This Row],[BAF EHCFA]]</f>
-        <v>-0.91181921120355014</v>
-      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -6591,7 +10049,7 @@
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F14">
         <v>2</v>
@@ -6599,7 +10057,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -6611,7 +10069,7 @@
         <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F15">
         <v>2</v>
@@ -6619,7 +10077,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -6631,13 +10089,13 @@
         <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F16">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -6657,7 +10115,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -6677,7 +10135,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -6697,9 +10155,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B20">
         <v>4</v>
@@ -6711,15 +10169,15 @@
         <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F20">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B21">
         <v>4</v>
@@ -6731,15 +10189,15 @@
         <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F21">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B22">
         <v>4</v>
@@ -6751,13 +10209,13 @@
         <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F22">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -6777,7 +10235,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -6797,7 +10255,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -6817,9 +10275,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B26">
         <v>5</v>
@@ -6831,45 +10289,15 @@
         <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F26">
         <v>2</v>
       </c>
-      <c r="G26">
-        <v>152.63824777503584</v>
-      </c>
-      <c r="H26">
-        <v>24.751382233962783</v>
-      </c>
-      <c r="I26">
-        <v>11.018249802700005</v>
-      </c>
-      <c r="J26">
-        <v>117.06187941317323</v>
-      </c>
-      <c r="K26">
-        <v>28.492913529219052</v>
-      </c>
-      <c r="L26">
-        <v>36.849657513881439</v>
-      </c>
-      <c r="M26">
-        <f>Table4[[#This Row],[Total IHCTG]]-Table4[[#This Row],[BAF IHCTG]]</f>
-        <v>35.576368361862606</v>
-      </c>
-      <c r="N26">
-        <f>Table4[[#This Row],[Total IHCFA]]-Table4[[#This Row],[BAF IHCFA]]</f>
-        <v>-3.7415312952562694</v>
-      </c>
-      <c r="O26">
-        <f>Table4[[#This Row],[Total EHCFA]]-Table4[[#This Row],[BAF EHCFA]]</f>
-        <v>-25.831407711181434</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B27">
         <v>5</v>
@@ -6881,45 +10309,15 @@
         <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F27">
         <v>2</v>
       </c>
-      <c r="G27">
-        <v>821.11415544916179</v>
-      </c>
-      <c r="H27">
-        <v>33.260767381892897</v>
-      </c>
-      <c r="I27">
-        <v>33.597232884235858</v>
-      </c>
-      <c r="J27">
-        <v>765.38914185226429</v>
-      </c>
-      <c r="K27">
-        <v>32.35970508026648</v>
-      </c>
-      <c r="L27">
-        <v>50.005902091176502</v>
-      </c>
-      <c r="M27">
-        <f>Table4[[#This Row],[Total IHCTG]]-Table4[[#This Row],[BAF IHCTG]]</f>
-        <v>55.725013596897497</v>
-      </c>
-      <c r="N27">
-        <f>Table4[[#This Row],[Total IHCFA]]-Table4[[#This Row],[BAF IHCFA]]</f>
-        <v>0.90106230162641765</v>
-      </c>
-      <c r="O27">
-        <f>Table4[[#This Row],[Total EHCFA]]-Table4[[#This Row],[BAF EHCFA]]</f>
-        <v>-16.408669206940644</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B28">
         <v>5</v>
@@ -6931,43 +10329,13 @@
         <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F28">
         <v>2</v>
       </c>
-      <c r="G28">
-        <v>1327.6409253857712</v>
-      </c>
-      <c r="H28">
-        <v>57.929037128566513</v>
-      </c>
-      <c r="I28">
-        <v>56.956218360524133</v>
-      </c>
-      <c r="J28">
-        <v>1119.3377861226545</v>
-      </c>
-      <c r="K28">
-        <v>54.754089628592283</v>
-      </c>
-      <c r="L28">
-        <v>57.170491795279062</v>
-      </c>
-      <c r="M28">
-        <f>Table4[[#This Row],[Total IHCTG]]-Table4[[#This Row],[BAF IHCTG]]</f>
-        <v>208.30313926311669</v>
-      </c>
-      <c r="N28">
-        <f>Table4[[#This Row],[Total IHCFA]]-Table4[[#This Row],[BAF IHCFA]]</f>
-        <v>3.1749474999742304</v>
-      </c>
-      <c r="O28">
-        <f>Table4[[#This Row],[Total EHCFA]]-Table4[[#This Row],[BAF EHCFA]]</f>
-        <v>-0.21427343475492933</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -6986,38 +10354,8 @@
       <c r="F29">
         <v>2</v>
       </c>
-      <c r="G29">
-        <v>186.30749906127105</v>
-      </c>
-      <c r="H29">
-        <v>26.342234982356572</v>
-      </c>
-      <c r="I29">
-        <v>47.836271708377311</v>
-      </c>
-      <c r="J29">
-        <v>142.2515824089829</v>
-      </c>
-      <c r="K29">
-        <v>18.642947253741404</v>
-      </c>
-      <c r="L29">
-        <v>50.85477636867634</v>
-      </c>
-      <c r="M29">
-        <f>Table4[[#This Row],[Total IHCTG]]-Table4[[#This Row],[BAF IHCTG]]</f>
-        <v>44.055916652288147</v>
-      </c>
-      <c r="N29">
-        <f>Table4[[#This Row],[Total IHCFA]]-Table4[[#This Row],[BAF IHCFA]]</f>
-        <v>7.6992877286151682</v>
-      </c>
-      <c r="O29">
-        <f>Table4[[#This Row],[Total EHCFA]]-Table4[[#This Row],[BAF EHCFA]]</f>
-        <v>-3.0185046602990298</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -7036,38 +10374,8 @@
       <c r="F30">
         <v>2</v>
       </c>
-      <c r="G30">
-        <v>762.42699470500224</v>
-      </c>
-      <c r="H30">
-        <v>44.139647027541109</v>
-      </c>
-      <c r="I30">
-        <v>38.597910517659784</v>
-      </c>
-      <c r="J30">
-        <v>351.03114125988481</v>
-      </c>
-      <c r="K30">
-        <v>14.528984006011601</v>
-      </c>
-      <c r="L30">
-        <v>31.748811494538529</v>
-      </c>
-      <c r="M30">
-        <f>Table4[[#This Row],[Total IHCTG]]-Table4[[#This Row],[BAF IHCTG]]</f>
-        <v>411.39585344511744</v>
-      </c>
-      <c r="N30">
-        <f>Table4[[#This Row],[Total IHCFA]]-Table4[[#This Row],[BAF IHCFA]]</f>
-        <v>29.610663021529508</v>
-      </c>
-      <c r="O30">
-        <f>Table4[[#This Row],[Total EHCFA]]-Table4[[#This Row],[BAF EHCFA]]</f>
-        <v>6.849099023121255</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -7086,40 +10394,10 @@
       <c r="F31">
         <v>2</v>
       </c>
-      <c r="G31">
-        <v>1420.3935713429312</v>
-      </c>
-      <c r="H31">
-        <v>62.773387729486053</v>
-      </c>
-      <c r="I31">
-        <v>69.527696212852916</v>
-      </c>
-      <c r="J31">
-        <v>430.01018849966835</v>
-      </c>
-      <c r="K31">
-        <v>11.570506863891596</v>
-      </c>
-      <c r="L31">
-        <v>21.997037592668359</v>
-      </c>
-      <c r="M31">
-        <f>Table4[[#This Row],[Total IHCTG]]-Table4[[#This Row],[BAF IHCTG]]</f>
-        <v>990.38338284326278</v>
-      </c>
-      <c r="N31">
-        <f>Table4[[#This Row],[Total IHCFA]]-Table4[[#This Row],[BAF IHCFA]]</f>
-        <v>51.202880865594459</v>
-      </c>
-      <c r="O31">
-        <f>Table4[[#This Row],[Total EHCFA]]-Table4[[#This Row],[BAF EHCFA]]</f>
-        <v>47.530658620184553</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B32">
         <v>6</v>
@@ -7131,7 +10409,7 @@
         <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F32">
         <v>6</v>
@@ -7139,7 +10417,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B33">
         <v>6</v>
@@ -7151,7 +10429,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F33">
         <v>6</v>
@@ -7159,7 +10437,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B34">
         <v>6</v>
@@ -7171,7 +10449,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F34">
         <v>6</v>

--- a/TRL all data.xlsx
+++ b/TRL all data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioxfordnexus-my.sharepoint.com/personal/spet4768_ox_ac_uk/Documents/Desktop/Results/TRL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="776" documentId="11_F25DC773A252ABDACC1048A9519B73345BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64D46A30-F702-4417-80A0-CDDA89CDB7CA}"/>
+  <xr:revisionPtr revIDLastSave="830" documentId="11_F25DC773A252ABDACC1048A9519B73345BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34D65AF7-C15C-42A8-B6CB-B02041483A94}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Unlabelled total TG data" sheetId="6" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1434" uniqueCount="141">
   <si>
     <t>SAMPLE_ID</t>
   </si>
@@ -405,9 +405,6 @@
     <t>IHCTG conc</t>
   </si>
   <si>
-    <t>TRL TG conc</t>
-  </si>
-  <si>
     <t>TRL disappearance</t>
   </si>
   <si>
@@ -463,6 +460,9 @@
   </si>
   <si>
     <t>Lipophagy IHCTG</t>
+  </si>
+  <si>
+    <t>Time</t>
   </si>
 </sst>
 </file>
@@ -535,6 +535,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{4002D26E-1176-43EC-89C9-92EF14210DB0}" name="Table37" displayName="Table37" ref="A1:M97" totalsRowShown="0">
   <autoFilter ref="A1:M97" xr:uid="{E13CE539-CF60-4095-9985-D1D8280AE130}"/>
@@ -561,12 +565,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{718F37F4-C747-480B-BC7C-1B032847E400}" name="Table1" displayName="Table1" ref="A1:O49" totalsRowShown="0">
-  <autoFilter ref="A1:O49" xr:uid="{718F37F4-C747-480B-BC7C-1B032847E400}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O49">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{718F37F4-C747-480B-BC7C-1B032847E400}" name="Table1" displayName="Table1" ref="A1:N49" totalsRowShown="0">
+  <autoFilter ref="A1:N49" xr:uid="{718F37F4-C747-480B-BC7C-1B032847E400}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N49">
     <sortCondition ref="A1:A49"/>
   </sortState>
-  <tableColumns count="15">
+  <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{6A4A04E1-8CA1-41B6-BD4E-5B0A03A30272}" name="SAMPLE_ID"/>
     <tableColumn id="2" xr3:uid="{23F7E3F4-97E1-4FEA-B6B2-0A72EDD3F076}" name="Round"/>
     <tableColumn id="3" xr3:uid="{507B92CC-C6FB-4C67-BC29-EBB21B46B55D}" name="Sample Type"/>
@@ -574,9 +578,8 @@
     <tableColumn id="4" xr3:uid="{9FD7F1F8-BC96-4CA7-900F-E173BBF872F8}" name="Media"/>
     <tableColumn id="5" xr3:uid="{72B9D063-B9B8-4358-AE32-A65E153DE44E}" name="BAF"/>
     <tableColumn id="6" xr3:uid="{E082558D-4E1D-4EC5-ABE4-D931A107A236}" name="TRL"/>
-    <tableColumn id="7" xr3:uid="{D7F8CF2F-1715-4113-B290-5168773743A1}" name="Time (hours)"/>
+    <tableColumn id="7" xr3:uid="{D7F8CF2F-1715-4113-B290-5168773743A1}" name="Time"/>
     <tableColumn id="12" xr3:uid="{4A23AAF6-E3C1-4E6C-BE42-17295CF8EFA9}" name="IHCTG conc"/>
-    <tableColumn id="9" xr3:uid="{D24E86D7-FCC8-422E-952B-B942B7B1704E}" name="TRL TG conc"/>
     <tableColumn id="14" xr3:uid="{2DB8F7F4-62BD-4DBE-8222-7718040A04F7}" name="TRL disappearance"/>
     <tableColumn id="17" xr3:uid="{7A425B34-C484-4716-BA6A-8D3D71DD8B36}" name="EHCFA conc"/>
     <tableColumn id="20" xr3:uid="{8C02710B-744A-4ECA-B29B-494D02228A31}" name="IHCFA conc"/>
@@ -3991,10 +3994,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O49"/>
+  <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="N33" sqref="N33"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4003,14 +4006,13 @@
     <col min="3" max="4" width="14.42578125" customWidth="1"/>
     <col min="8" max="8" width="14.42578125" customWidth="1"/>
     <col min="9" max="9" width="26.5703125" customWidth="1"/>
-    <col min="10" max="10" width="43.85546875" customWidth="1"/>
-    <col min="11" max="11" width="20.42578125" customWidth="1"/>
-    <col min="12" max="12" width="30.42578125" customWidth="1"/>
-    <col min="13" max="13" width="33.140625" customWidth="1"/>
-    <col min="14" max="14" width="27.7109375" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" customWidth="1"/>
+    <col min="11" max="11" width="30.42578125" customWidth="1"/>
+    <col min="12" max="12" width="33.140625" customWidth="1"/>
+    <col min="13" max="13" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4033,7 +4035,7 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>140</v>
       </c>
       <c r="I1" t="s">
         <v>120</v>
@@ -4053,11 +4055,8 @@
       <c r="N1" t="s">
         <v>125</v>
       </c>
-      <c r="O1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -4065,7 +4064,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
@@ -4074,7 +4073,7 @@
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G2" t="s">
         <v>25</v>
@@ -4086,26 +4085,23 @@
         <v>95.90997853827183</v>
       </c>
       <c r="J2">
-        <v>1215.7687248409973</v>
+        <v>19.72566923028446</v>
       </c>
       <c r="K2">
-        <v>19.735313268433593</v>
+        <v>92.961666437367455</v>
       </c>
       <c r="L2">
-        <v>93.416246733081522</v>
+        <v>13.311204919543773</v>
       </c>
       <c r="M2">
-        <v>13.311204919543773</v>
+        <v>240.29250113263026</v>
       </c>
       <c r="N2">
-        <v>239.93576646701123</v>
-      </c>
-      <c r="O2">
         <f>((Table1[[#This Row],[IHCTG conc]]*3+Table1[[#This Row],[EHCFA conc]]+Table1[[#This Row],[IHCFA conc]])/(Table1[[#This Row],[TRL disappearance conc]]*3))*100</f>
-        <v>54.800414999358416</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <v>54.655999821686137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -4113,7 +4109,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D3" t="s">
         <v>19</v>
@@ -4122,7 +4118,7 @@
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G3" t="s">
         <v>25</v>
@@ -4134,26 +4130,23 @@
         <v>67.157790306243214</v>
       </c>
       <c r="J3">
-        <v>1354.161686317223</v>
+        <v>26.752860040140046</v>
       </c>
       <c r="K3">
-        <v>26.76125589698421</v>
+        <v>65.79665742072406</v>
       </c>
       <c r="L3">
-        <v>66.30298334212101</v>
+        <v>5.3968581122769166</v>
       </c>
       <c r="M3">
-        <v>5.3968581122769166</v>
+        <v>362.9929947734002</v>
       </c>
       <c r="N3">
-        <v>362.39067413426864</v>
-      </c>
-      <c r="O3">
         <f>((Table1[[#This Row],[IHCTG conc]]*3+Table1[[#This Row],[EHCFA conc]]+Table1[[#This Row],[IHCFA conc]])/(Table1[[#This Row],[TRL disappearance conc]]*3))*100</f>
-        <v>25.12695385311477</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>25.038764785891981</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -4161,7 +4154,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -4170,7 +4163,7 @@
         <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G4" t="s">
         <v>25</v>
@@ -4182,26 +4175,23 @@
         <v>57.525998339080779</v>
       </c>
       <c r="J4">
-        <v>1182.6337091899436</v>
+        <v>21.322764073178519</v>
       </c>
       <c r="K4">
-        <v>21.330449970036856</v>
+        <v>40.916133207806439</v>
       </c>
       <c r="L4">
-        <v>41.358324202080681</v>
+        <v>4.9588827001107951</v>
       </c>
       <c r="M4">
-        <v>4.9588827001107951</v>
+        <v>252.66859172011141</v>
       </c>
       <c r="N4">
-        <v>252.26109166755208</v>
-      </c>
-      <c r="O4">
         <f>((Table1[[#This Row],[IHCTG conc]]*3+Table1[[#This Row],[EHCFA conc]]+Table1[[#This Row],[IHCFA conc]])/(Table1[[#This Row],[TRL disappearance conc]]*3))*100</f>
-        <v>28.924423827768329</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>28.819438859677838</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -4209,7 +4199,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -4230,26 +4220,23 @@
         <v>85.782854352920424</v>
       </c>
       <c r="J5">
-        <v>1683.6147919496948</v>
+        <v>31.158323780288981</v>
       </c>
       <c r="K5">
-        <v>31.163435254429057</v>
+        <v>52.605600291647214</v>
       </c>
       <c r="L5">
-        <v>53.522299198183525</v>
+        <v>9.1550770296190898</v>
       </c>
       <c r="M5">
-        <v>9.1550770296190898</v>
+        <v>525.63024020767739</v>
       </c>
       <c r="N5">
-        <v>524.67220562323359</v>
-      </c>
-      <c r="O5">
         <f>((Table1[[#This Row],[IHCTG conc]]*3+Table1[[#This Row],[EHCFA conc]]+Table1[[#This Row],[IHCFA conc]])/(Table1[[#This Row],[TRL disappearance conc]]*3))*100</f>
-        <v>20.331801828306624</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>20.236610958934868</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -4257,7 +4244,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D6" t="s">
         <v>19</v>
@@ -4278,26 +4265,23 @@
         <v>44.00964153451006</v>
       </c>
       <c r="J6">
-        <v>1240.8171045205268</v>
+        <v>31.673856469715396</v>
       </c>
       <c r="K6">
-        <v>31.676125339221272</v>
+        <v>27.324023891844909</v>
       </c>
       <c r="L6">
-        <v>27.999627176137924</v>
+        <v>4.4450496556092585</v>
       </c>
       <c r="M6">
-        <v>4.4450496556092585</v>
+        <v>393.79685197781453</v>
       </c>
       <c r="N6">
-        <v>393.0427812584183</v>
-      </c>
-      <c r="O6">
         <f>((Table1[[#This Row],[IHCTG conc]]*3+Table1[[#This Row],[EHCFA conc]]+Table1[[#This Row],[IHCFA conc]])/(Table1[[#This Row],[TRL disappearance conc]]*3))*100</f>
-        <v>13.948744621698831</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>13.864847431556102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -4305,7 +4289,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
@@ -4326,26 +4310,23 @@
         <v>34.975530149395901</v>
       </c>
       <c r="J7">
-        <v>1142.8576595574805</v>
+        <v>33.781718305025876</v>
       </c>
       <c r="K7">
-        <v>33.781924529243859</v>
+        <v>35.832511152084557</v>
       </c>
       <c r="L7">
-        <v>36.454777226160658</v>
+        <v>3.062997095945275</v>
       </c>
       <c r="M7">
-        <v>3.062997095945275</v>
+        <v>386.84537025785903</v>
       </c>
       <c r="N7">
-        <v>386.07931202839069</v>
-      </c>
-      <c r="O7">
         <f>((Table1[[#This Row],[IHCTG conc]]*3+Table1[[#This Row],[EHCFA conc]]+Table1[[#This Row],[IHCFA conc]])/(Table1[[#This Row],[TRL disappearance conc]]*3))*100</f>
-        <v>12.471044184454323</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>12.392729305109706</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -4353,7 +4334,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
@@ -4362,7 +4343,7 @@
         <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G8" t="s">
         <v>25</v>
@@ -4374,26 +4355,23 @@
         <v>56.268837018958486</v>
       </c>
       <c r="J8">
-        <v>1509.1039477348102</v>
+        <v>17.972568330595017</v>
       </c>
       <c r="K8">
-        <v>17.97009461889381</v>
+        <v>60.972908725386354</v>
       </c>
       <c r="L8">
-        <v>61.537168115192785</v>
+        <v>9.1244583295087782</v>
       </c>
       <c r="M8">
-        <v>9.1244583295087782</v>
+        <v>271.76079416409613</v>
       </c>
       <c r="N8">
-        <v>271.18740730540713</v>
-      </c>
-      <c r="O8">
         <f>((Table1[[#This Row],[IHCTG conc]]*3+Table1[[#This Row],[EHCFA conc]]+Table1[[#This Row],[IHCFA conc]])/(Table1[[#This Row],[TRL disappearance conc]]*3))*100</f>
-        <v>29.434520317025832</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>29.303206256150187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -4401,7 +4379,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D9" t="s">
         <v>19</v>
@@ -4410,7 +4388,7 @@
         <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G9" t="s">
         <v>25</v>
@@ -4422,26 +4400,23 @@
         <v>59.235924405298945</v>
       </c>
       <c r="J9">
-        <v>1262.8216604376385</v>
+        <v>14.495758807314424</v>
       </c>
       <c r="K9">
-        <v>14.497710323274315</v>
+        <v>53.584458492155157</v>
       </c>
       <c r="L9">
-        <v>54.056632049597937</v>
+        <v>5.8260864942035058</v>
       </c>
       <c r="M9">
-        <v>5.8260864942035058</v>
+        <v>183.41737811388637</v>
       </c>
       <c r="N9">
-        <v>183.08022622981161</v>
-      </c>
-      <c r="O9">
         <f>((Table1[[#This Row],[IHCTG conc]]*3+Table1[[#This Row],[EHCFA conc]]+Table1[[#This Row],[IHCFA conc]])/(Table1[[#This Row],[TRL disappearance conc]]*3))*100</f>
-        <v>43.257992530091265</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>43.0926666892355</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -4449,7 +4424,7 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -4458,7 +4433,7 @@
         <v>23</v>
       </c>
       <c r="F10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G10" t="s">
         <v>25</v>
@@ -4470,26 +4445,23 @@
         <v>47.693895613067475</v>
       </c>
       <c r="J10">
-        <v>1581.0852764854822</v>
+        <v>12.751724894543665</v>
       </c>
       <c r="K10">
-        <v>12.756643246756108</v>
+        <v>114.30956666904754</v>
       </c>
       <c r="L10">
-        <v>114.90074013637613</v>
+        <v>6.4974221857152834</v>
       </c>
       <c r="M10">
-        <v>6.4974221857152834</v>
+        <v>202.01412347063223</v>
       </c>
       <c r="N10">
-        <v>201.69340814824042</v>
-      </c>
-      <c r="O10">
         <f>((Table1[[#This Row],[IHCTG conc]]*3+Table1[[#This Row],[EHCFA conc]]+Table1[[#This Row],[IHCFA conc]])/(Table1[[#This Row],[TRL disappearance conc]]*3))*100</f>
-        <v>43.709881512654874</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+        <v>43.542941645253833</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -4497,7 +4469,7 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
@@ -4518,26 +4490,23 @@
         <v>36.912082984033965</v>
       </c>
       <c r="J11">
-        <v>1217.683361347647</v>
+        <v>10.155176258128879</v>
       </c>
       <c r="K11">
-        <v>10.158419146496895</v>
+        <v>36.840290169620879</v>
       </c>
       <c r="L11">
-        <v>37.503297534008659</v>
+        <v>4.7937276478442055</v>
       </c>
       <c r="M11">
-        <v>4.7937276478442055</v>
+        <v>123.90400987097962</v>
       </c>
       <c r="N11">
-        <v>123.69737972284631</v>
-      </c>
-      <c r="O11">
         <f>((Table1[[#This Row],[IHCTG conc]]*3+Table1[[#This Row],[EHCFA conc]]+Table1[[#This Row],[IHCFA conc]])/(Table1[[#This Row],[TRL disappearance conc]]*3))*100</f>
-        <v>41.2386191949088</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <v>40.991481208781188</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -4545,7 +4514,7 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D12" t="s">
         <v>19</v>
@@ -4566,26 +4535,23 @@
         <v>36.982182614390908</v>
       </c>
       <c r="J12">
-        <v>1445.4739008038771</v>
+        <v>11.430625078526706</v>
       </c>
       <c r="K12">
-        <v>11.430520216344355</v>
+        <v>45.710075409627244</v>
       </c>
       <c r="L12">
-        <v>46.497110752052109</v>
+        <v>2.8262028286689529</v>
       </c>
       <c r="M12">
-        <v>2.8262028286689529</v>
+        <v>165.55555553118126</v>
       </c>
       <c r="N12">
-        <v>165.22518645336851</v>
-      </c>
-      <c r="O12">
         <f>((Table1[[#This Row],[IHCTG conc]]*3+Table1[[#This Row],[EHCFA conc]]+Table1[[#This Row],[IHCFA conc]])/(Table1[[#This Row],[TRL disappearance conc]]*3))*100</f>
-        <v>32.333621942303317</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+        <v>32.110636128513249</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -4593,7 +4559,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D13" t="s">
         <v>22</v>
@@ -4614,26 +4580,23 @@
         <v>34.866552803790746</v>
       </c>
       <c r="J13">
-        <v>1445.4739008038771</v>
+        <v>6.4376271147325665</v>
       </c>
       <c r="K13">
-        <v>6.4400337768461924</v>
+        <v>36.861118423360992</v>
       </c>
       <c r="L13">
-        <v>37.64815376578585</v>
+        <v>2.4478089402161163</v>
       </c>
       <c r="M13">
-        <v>2.4478089402161163</v>
+        <v>93.239427061981345</v>
       </c>
       <c r="N13">
-        <v>93.089007447265914</v>
-      </c>
-      <c r="O13">
         <f>((Table1[[#This Row],[IHCTG conc]]*3+Table1[[#This Row],[EHCFA conc]]+Table1[[#This Row],[IHCFA conc]])/(Table1[[#This Row],[TRL disappearance conc]]*3))*100</f>
-        <v>51.812641501322609</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+        <v>51.447686995933395</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -4641,7 +4604,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D14" t="s">
         <v>14</v>
@@ -4650,7 +4613,7 @@
         <v>15</v>
       </c>
       <c r="F14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G14" t="s">
         <v>25</v>
@@ -4662,26 +4625,23 @@
         <v>35.033422233192709</v>
       </c>
       <c r="J14">
-        <v>564.68876029733246</v>
+        <v>38.856812156356028</v>
       </c>
       <c r="K14">
-        <v>38.849277126371447</v>
+        <v>40.118834417281633</v>
       </c>
       <c r="L14">
-        <v>41.266316586180608</v>
+        <v>8.7801081538046688</v>
       </c>
       <c r="M14">
-        <v>8.7801081538046688</v>
+        <v>229.32845606703373</v>
       </c>
       <c r="N14">
-        <v>228.84781037140885</v>
-      </c>
-      <c r="O14">
         <f>((Table1[[#This Row],[IHCTG conc]]*3+Table1[[#This Row],[EHCFA conc]]+Table1[[#This Row],[IHCFA conc]])/(Table1[[#This Row],[TRL disappearance conc]]*3))*100</f>
-        <v>22.598234053127253</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+        <v>22.384082044263732</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>51</v>
       </c>
@@ -4689,7 +4649,7 @@
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D15" t="s">
         <v>19</v>
@@ -4698,7 +4658,7 @@
         <v>20</v>
       </c>
       <c r="F15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G15" t="s">
         <v>25</v>
@@ -4710,26 +4670,23 @@
         <v>33.004383150810916</v>
       </c>
       <c r="J15">
-        <v>493.2979276758972</v>
+        <v>9.7916483435537813</v>
       </c>
       <c r="K15">
-        <v>9.805517439656688</v>
+        <v>68.447929627222678</v>
       </c>
       <c r="L15">
-        <v>69.450341248918235</v>
+        <v>6.2432436068605091</v>
       </c>
       <c r="M15">
-        <v>6.2432436068605091</v>
+        <v>50.48318358568082</v>
       </c>
       <c r="N15">
-        <v>50.458517102034435</v>
-      </c>
-      <c r="O15">
         <f>((Table1[[#This Row],[IHCTG conc]]*3+Table1[[#This Row],[EHCFA conc]]+Table1[[#This Row],[IHCFA conc]])/(Table1[[#This Row],[TRL disappearance conc]]*3))*100</f>
-        <v>115.41278152304075</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+        <v>114.69451168275494</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -4737,7 +4694,7 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -4746,7 +4703,7 @@
         <v>23</v>
       </c>
       <c r="F16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G16" t="s">
         <v>25</v>
@@ -4758,26 +4715,23 @@
         <v>30.964453018052531</v>
       </c>
       <c r="J16">
-        <v>499.351222725036</v>
+        <v>3.9928317996983651</v>
       </c>
       <c r="K16">
-        <v>4.0008365549068872</v>
+        <v>95.078308495078488</v>
       </c>
       <c r="L16">
-        <v>96.093020783301071</v>
+        <v>6.4314935169092733</v>
       </c>
       <c r="M16">
-        <v>6.4314935169092733</v>
+        <v>20.8386110721632</v>
       </c>
       <c r="N16">
-        <v>20.840666453353883</v>
-      </c>
-      <c r="O16">
         <f>((Table1[[#This Row],[IHCTG conc]]*3+Table1[[#This Row],[EHCFA conc]]+Table1[[#This Row],[IHCFA conc]])/(Table1[[#This Row],[TRL disappearance conc]]*3))*100</f>
-        <v>312.55857994713892</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+        <v>310.96628016287605</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>56</v>
       </c>
@@ -4785,7 +4739,7 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D17" t="s">
         <v>14</v>
@@ -4805,17 +4759,17 @@
       <c r="I17">
         <v>27.387341341800873</v>
       </c>
-      <c r="K17">
-        <v>93.15595306578264</v>
+      <c r="J17">
+        <v>93.154572800373074</v>
+      </c>
+      <c r="L17">
+        <v>6.607249678307987</v>
       </c>
       <c r="M17">
-        <v>6.607249678307987</v>
-      </c>
-      <c r="N17">
-        <v>370.13001376162242</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+        <v>370.83159483912902</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>57</v>
       </c>
@@ -4823,7 +4777,7 @@
         <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D18" t="s">
         <v>19</v>
@@ -4843,17 +4797,17 @@
       <c r="I18">
         <v>29.853227109865959</v>
       </c>
-      <c r="K18">
-        <v>93.544101667518802</v>
+      <c r="J18">
+        <v>93.543500437482749</v>
+      </c>
+      <c r="L18">
+        <v>7.9839603388736498</v>
       </c>
       <c r="M18">
-        <v>7.9839603388736498</v>
-      </c>
-      <c r="N18">
-        <v>447.58507500283525</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+        <v>448.43723425266774</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>58</v>
       </c>
@@ -4861,7 +4815,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -4881,17 +4835,17 @@
       <c r="I19">
         <v>30.858892751569922</v>
       </c>
-      <c r="K19">
-        <v>90.947785987016019</v>
+      <c r="J19">
+        <v>90.947984908695361</v>
+      </c>
+      <c r="L19">
+        <v>6.0194672812208756</v>
       </c>
       <c r="M19">
-        <v>6.0194672812208756</v>
-      </c>
-      <c r="N19">
-        <v>430.59086836805386</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+        <v>431.41438865779793</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>62</v>
       </c>
@@ -4899,7 +4853,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D20" t="s">
         <v>14</v>
@@ -4908,7 +4862,7 @@
         <v>15</v>
       </c>
       <c r="F20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G20" t="s">
         <v>25</v>
@@ -4920,26 +4874,23 @@
         <v>30.779556335424541</v>
       </c>
       <c r="J20">
-        <v>653.43018781515616</v>
+        <v>6.6657253709568733</v>
       </c>
       <c r="K20">
-        <v>6.6693154076272414</v>
+        <v>32.817566720239014</v>
       </c>
       <c r="L20">
-        <v>34.145376908533535</v>
+        <v>8.5227901963181427</v>
       </c>
       <c r="M20">
-        <v>8.5227901963181427</v>
+        <v>45.522724576492827</v>
       </c>
       <c r="N20">
-        <v>45.460596190216926</v>
-      </c>
-      <c r="O20">
         <f>((Table1[[#This Row],[IHCTG conc]]*3+Table1[[#This Row],[EHCFA conc]]+Table1[[#This Row],[IHCFA conc]])/(Table1[[#This Row],[TRL disappearance conc]]*3))*100</f>
-        <v>98.99183573266221</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+        <v>97.884464785792133</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>63</v>
       </c>
@@ -4947,7 +4898,7 @@
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D21" t="s">
         <v>19</v>
@@ -4956,7 +4907,7 @@
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G21" t="s">
         <v>25</v>
@@ -4968,26 +4919,23 @@
         <v>38.323705670892302</v>
       </c>
       <c r="J21">
-        <v>677.86931500265689</v>
+        <v>8.3443794550455639</v>
       </c>
       <c r="K21">
-        <v>8.3342152887628593</v>
+        <v>25.677185243320693</v>
       </c>
       <c r="L21">
-        <v>27.05465723585645</v>
+        <v>2.6848583646838917</v>
       </c>
       <c r="M21">
-        <v>2.6848583646838917</v>
+        <v>59.118261766429548</v>
       </c>
       <c r="N21">
-        <v>58.933924964849282</v>
-      </c>
-      <c r="O21">
         <f>((Table1[[#This Row],[IHCTG conc]]*3+Table1[[#This Row],[EHCFA conc]]+Table1[[#This Row],[IHCFA conc]])/(Table1[[#This Row],[TRL disappearance conc]]*3))*100</f>
-        <v>81.849083641569123</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+        <v>80.817193840473365</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>64</v>
       </c>
@@ -4995,7 +4943,7 @@
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
@@ -5004,7 +4952,7 @@
         <v>23</v>
       </c>
       <c r="F22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G22" t="s">
         <v>25</v>
@@ -5016,26 +4964,23 @@
         <v>39.828999420118734</v>
       </c>
       <c r="J22">
-        <v>668.03481249078618</v>
+        <v>4.965133665463493</v>
       </c>
       <c r="K22">
-        <v>4.9764849819863333</v>
+        <v>53.171174474758843</v>
       </c>
       <c r="L22">
-        <v>54.528662155465149</v>
+        <v>2.0710553886575425</v>
       </c>
       <c r="M22">
-        <v>2.0710553886575425</v>
+        <v>34.666633997672648</v>
       </c>
       <c r="N22">
-        <v>34.679790751513856</v>
-      </c>
-      <c r="O22">
         <f>((Table1[[#This Row],[IHCTG conc]]*3+Table1[[#This Row],[EHCFA conc]]+Table1[[#This Row],[IHCFA conc]])/(Table1[[#This Row],[TRL disappearance conc]]*3))*100</f>
-        <v>169.25007522504757</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+        <v>168.00903152341729</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>68</v>
       </c>
@@ -5043,7 +4988,7 @@
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D23" t="s">
         <v>14</v>
@@ -5064,26 +5009,23 @@
         <v>29.334925473087186</v>
       </c>
       <c r="J23">
-        <v>762.46356438955661</v>
+        <v>19.610280216482469</v>
       </c>
       <c r="K23">
-        <v>19.611984433612783</v>
+        <v>29.496160902564554</v>
       </c>
       <c r="L23">
-        <v>30.566660738270336</v>
+        <v>4.2500907770668688</v>
       </c>
       <c r="M23">
-        <v>4.2500907770668688</v>
+        <v>153.92261355670644</v>
       </c>
       <c r="N23">
-        <v>153.64248009329452</v>
-      </c>
-      <c r="O23">
         <f>((Table1[[#This Row],[IHCTG conc]]*3+Table1[[#This Row],[EHCFA conc]]+Table1[[#This Row],[IHCFA conc]])/(Table1[[#This Row],[TRL disappearance conc]]*3))*100</f>
-        <v>26.646607947667274</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+        <v>26.366285690707137</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>69</v>
       </c>
@@ -5091,7 +5033,7 @@
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D24" t="s">
         <v>19</v>
@@ -5112,26 +5054,23 @@
         <v>23.143852962565123</v>
       </c>
       <c r="J24">
-        <v>714.04361647796622</v>
+        <v>20.816380057379057</v>
       </c>
       <c r="K24">
-        <v>20.814381203928757</v>
+        <v>25.334312157372299</v>
       </c>
       <c r="L24">
-        <v>26.336830323257914</v>
+        <v>2.216041630414554</v>
       </c>
       <c r="M24">
-        <v>2.216041630414554</v>
+        <v>153.01340650357881</v>
       </c>
       <c r="N24">
-        <v>152.70699079145291</v>
-      </c>
-      <c r="O24">
         <f>((Table1[[#This Row],[IHCTG conc]]*3+Table1[[#This Row],[EHCFA conc]]+Table1[[#This Row],[IHCFA conc]])/(Table1[[#This Row],[TRL disappearance conc]]*3))*100</f>
-        <v>21.388331194167367</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+        <v>21.127105764032933</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>70</v>
       </c>
@@ -5139,7 +5078,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D25" t="s">
         <v>22</v>
@@ -5160,26 +5099,23 @@
         <v>25.739602218010496</v>
       </c>
       <c r="J25">
-        <v>734.90304537459019</v>
+        <v>16.307352067223285</v>
       </c>
       <c r="K25">
-        <v>16.308614690492668</v>
+        <v>27.159582880301052</v>
       </c>
       <c r="L25">
-        <v>28.191387711477525</v>
+        <v>1.7102045001631829</v>
       </c>
       <c r="M25">
-        <v>1.7102045001631829</v>
+        <v>123.37098410146176</v>
       </c>
       <c r="N25">
-        <v>123.14528643667082</v>
-      </c>
-      <c r="O25">
         <f>((Table1[[#This Row],[IHCTG conc]]*3+Table1[[#This Row],[EHCFA conc]]+Table1[[#This Row],[IHCFA conc]])/(Table1[[#This Row],[TRL disappearance conc]]*3))*100</f>
-        <v>28.995668981819655</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+        <v>28.663842584802929</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>74</v>
       </c>
@@ -5187,7 +5123,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D26" t="s">
         <v>14</v>
@@ -5196,7 +5132,7 @@
         <v>15</v>
       </c>
       <c r="F26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G26" t="s">
         <v>25</v>
@@ -5208,26 +5144,23 @@
         <v>81.740297696131194</v>
       </c>
       <c r="J26">
-        <v>1293.5828473371007</v>
+        <v>36.816161239193306</v>
       </c>
       <c r="K26">
-        <v>36.816502137020485</v>
+        <v>115.23683205416017</v>
       </c>
       <c r="L26">
-        <v>114.71441811570725</v>
+        <v>7.7505838011601567</v>
       </c>
       <c r="M26">
-        <v>7.7505838011601567</v>
+        <v>477.18979226958328</v>
       </c>
       <c r="N26">
-        <v>476.25195663399415</v>
-      </c>
-      <c r="O26">
         <f>((Table1[[#This Row],[IHCTG conc]]*3+Table1[[#This Row],[EHCFA conc]]+Table1[[#This Row],[IHCFA conc]])/(Table1[[#This Row],[TRL disappearance conc]]*3))*100</f>
-        <v>25.734690072033473</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+        <v>25.720605295743521</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>75</v>
       </c>
@@ -5235,7 +5168,7 @@
         <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D27" t="s">
         <v>19</v>
@@ -5244,7 +5177,7 @@
         <v>20</v>
       </c>
       <c r="F27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G27" t="s">
         <v>25</v>
@@ -5256,26 +5189,23 @@
         <v>73.693074579465886</v>
       </c>
       <c r="J27">
-        <v>1089.022069355462</v>
+        <v>41.694396091096415</v>
       </c>
       <c r="K27">
-        <v>41.691430007320598</v>
+        <v>57.699193839954596</v>
       </c>
       <c r="L27">
-        <v>57.259391851635655</v>
+        <v>4.7706781583065725</v>
       </c>
       <c r="M27">
-        <v>4.7706781583065725</v>
+        <v>454.95952529317577</v>
       </c>
       <c r="N27">
-        <v>454.02887380960681</v>
-      </c>
-      <c r="O27">
         <f>((Table1[[#This Row],[IHCTG conc]]*3+Table1[[#This Row],[EHCFA conc]]+Table1[[#This Row],[IHCFA conc]])/(Table1[[#This Row],[TRL disappearance conc]]*3))*100</f>
-        <v>20.784969861267708</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+        <v>20.774675546060198</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>76</v>
       </c>
@@ -5283,7 +5213,7 @@
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
@@ -5292,7 +5222,7 @@
         <v>23</v>
       </c>
       <c r="F28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G28" t="s">
         <v>25</v>
@@ -5304,26 +5234,23 @@
         <v>84.965711074150192</v>
       </c>
       <c r="J28">
-        <v>1615.4082379776969</v>
+        <v>29.894480803150593</v>
       </c>
       <c r="K28">
-        <v>29.881783361680075</v>
+        <v>93.622978776588965</v>
       </c>
       <c r="L28">
-        <v>92.9705955283506</v>
+        <v>5.8334563618689934</v>
       </c>
       <c r="M28">
-        <v>5.8334563618689934</v>
+        <v>483.87334818614119</v>
       </c>
       <c r="N28">
-        <v>482.71279007922874</v>
-      </c>
-      <c r="O28">
         <f>((Table1[[#This Row],[IHCTG conc]]*3+Table1[[#This Row],[EHCFA conc]]+Table1[[#This Row],[IHCFA conc]])/(Table1[[#This Row],[TRL disappearance conc]]*3))*100</f>
-        <v>24.424543426372743</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+        <v>24.410903506688715</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>80</v>
       </c>
@@ -5331,7 +5258,7 @@
         <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D29" t="s">
         <v>14</v>
@@ -5352,26 +5279,23 @@
         <v>54.552385812883152</v>
       </c>
       <c r="J29">
-        <v>1032.1276830413592</v>
+        <v>15.249028925918331</v>
       </c>
       <c r="K29">
-        <v>15.24658214676149</v>
+        <v>30.887608389091255</v>
       </c>
       <c r="L29">
-        <v>31.189951751682202</v>
+        <v>2.3173938065130026</v>
       </c>
       <c r="M29">
-        <v>2.3173938065130026</v>
+        <v>157.6891745698878</v>
       </c>
       <c r="N29">
-        <v>157.36419505436689</v>
-      </c>
-      <c r="O29">
         <f>((Table1[[#This Row],[IHCTG conc]]*3+Table1[[#This Row],[EHCFA conc]]+Table1[[#This Row],[IHCFA conc]])/(Table1[[#This Row],[TRL disappearance conc]]*3))*100</f>
-        <v>41.763948257888309</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+        <v>41.613966245350269</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>81</v>
       </c>
@@ -5379,7 +5303,7 @@
         <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D30" t="s">
         <v>19</v>
@@ -5400,26 +5324,23 @@
         <v>28.697933072232512</v>
       </c>
       <c r="J30">
-        <v>702.74300909557053</v>
+        <v>16.05779491971904</v>
       </c>
       <c r="K30">
-        <v>16.059908444545297</v>
+        <v>30.042716810181947</v>
       </c>
       <c r="L30">
-        <v>30.248572818017287</v>
+        <v>1.1545141526654323</v>
       </c>
       <c r="M30">
-        <v>1.1545141526654323</v>
+        <v>113.05992838935592</v>
       </c>
       <c r="N30">
-        <v>112.85988386119128</v>
-      </c>
-      <c r="O30">
         <f>((Table1[[#This Row],[IHCTG conc]]*3+Table1[[#This Row],[EHCFA conc]]+Table1[[#This Row],[IHCFA conc]])/(Table1[[#This Row],[TRL disappearance conc]]*3))*100</f>
-        <v>34.702878816796748</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+        <v>34.580784382956594</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>82</v>
       </c>
@@ -5427,7 +5348,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D31" t="s">
         <v>22</v>
@@ -5448,26 +5369,23 @@
         <v>38.83653796527301</v>
       </c>
       <c r="J31">
-        <v>1115.6740133662472</v>
+        <v>16.070920895688047</v>
       </c>
       <c r="K31">
-        <v>16.07701882774775</v>
+        <v>32.837894349371787</v>
       </c>
       <c r="L31">
-        <v>33.164711116617596</v>
+        <v>1.9533001157192151</v>
       </c>
       <c r="M31">
-        <v>1.9533001157192151</v>
+        <v>179.6405375376109</v>
       </c>
       <c r="N31">
-        <v>179.36712118518051</v>
-      </c>
-      <c r="O31">
         <f>((Table1[[#This Row],[IHCTG conc]]*3+Table1[[#This Row],[EHCFA conc]]+Table1[[#This Row],[IHCFA conc]])/(Table1[[#This Row],[TRL disappearance conc]]*3))*100</f>
-        <v>28.178264430750726</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+        <v>28.074733842527529</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>86</v>
       </c>
@@ -5475,7 +5393,7 @@
         <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D32" t="s">
         <v>14</v>
@@ -5484,7 +5402,7 @@
         <v>15</v>
       </c>
       <c r="F32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G32" t="s">
         <v>25</v>
@@ -5495,11 +5413,24 @@
       <c r="I32">
         <v>150.3002888315597</v>
       </c>
+      <c r="J32">
+        <v>42.003009410632927</v>
+      </c>
+      <c r="K32">
+        <v>5.3393219913646712</v>
+      </c>
+      <c r="L32">
+        <v>6.4758936171890227</v>
+      </c>
       <c r="M32">
-        <v>7.1492936266965081</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+        <v>355.29279671702949</v>
+      </c>
+      <c r="N32">
+        <f>((Table1[[#This Row],[IHCTG conc]]*3+Table1[[#This Row],[EHCFA conc]]+Table1[[#This Row],[IHCFA conc]])/(Table1[[#This Row],[TRL disappearance conc]]*3))*100</f>
+        <v>43.411714354922111</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>87</v>
       </c>
@@ -5507,7 +5438,7 @@
         <v>6</v>
       </c>
       <c r="C33" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D33" t="s">
         <v>19</v>
@@ -5516,7 +5447,7 @@
         <v>20</v>
       </c>
       <c r="F33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G33" t="s">
         <v>25</v>
@@ -5527,11 +5458,24 @@
       <c r="I33">
         <v>162.89716323727174</v>
       </c>
+      <c r="J33">
+        <v>47.056145669818619</v>
+      </c>
+      <c r="K33">
+        <v>19.039301631939026</v>
+      </c>
+      <c r="L33">
+        <v>3.9754532193382404</v>
+      </c>
       <c r="M33">
-        <v>3.9754532193382404</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+        <v>424.61371236178945</v>
+      </c>
+      <c r="N33">
+        <f>((Table1[[#This Row],[IHCTG conc]]*3+Table1[[#This Row],[EHCFA conc]]+Table1[[#This Row],[IHCFA conc]])/(Table1[[#This Row],[TRL disappearance conc]]*3))*100</f>
+        <v>40.170334405584498</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>88</v>
       </c>
@@ -5539,7 +5483,7 @@
         <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D34" t="s">
         <v>22</v>
@@ -5548,7 +5492,7 @@
         <v>23</v>
       </c>
       <c r="F34" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G34" t="s">
         <v>25</v>
@@ -5559,11 +5503,24 @@
       <c r="I34">
         <v>105.69537514439619</v>
       </c>
+      <c r="J34">
+        <v>4.6055944136277027</v>
+      </c>
+      <c r="K34">
+        <v>18.469134519733885</v>
+      </c>
+      <c r="L34">
+        <v>2.3814689999255712</v>
+      </c>
       <c r="M34">
-        <v>2.3814689999255712</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+        <v>26.5813894079016</v>
+      </c>
+      <c r="N34">
+        <f>((Table1[[#This Row],[IHCTG conc]]*3+Table1[[#This Row],[EHCFA conc]]+Table1[[#This Row],[IHCFA conc]])/(Table1[[#This Row],[TRL disappearance conc]]*3))*100</f>
+        <v>423.776103607778</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>92</v>
       </c>
@@ -5571,7 +5528,7 @@
         <v>6</v>
       </c>
       <c r="C35" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D35" t="s">
         <v>14</v>
@@ -5591,11 +5548,24 @@
       <c r="I35">
         <v>113.93067416200819</v>
       </c>
+      <c r="J35">
+        <v>9.4401799810559073</v>
+      </c>
+      <c r="K35">
+        <v>3.3312244082618125</v>
+      </c>
+      <c r="L35">
+        <v>3.8139101191666795</v>
+      </c>
       <c r="M35">
-        <v>3.6233557829683409</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+        <v>65.977126692655602</v>
+      </c>
+      <c r="N35">
+        <f>((Table1[[#This Row],[IHCTG conc]]*3+Table1[[#This Row],[EHCFA conc]]+Table1[[#This Row],[IHCFA conc]])/(Table1[[#This Row],[TRL disappearance conc]]*3))*100</f>
+        <v>176.29198405831545</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>93</v>
       </c>
@@ -5603,7 +5573,7 @@
         <v>6</v>
       </c>
       <c r="C36" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D36" t="s">
         <v>19</v>
@@ -5623,11 +5593,24 @@
       <c r="I36">
         <v>73.558071923205361</v>
       </c>
+      <c r="J36">
+        <v>6.2209863510495769</v>
+      </c>
+      <c r="K36">
+        <v>-0.64047046138765895</v>
+      </c>
+      <c r="L36">
+        <v>4.2364181900309914</v>
+      </c>
       <c r="M36">
-        <v>4.2364181900309914</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+        <v>28.990564468418839</v>
+      </c>
+      <c r="N36">
+        <f>((Table1[[#This Row],[IHCTG conc]]*3+Table1[[#This Row],[EHCFA conc]]+Table1[[#This Row],[IHCFA conc]])/(Table1[[#This Row],[TRL disappearance conc]]*3))*100</f>
+        <v>257.86569712198417</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>94</v>
       </c>
@@ -5635,7 +5618,7 @@
         <v>6</v>
       </c>
       <c r="C37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D37" t="s">
         <v>22</v>
@@ -5655,11 +5638,24 @@
       <c r="I37">
         <v>49.495465026346373</v>
       </c>
+      <c r="J37">
+        <v>11.379793814260589</v>
+      </c>
+      <c r="K37">
+        <v>-4.1807862970103002</v>
+      </c>
+      <c r="L37">
+        <v>3.0030271667600328</v>
+      </c>
       <c r="M37">
-        <v>3.0030271667600328</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+        <v>45.24552332742482</v>
+      </c>
+      <c r="N37">
+        <f>((Table1[[#This Row],[IHCTG conc]]*3+Table1[[#This Row],[EHCFA conc]]+Table1[[#This Row],[IHCFA conc]])/(Table1[[#This Row],[TRL disappearance conc]]*3))*100</f>
+        <v>108.52538558181155</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>98</v>
       </c>
@@ -5667,7 +5663,7 @@
         <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D38" t="s">
         <v>14</v>
@@ -5676,7 +5672,7 @@
         <v>15</v>
       </c>
       <c r="F38" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G38" t="s">
         <v>25</v>
@@ -5687,11 +5683,24 @@
       <c r="I38">
         <v>53.658763374459724</v>
       </c>
+      <c r="J38">
+        <v>30.369452340512705</v>
+      </c>
+      <c r="K38">
+        <v>40.547855583308625</v>
+      </c>
+      <c r="L38">
+        <v>4.9088990442926264</v>
+      </c>
       <c r="M38">
-        <v>6.982984920015789</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+        <v>123.34052429464641</v>
+      </c>
+      <c r="N38">
+        <f>((Table1[[#This Row],[IHCTG conc]]*3+Table1[[#This Row],[EHCFA conc]]+Table1[[#This Row],[IHCFA conc]])/(Table1[[#This Row],[TRL disappearance conc]]*3))*100</f>
+        <v>55.789461987863632</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>99</v>
       </c>
@@ -5699,7 +5708,7 @@
         <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D39" t="s">
         <v>19</v>
@@ -5708,7 +5717,7 @@
         <v>20</v>
       </c>
       <c r="F39" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G39" t="s">
         <v>25</v>
@@ -5719,11 +5728,24 @@
       <c r="I39">
         <v>33.581724132980277</v>
       </c>
+      <c r="J39">
+        <v>34.87873373343151</v>
+      </c>
+      <c r="K39">
+        <v>30.995631824318178</v>
+      </c>
+      <c r="L39">
+        <v>3.4447026817277369</v>
+      </c>
       <c r="M39">
-        <v>3.4447026817277369</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+        <v>102.19922287044881</v>
+      </c>
+      <c r="N39">
+        <f>((Table1[[#This Row],[IHCTG conc]]*3+Table1[[#This Row],[EHCFA conc]]+Table1[[#This Row],[IHCFA conc]])/(Table1[[#This Row],[TRL disappearance conc]]*3))*100</f>
+        <v>44.092150966859592</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>100</v>
       </c>
@@ -5731,7 +5753,7 @@
         <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D40" t="s">
         <v>22</v>
@@ -5740,7 +5762,7 @@
         <v>23</v>
       </c>
       <c r="F40" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G40" t="s">
         <v>25</v>
@@ -5751,11 +5773,24 @@
       <c r="I40">
         <v>33.005697723478654</v>
       </c>
+      <c r="J40">
+        <v>46.087097530292738</v>
+      </c>
+      <c r="K40">
+        <v>6.7154725096783974</v>
+      </c>
+      <c r="L40">
+        <v>2.8131750567444573</v>
+      </c>
       <c r="M40">
-        <v>2.8131750567444573</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+        <v>139.07671076745567</v>
+      </c>
+      <c r="N40">
+        <f>((Table1[[#This Row],[IHCTG conc]]*3+Table1[[#This Row],[EHCFA conc]]+Table1[[#This Row],[IHCFA conc]])/(Table1[[#This Row],[TRL disappearance conc]]*3))*100</f>
+        <v>26.015796159754739</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>104</v>
       </c>
@@ -5763,7 +5798,7 @@
         <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D41" t="s">
         <v>14</v>
@@ -5783,11 +5818,24 @@
       <c r="I41">
         <v>42.445686628796629</v>
       </c>
+      <c r="J41">
+        <v>34.800705644701409</v>
+      </c>
+      <c r="K41">
+        <v>11.239577659098405</v>
+      </c>
+      <c r="L41">
+        <v>4.9090534121274807</v>
+      </c>
       <c r="M41">
-        <v>9.7990646489321005</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+        <v>117.70029541862486</v>
+      </c>
+      <c r="N41">
+        <f>((Table1[[#This Row],[IHCTG conc]]*3+Table1[[#This Row],[EHCFA conc]]+Table1[[#This Row],[IHCFA conc]])/(Table1[[#This Row],[TRL disappearance conc]]*3))*100</f>
+        <v>40.635890914654595</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>105</v>
       </c>
@@ -5795,7 +5843,7 @@
         <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D42" t="s">
         <v>19</v>
@@ -5815,11 +5863,24 @@
       <c r="I42">
         <v>22.429943368614282</v>
       </c>
+      <c r="J42">
+        <v>28.524374532704567</v>
+      </c>
+      <c r="K42">
+        <v>16.799539188581118</v>
+      </c>
+      <c r="L42">
+        <v>2.2664268834442716</v>
+      </c>
       <c r="M42">
-        <v>3.0537994224648188</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+        <v>76.137841158444473</v>
+      </c>
+      <c r="N42">
+        <f>((Table1[[#This Row],[IHCTG conc]]*3+Table1[[#This Row],[EHCFA conc]]+Table1[[#This Row],[IHCFA conc]])/(Table1[[#This Row],[TRL disappearance conc]]*3))*100</f>
+        <v>37.806779066298965</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>106</v>
       </c>
@@ -5827,7 +5888,7 @@
         <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D43" t="s">
         <v>22</v>
@@ -5847,11 +5908,24 @@
       <c r="I43">
         <v>23.74884974798189</v>
       </c>
+      <c r="J43">
+        <v>38.36644229741043</v>
+      </c>
+      <c r="K43">
+        <v>4.7214675593243962</v>
+      </c>
+      <c r="L43">
+        <v>2.6146590222936199</v>
+      </c>
       <c r="M43">
-        <v>3.4349809874292299</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+        <v>112.37619924139635</v>
+      </c>
+      <c r="N43">
+        <f>((Table1[[#This Row],[IHCTG conc]]*3+Table1[[#This Row],[EHCFA conc]]+Table1[[#This Row],[IHCFA conc]])/(Table1[[#This Row],[TRL disappearance conc]]*3))*100</f>
+        <v>23.309406664412844</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>110</v>
       </c>
@@ -5859,7 +5933,7 @@
         <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D44" t="s">
         <v>14</v>
@@ -5868,7 +5942,7 @@
         <v>15</v>
       </c>
       <c r="F44" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G44" t="s">
         <v>25</v>
@@ -5879,11 +5953,24 @@
       <c r="I44">
         <v>38.354663646917622</v>
       </c>
+      <c r="J44">
+        <v>52.142782886691165</v>
+      </c>
+      <c r="K44">
+        <v>24.808872212805344</v>
+      </c>
+      <c r="L44">
+        <v>6.0362661510809348</v>
+      </c>
       <c r="M44">
-        <v>6.0362661510809348</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+        <v>171.70885693868883</v>
+      </c>
+      <c r="N44">
+        <f>((Table1[[#This Row],[IHCTG conc]]*3+Table1[[#This Row],[EHCFA conc]]+Table1[[#This Row],[IHCFA conc]])/(Table1[[#This Row],[TRL disappearance conc]]*3))*100</f>
+        <v>28.324908395520936</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>111</v>
       </c>
@@ -5891,7 +5978,7 @@
         <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D45" t="s">
         <v>19</v>
@@ -5900,7 +5987,7 @@
         <v>20</v>
       </c>
       <c r="F45" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G45" t="s">
         <v>25</v>
@@ -5911,11 +5998,24 @@
       <c r="I45">
         <v>55.421831788257968</v>
       </c>
+      <c r="J45">
+        <v>54.449205739111406</v>
+      </c>
+      <c r="K45">
+        <v>30.970713821894481</v>
+      </c>
+      <c r="L45">
+        <v>4.0604001958850455</v>
+      </c>
       <c r="M45">
-        <v>4.0604001958850455</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+        <v>214.21339594952653</v>
+      </c>
+      <c r="N45">
+        <f>((Table1[[#This Row],[IHCTG conc]]*3+Table1[[#This Row],[EHCFA conc]]+Table1[[#This Row],[IHCFA conc]])/(Table1[[#This Row],[TRL disappearance conc]]*3))*100</f>
+        <v>31.323377091689668</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>112</v>
       </c>
@@ -5923,7 +6023,7 @@
         <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D46" t="s">
         <v>22</v>
@@ -5932,7 +6032,7 @@
         <v>23</v>
       </c>
       <c r="F46" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G46" t="s">
         <v>25</v>
@@ -5943,11 +6043,24 @@
       <c r="I46">
         <v>38.355425044965763</v>
       </c>
+      <c r="J46">
+        <v>47.947760793668706</v>
+      </c>
+      <c r="K46">
+        <v>13.636658730735329</v>
+      </c>
+      <c r="L46">
+        <v>1.642001526759185</v>
+      </c>
       <c r="M46">
-        <v>1.642001526759185</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+        <v>127.45931003907052</v>
+      </c>
+      <c r="N46">
+        <f>((Table1[[#This Row],[IHCTG conc]]*3+Table1[[#This Row],[EHCFA conc]]+Table1[[#This Row],[IHCFA conc]])/(Table1[[#This Row],[TRL disappearance conc]]*3))*100</f>
+        <v>34.08798602796891</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>116</v>
       </c>
@@ -5955,7 +6068,7 @@
         <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D47" t="s">
         <v>14</v>
@@ -5975,11 +6088,24 @@
       <c r="I47">
         <v>45.507041098049982</v>
       </c>
+      <c r="J47">
+        <v>34.003429440596221</v>
+      </c>
+      <c r="K47">
+        <v>12.590672732462901</v>
+      </c>
+      <c r="L47">
+        <v>2.2534389661742003</v>
+      </c>
       <c r="M47">
-        <v>2.2534389661742003</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+        <v>77.297781696175818</v>
+      </c>
+      <c r="N47">
+        <f>((Table1[[#This Row],[IHCTG conc]]*3+Table1[[#This Row],[EHCFA conc]]+Table1[[#This Row],[IHCFA conc]])/(Table1[[#This Row],[TRL disappearance conc]]*3))*100</f>
+        <v>65.273643335905987</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>117</v>
       </c>
@@ -5987,7 +6113,7 @@
         <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D48" t="s">
         <v>19</v>
@@ -6007,11 +6133,24 @@
       <c r="I48">
         <v>55.399511593125801</v>
       </c>
+      <c r="J48">
+        <v>43.430007009920971</v>
+      </c>
+      <c r="K48">
+        <v>5.0360980454822579</v>
+      </c>
+      <c r="L48">
+        <v>2.0178560356934847</v>
+      </c>
       <c r="M48">
-        <v>2.0178560356934847</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+        <v>109.0843594289894</v>
+      </c>
+      <c r="N48">
+        <f>((Table1[[#This Row],[IHCTG conc]]*3+Table1[[#This Row],[EHCFA conc]]+Table1[[#This Row],[IHCFA conc]])/(Table1[[#This Row],[TRL disappearance conc]]*3))*100</f>
+        <v>52.941439013333905</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>118</v>
       </c>
@@ -6019,7 +6158,7 @@
         <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D49" t="s">
         <v>22</v>
@@ -6039,8 +6178,21 @@
       <c r="I49">
         <v>46.036351341582019</v>
       </c>
+      <c r="J49">
+        <v>36.64416070846876</v>
+      </c>
+      <c r="K49">
+        <v>4.7016798529461656</v>
+      </c>
+      <c r="L49">
+        <v>2.3676009967337071</v>
+      </c>
       <c r="M49">
-        <v>2.3676009967337071</v>
+        <v>99.377616164748829</v>
+      </c>
+      <c r="N49">
+        <f>((Table1[[#This Row],[IHCTG conc]]*3+Table1[[#This Row],[EHCFA conc]]+Table1[[#This Row],[IHCFA conc]])/(Table1[[#This Row],[TRL disappearance conc]]*3))*100</f>
+        <v>48.695853411546373</v>
       </c>
     </row>
   </sheetData>
@@ -6056,7 +6208,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F60E434C-11A3-44BB-A07D-9898958DBABA}">
   <dimension ref="A1:J97"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
@@ -6093,13 +6245,13 @@
         <v>7</v>
       </c>
       <c r="H1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I1" t="s">
         <v>135</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>136</v>
-      </c>
-      <c r="J1" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -8791,7 +8943,7 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8803,7 +8955,7 @@
     <col min="10" max="10" width="20.28515625" customWidth="1"/>
     <col min="11" max="11" width="31.5703125" customWidth="1"/>
     <col min="12" max="12" width="21" customWidth="1"/>
-    <col min="13" max="13" width="15.42578125" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" customWidth="1"/>
     <col min="14" max="14" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8833,22 +8985,22 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
+        <v>128</v>
+      </c>
+      <c r="J1" t="s">
         <v>129</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>130</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>131</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>132</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>133</v>
-      </c>
-      <c r="N1" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -8859,7 +9011,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
@@ -8877,14 +9029,14 @@
         <v>2</v>
       </c>
       <c r="I2">
-        <v>93.416246733081522</v>
+        <v>92.961666437367455</v>
       </c>
       <c r="J2">
-        <v>53.522299198183525</v>
+        <v>52.605600291647214</v>
       </c>
       <c r="K2">
         <f>Table2[[#This Row],[Basal EHCFA]]-Table2[[#This Row],[Inhibited EHCFA]]</f>
-        <v>39.893947534897997</v>
+        <v>40.356066145720241</v>
       </c>
       <c r="L2">
         <v>13.311204919543773</v>
@@ -8905,7 +9057,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -8923,14 +9075,14 @@
         <v>2</v>
       </c>
       <c r="I3">
-        <v>66.30298334212101</v>
+        <v>65.79665742072406</v>
       </c>
       <c r="J3">
-        <v>27.999627176137924</v>
+        <v>27.324023891844909</v>
       </c>
       <c r="K3">
         <f>Table2[[#This Row],[Basal EHCFA]]-Table2[[#This Row],[Inhibited EHCFA]]</f>
-        <v>38.303356165983089</v>
+        <v>38.47263352887915</v>
       </c>
       <c r="L3">
         <v>5.3968581122769166</v>
@@ -8951,7 +9103,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
@@ -8969,14 +9121,14 @@
         <v>2</v>
       </c>
       <c r="I4">
-        <v>41.358324202080681</v>
+        <v>40.916133207806439</v>
       </c>
       <c r="J4">
-        <v>36.454777226160658</v>
+        <v>35.832511152084557</v>
       </c>
       <c r="K4">
         <f>Table2[[#This Row],[Basal EHCFA]]-Table2[[#This Row],[Inhibited EHCFA]]</f>
-        <v>4.9035469759200225</v>
+        <v>5.0836220557218823</v>
       </c>
       <c r="L4">
         <v>4.9588827001107951</v>
@@ -8997,7 +9149,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
@@ -9015,14 +9167,14 @@
         <v>2</v>
       </c>
       <c r="I5">
-        <v>61.537168115192785</v>
+        <v>60.972908725386354</v>
       </c>
       <c r="J5">
-        <v>37.503297534008659</v>
+        <v>36.840290169620879</v>
       </c>
       <c r="K5">
         <f>Table2[[#This Row],[Basal EHCFA]]-Table2[[#This Row],[Inhibited EHCFA]]</f>
-        <v>24.033870581184125</v>
+        <v>24.132618555765475</v>
       </c>
       <c r="L5">
         <v>9.1244583295087782</v>
@@ -9043,7 +9195,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -9061,14 +9213,14 @@
         <v>2</v>
       </c>
       <c r="I6">
-        <v>54.056632049597937</v>
+        <v>53.584458492155157</v>
       </c>
       <c r="J6">
-        <v>46.497110752052109</v>
+        <v>45.710075409627244</v>
       </c>
       <c r="K6">
         <f>Table2[[#This Row],[Basal EHCFA]]-Table2[[#This Row],[Inhibited EHCFA]]</f>
-        <v>7.5595212975458281</v>
+        <v>7.8743830825279133</v>
       </c>
       <c r="L6">
         <v>5.8260864942035058</v>
@@ -9089,7 +9241,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D7" t="s">
         <v>23</v>
@@ -9107,14 +9259,14 @@
         <v>2</v>
       </c>
       <c r="I7">
-        <v>114.90074013637613</v>
+        <v>114.30956666904754</v>
       </c>
       <c r="J7">
-        <v>37.64815376578585</v>
+        <v>36.861118423360992</v>
       </c>
       <c r="K7">
         <f>Table2[[#This Row],[Basal EHCFA]]-Table2[[#This Row],[Inhibited EHCFA]]</f>
-        <v>77.252586370590279</v>
+        <v>77.448448245686549</v>
       </c>
       <c r="L7">
         <v>6.4974221857152834</v>
@@ -9135,7 +9287,7 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
@@ -9153,7 +9305,7 @@
         <v>2</v>
       </c>
       <c r="I8">
-        <v>41.266316586180608</v>
+        <v>40.118834417281633</v>
       </c>
       <c r="L8">
         <v>8.7801081538046688</v>
@@ -9174,7 +9326,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
@@ -9192,7 +9344,7 @@
         <v>2</v>
       </c>
       <c r="I9">
-        <v>69.450341248918235</v>
+        <v>68.447929627222678</v>
       </c>
       <c r="L9">
         <v>6.2432436068605091</v>
@@ -9212,7 +9364,7 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -9230,7 +9382,7 @@
         <v>2</v>
       </c>
       <c r="I10">
-        <v>96.093020783301071</v>
+        <v>95.078308495078488</v>
       </c>
       <c r="L10">
         <v>6.4314935169092733</v>
@@ -9251,7 +9403,7 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
@@ -9269,14 +9421,14 @@
         <v>2</v>
       </c>
       <c r="I11">
-        <v>34.145376908533535</v>
+        <v>32.817566720239014</v>
       </c>
       <c r="J11">
-        <v>30.566660738270336</v>
+        <v>29.496160902564554</v>
       </c>
       <c r="K11">
         <f>Table2[[#This Row],[Basal EHCFA]]-Table2[[#This Row],[Inhibited EHCFA]]</f>
-        <v>3.5787161702631991</v>
+        <v>3.3214058176744601</v>
       </c>
       <c r="L11">
         <v>8.5227901963181427</v>
@@ -9297,7 +9449,7 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -9315,14 +9467,14 @@
         <v>2</v>
       </c>
       <c r="I12">
-        <v>27.05465723585645</v>
+        <v>25.677185243320693</v>
       </c>
       <c r="J12">
-        <v>26.336830323257914</v>
+        <v>25.334312157372299</v>
       </c>
       <c r="K12">
         <f>Table2[[#This Row],[Basal EHCFA]]-Table2[[#This Row],[Inhibited EHCFA]]</f>
-        <v>0.71782691259853593</v>
+        <v>0.34287308594839416</v>
       </c>
       <c r="L12">
         <v>2.6848583646838917</v>
@@ -9343,7 +9495,7 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D13" t="s">
         <v>23</v>
@@ -9361,14 +9513,14 @@
         <v>2</v>
       </c>
       <c r="I13">
-        <v>54.528662155465149</v>
+        <v>53.171174474758843</v>
       </c>
       <c r="J13">
-        <v>28.191387711477525</v>
+        <v>27.159582880301052</v>
       </c>
       <c r="K13">
         <f>Table2[[#This Row],[Basal EHCFA]]-Table2[[#This Row],[Inhibited EHCFA]]</f>
-        <v>26.337274443987624</v>
+        <v>26.011591594457791</v>
       </c>
       <c r="L13">
         <v>2.0710553886575425</v>
@@ -9389,7 +9541,7 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
@@ -9407,14 +9559,14 @@
         <v>2</v>
       </c>
       <c r="I14">
-        <v>114.71441811570725</v>
+        <v>115.23683205416017</v>
       </c>
       <c r="J14">
-        <v>31.189951751682202</v>
+        <v>30.887608389091255</v>
       </c>
       <c r="K14">
         <f>Table2[[#This Row],[Basal EHCFA]]-Table2[[#This Row],[Inhibited EHCFA]]</f>
-        <v>83.524466364025045</v>
+        <v>84.349223665068919</v>
       </c>
       <c r="L14">
         <v>7.7505838011601567</v>
@@ -9435,7 +9587,7 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D15" t="s">
         <v>20</v>
@@ -9453,14 +9605,14 @@
         <v>2</v>
       </c>
       <c r="I15">
-        <v>57.259391851635655</v>
+        <v>57.699193839954596</v>
       </c>
       <c r="J15">
-        <v>30.248572818017287</v>
+        <v>30.042716810181947</v>
       </c>
       <c r="K15">
         <f>Table2[[#This Row],[Basal EHCFA]]-Table2[[#This Row],[Inhibited EHCFA]]</f>
-        <v>27.010819033618368</v>
+        <v>27.656477029772649</v>
       </c>
       <c r="L15">
         <v>4.7706781583065725</v>
@@ -9481,7 +9633,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D16" t="s">
         <v>23</v>
@@ -9499,14 +9651,14 @@
         <v>2</v>
       </c>
       <c r="I16">
-        <v>92.9705955283506</v>
+        <v>93.622978776588965</v>
       </c>
       <c r="J16">
-        <v>33.164711116617596</v>
+        <v>32.837894349371787</v>
       </c>
       <c r="K16">
         <f>Table2[[#This Row],[Basal EHCFA]]-Table2[[#This Row],[Inhibited EHCFA]]</f>
-        <v>59.805884411733004</v>
+        <v>60.785084427217178</v>
       </c>
       <c r="L16">
         <v>5.8334563618689934</v>
@@ -9519,7 +9671,7 @@
         <v>3.8801562461497783</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>86</v>
       </c>
@@ -9527,7 +9679,7 @@
         <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D17" t="s">
         <v>15</v>
@@ -9544,8 +9696,28 @@
       <c r="H17">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17">
+        <v>0.65409510002839644</v>
+      </c>
+      <c r="J17">
+        <v>3.3312244082618125</v>
+      </c>
+      <c r="K17">
+        <f>Table2[[#This Row],[Basal EHCFA]]-Table2[[#This Row],[Inhibited EHCFA]]</f>
+        <v>-2.677129308233416</v>
+      </c>
+      <c r="L17">
+        <v>7.284418707201926</v>
+      </c>
+      <c r="M17">
+        <v>3.8139101191666795</v>
+      </c>
+      <c r="N17">
+        <f>Table2[[#This Row],[Basal IHCFA]]-Table2[[#This Row],[Inhibited IHCFA]]</f>
+        <v>3.4705085880352464</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>87</v>
       </c>
@@ -9553,7 +9725,7 @@
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D18" t="s">
         <v>20</v>
@@ -9570,8 +9742,27 @@
       <c r="H18">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18">
+        <v>19.039301631939026</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <f>Table2[[#This Row],[Basal EHCFA]]-Table2[[#This Row],[Inhibited EHCFA]]</f>
+        <v>19.039301631939026</v>
+      </c>
+      <c r="L18">
+        <v>3.9754532193382404</v>
+      </c>
+      <c r="M18">
+        <v>4.2364181900309914</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>88</v>
       </c>
@@ -9579,7 +9770,7 @@
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D19" t="s">
         <v>23</v>
@@ -9596,8 +9787,27 @@
       <c r="H19">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19">
+        <v>18.469134519733885</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <f>Table2[[#This Row],[Basal EHCFA]]-Table2[[#This Row],[Inhibited EHCFA]]</f>
+        <v>18.469134519733885</v>
+      </c>
+      <c r="L19">
+        <v>2.3814689999255712</v>
+      </c>
+      <c r="M19">
+        <v>3.0030271667600328</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>98</v>
       </c>
@@ -9605,7 +9815,7 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D20" t="s">
         <v>15</v>
@@ -9622,8 +9832,28 @@
       <c r="H20">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20">
+        <v>40.547855583308625</v>
+      </c>
+      <c r="J20">
+        <v>30.676215111779857</v>
+      </c>
+      <c r="K20">
+        <f>Table2[[#This Row],[Basal EHCFA]]-Table2[[#This Row],[Inhibited EHCFA]]</f>
+        <v>9.8716404715287673</v>
+      </c>
+      <c r="L20">
+        <v>4.9088990442926264</v>
+      </c>
+      <c r="M20">
+        <v>3.4271081662490004</v>
+      </c>
+      <c r="N20">
+        <f>Table2[[#This Row],[Basal IHCFA]]-Table2[[#This Row],[Inhibited IHCFA]]</f>
+        <v>1.481790878043626</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>99</v>
       </c>
@@ -9631,7 +9861,7 @@
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D21" t="s">
         <v>20</v>
@@ -9648,8 +9878,28 @@
       <c r="H21">
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21">
+        <v>30.995631824318178</v>
+      </c>
+      <c r="J21">
+        <v>16.799539188581118</v>
+      </c>
+      <c r="K21">
+        <f>Table2[[#This Row],[Basal EHCFA]]-Table2[[#This Row],[Inhibited EHCFA]]</f>
+        <v>14.19609263573706</v>
+      </c>
+      <c r="L21">
+        <v>3.4447026817277369</v>
+      </c>
+      <c r="M21">
+        <v>2.2664268834442716</v>
+      </c>
+      <c r="N21">
+        <f>Table2[[#This Row],[Basal IHCFA]]-Table2[[#This Row],[Inhibited IHCFA]]</f>
+        <v>1.1782757982834653</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>100</v>
       </c>
@@ -9657,7 +9907,7 @@
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D22" t="s">
         <v>23</v>
@@ -9674,8 +9924,28 @@
       <c r="H22">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22">
+        <v>6.7154725096783974</v>
+      </c>
+      <c r="J22">
+        <v>4.7214675593243962</v>
+      </c>
+      <c r="K22">
+        <f>Table2[[#This Row],[Basal EHCFA]]-Table2[[#This Row],[Inhibited EHCFA]]</f>
+        <v>1.9940049503540012</v>
+      </c>
+      <c r="L22">
+        <v>2.8131750567444573</v>
+      </c>
+      <c r="M22">
+        <v>2.6146590222936199</v>
+      </c>
+      <c r="N22">
+        <f>Table2[[#This Row],[Basal IHCFA]]-Table2[[#This Row],[Inhibited IHCFA]]</f>
+        <v>0.19851603445083743</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>110</v>
       </c>
@@ -9683,7 +9953,7 @@
         <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D23" t="s">
         <v>15</v>
@@ -9700,8 +9970,28 @@
       <c r="H23">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23">
+        <v>24.808872212805344</v>
+      </c>
+      <c r="J23">
+        <v>12.590672732462901</v>
+      </c>
+      <c r="K23">
+        <f>Table2[[#This Row],[Basal EHCFA]]-Table2[[#This Row],[Inhibited EHCFA]]</f>
+        <v>12.218199480342443</v>
+      </c>
+      <c r="L23">
+        <v>6.0362661510809348</v>
+      </c>
+      <c r="M23">
+        <v>2.2534389661742003</v>
+      </c>
+      <c r="N23">
+        <f>Table2[[#This Row],[Basal IHCFA]]-Table2[[#This Row],[Inhibited IHCFA]]</f>
+        <v>3.7828271849067345</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>111</v>
       </c>
@@ -9709,7 +9999,7 @@
         <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D24" t="s">
         <v>20</v>
@@ -9726,8 +10016,28 @@
       <c r="H24">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24">
+        <v>30.970713821894481</v>
+      </c>
+      <c r="J24">
+        <v>5.0360980454822579</v>
+      </c>
+      <c r="K24">
+        <f>Table2[[#This Row],[Basal EHCFA]]-Table2[[#This Row],[Inhibited EHCFA]]</f>
+        <v>25.934615776412222</v>
+      </c>
+      <c r="L24">
+        <v>4.0604001958850455</v>
+      </c>
+      <c r="M24">
+        <v>2.0178560356934847</v>
+      </c>
+      <c r="N24">
+        <f>Table2[[#This Row],[Basal IHCFA]]-Table2[[#This Row],[Inhibited IHCFA]]</f>
+        <v>2.0425441601915608</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>112</v>
       </c>
@@ -9735,7 +10045,7 @@
         <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D25" t="s">
         <v>23</v>
@@ -9751,6 +10061,25 @@
       </c>
       <c r="H25">
         <v>6</v>
+      </c>
+      <c r="I25">
+        <v>13.636658730735329</v>
+      </c>
+      <c r="J25">
+        <v>4.7016798529461656</v>
+      </c>
+      <c r="K25">
+        <f>Table2[[#This Row],[Basal EHCFA]]-Table2[[#This Row],[Inhibited EHCFA]]</f>
+        <v>8.9349788777891632</v>
+      </c>
+      <c r="L25">
+        <v>1.642001526759185</v>
+      </c>
+      <c r="M25">
+        <v>2.3676009967337071</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -9803,31 +10132,31 @@
         <v>6</v>
       </c>
       <c r="G1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H1" t="s">
         <v>138</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>139</v>
       </c>
-      <c r="I1" t="s">
-        <v>140</v>
-      </c>
       <c r="J1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K1" t="s">
         <v>132</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>133</v>
       </c>
-      <c r="L1" t="s">
-        <v>134</v>
-      </c>
       <c r="M1" t="s">
+        <v>128</v>
+      </c>
+      <c r="N1" t="s">
         <v>129</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>130</v>
-      </c>
-      <c r="O1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
